--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395A42C9-8625-4B75-8E85-D4EF8CB0C114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A3D9BC-DD64-497A-9BA3-73C8AB5D057E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
@@ -25847,8 +25847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1C5985-D720-4533-B6F5-A2816F80F2F5}">
   <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:A46"/>
+    <sheetView topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="B321" sqref="B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -29214,8 +29214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6804872F-908E-4576-8C9F-D057085582A0}">
   <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A197" sqref="A197"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -30457,7 +30457,7 @@
         <v>1042</v>
       </c>
       <c r="B155" t="s">
-        <v>1099</v>
+        <v>873</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
@@ -31278,8 +31278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1846DEF0-F0AD-422F-BC6D-F9094EDD7D3F}">
   <dimension ref="A1:B223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A3D9BC-DD64-497A-9BA3-73C8AB5D057E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A109CA-6EDE-4924-BD5A-E76BD23D13A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="1117">
   <si>
     <t>vars</t>
   </si>
@@ -3366,6 +3366,33 @@
   </si>
   <si>
     <t>part_ethnicity2</t>
+  </si>
+  <si>
+    <t>cnt_prec_none</t>
+  </si>
+  <si>
+    <t>cnt_prec_dk</t>
+  </si>
+  <si>
+    <t>cnt_prec_2m_plus</t>
+  </si>
+  <si>
+    <t>cnt_prec_1m_plus</t>
+  </si>
+  <si>
+    <t>cnt_prec_within_1m</t>
+  </si>
+  <si>
+    <t>cnt_prec_mask</t>
+  </si>
+  <si>
+    <t>cnt_prec_wash_before</t>
+  </si>
+  <si>
+    <t>cnt_prec_wash_after</t>
+  </si>
+  <si>
+    <t>cnt_prec_prefer_not_to_say</t>
   </si>
 </sst>
 </file>
@@ -3726,8 +3753,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K650"/>
   <sheetViews>
-    <sheetView topLeftCell="A558" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B649"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20620,11 +20647,11 @@
         <v>1</v>
       </c>
       <c r="J497">
-        <f t="shared" si="14"/>
+        <f>SUM(C497:F497)</f>
         <v>0</v>
       </c>
       <c r="K497">
-        <f t="shared" si="15"/>
+        <f>SUM(G497:H497)</f>
         <v>2</v>
       </c>
     </row>
@@ -25840,6 +25867,9 @@
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="J19:J25 J26 J27:J649 K19:K25 K1:K18 K26:K649" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -25847,8 +25877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1C5985-D720-4533-B6F5-A2816F80F2F5}">
   <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="B321" sqref="B321"/>
+    <sheetView topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -29214,8 +29244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6804872F-908E-4576-8C9F-D057085582A0}">
   <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -30633,7 +30663,7 @@
         <v>485</v>
       </c>
       <c r="B177" t="s">
-        <v>989</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
@@ -30641,7 +30671,7 @@
         <v>486</v>
       </c>
       <c r="B178" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
@@ -30649,7 +30679,7 @@
         <v>487</v>
       </c>
       <c r="B179" t="s">
-        <v>990</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
@@ -30657,7 +30687,7 @@
         <v>488</v>
       </c>
       <c r="B180" t="s">
-        <v>991</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
@@ -30665,7 +30695,7 @@
         <v>489</v>
       </c>
       <c r="B181" t="s">
-        <v>992</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
@@ -30673,7 +30703,7 @@
         <v>490</v>
       </c>
       <c r="B182" t="s">
-        <v>993</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
@@ -30681,7 +30711,7 @@
         <v>491</v>
       </c>
       <c r="B183" t="s">
-        <v>994</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
@@ -30689,7 +30719,7 @@
         <v>492</v>
       </c>
       <c r="B184" t="s">
-        <v>995</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
@@ -30697,7 +30727,7 @@
         <v>493</v>
       </c>
       <c r="B185" t="s">
-        <v>996</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
@@ -31279,7 +31309,7 @@
   <dimension ref="A1:B223"/>
   <sheetViews>
     <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A109CA-6EDE-4924-BD5A-E76BD23D13A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8289867-E8A4-4376-B189-9DB799804011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="All_vars" sheetId="1" r:id="rId1"/>
     <sheet name="survey_1" sheetId="2" r:id="rId2"/>
     <sheet name="survey_2" sheetId="3" r:id="rId3"/>
-    <sheet name="oldsheet_v2" sheetId="4" r:id="rId4"/>
+    <sheet name="locations" sheetId="5" r:id="rId4"/>
+    <sheet name="oldsheet_v2" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All_vars!$A$1:$K$650</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="1166">
   <si>
     <t>vars</t>
   </si>
@@ -3393,6 +3394,153 @@
   </si>
   <si>
     <t>cnt_prec_prefer_not_to_say</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>Northern Irel</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>Région Flamande / Vlaams Gewest</t>
+  </si>
+  <si>
+    <t>Région Wallonne / Waals Gewest</t>
+  </si>
+  <si>
+    <t>Région de Bruxelles-Capitale / Brussels Hoofdstede</t>
+  </si>
+  <si>
+    <t>Région de Bruxelles-Capitale / Brussels Hoofdsted</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>Oost-Nederland</t>
+  </si>
+  <si>
+    <t>Noord-Nederland</t>
+  </si>
+  <si>
+    <t>Zuid-Nederland</t>
+  </si>
+  <si>
+    <t>West-Nederland</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Akershus</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>Vestfold</t>
+  </si>
+  <si>
+    <t>Rogaland</t>
+  </si>
+  <si>
+    <t>Hordaland</t>
+  </si>
+  <si>
+    <t>Vest-Agder</t>
+  </si>
+  <si>
+    <t>Nordland</t>
+  </si>
+  <si>
+    <t>Møre og Romsdal</t>
+  </si>
+  <si>
+    <t>Trøndelag</t>
+  </si>
+  <si>
+    <t>Telemark</t>
+  </si>
+  <si>
+    <t>Østfold</t>
+  </si>
+  <si>
+    <t>Buskerud</t>
+  </si>
+  <si>
+    <t>Troms</t>
+  </si>
+  <si>
+    <t>Sogn og Fjordane</t>
+  </si>
+  <si>
+    <t>Finnmark</t>
+  </si>
+  <si>
+    <t>Hedmark</t>
+  </si>
+  <si>
+    <t>Oppland</t>
+  </si>
+  <si>
+    <t>Aust-Agder</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>South East</t>
+  </si>
+  <si>
+    <t>North West</t>
+  </si>
+  <si>
+    <t>West Midlands</t>
+  </si>
+  <si>
+    <t>East Midlands</t>
+  </si>
+  <si>
+    <t>South West</t>
+  </si>
+  <si>
+    <t>Greater London</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>North East</t>
+  </si>
+  <si>
+    <t>Yorkshire and The Humber</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>East of England</t>
+  </si>
+  <si>
+    <t>Northern Ireland</t>
+  </si>
+  <si>
+    <t>Yorkshire and Humberside</t>
+  </si>
+  <si>
+    <t>East Anglia</t>
+  </si>
+  <si>
+    <t>Greater Londo</t>
+  </si>
+  <si>
+    <t>Yorkshire and</t>
+  </si>
+  <si>
+    <t>East of Engla</t>
   </si>
 </sst>
 </file>
@@ -25877,8 +26025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1C5985-D720-4533-B6F5-A2816F80F2F5}">
   <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26004,7 +26152,7 @@
         <v>309</v>
       </c>
       <c r="B15" t="s">
-        <v>569</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -26012,7 +26160,7 @@
         <v>310</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -26020,7 +26168,7 @@
         <v>311</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -29244,7 +29392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6804872F-908E-4576-8C9F-D057085582A0}">
   <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
       <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
@@ -29290,7 +29438,7 @@
         <v>309</v>
       </c>
       <c r="B5" t="s">
-        <v>569</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -29298,7 +29446,7 @@
         <v>310</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -29306,7 +29454,7 @@
         <v>311</v>
       </c>
       <c r="B7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -30751,7 +30899,7 @@
         <v>999</v>
       </c>
       <c r="B188" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
@@ -30783,7 +30931,7 @@
         <v>1003</v>
       </c>
       <c r="B192" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
@@ -30815,7 +30963,7 @@
         <v>1007</v>
       </c>
       <c r="B196" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
@@ -31305,6 +31453,659 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6379954C-B519-4E67-8DE4-32A1851A1CD0}">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B7" t="s">
+        <v>576</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>576</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>576</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>576</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B12" t="s">
+        <v>576</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>576</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>576</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>576</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>576</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>576</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B19" t="s">
+        <v>576</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B20" t="s">
+        <v>576</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>576</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>576</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B23" t="s">
+        <v>576</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>576</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B25" t="s">
+        <v>576</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B26" t="s">
+        <v>576</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B27" t="s">
+        <v>576</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B28" t="s">
+        <v>576</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B29" t="s">
+        <v>576</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B30" t="s">
+        <v>576</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B31" t="s">
+        <v>576</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B32" t="s">
+        <v>576</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B33" t="s">
+        <v>576</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B34" t="s">
+        <v>576</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B35" t="s">
+        <v>576</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B36" t="s">
+        <v>576</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B37" t="s">
+        <v>576</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B38" t="s">
+        <v>576</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B39" t="s">
+        <v>576</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B40" t="s">
+        <v>576</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B41" t="s">
+        <v>576</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B42" t="s">
+        <v>576</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B43" t="s">
+        <v>576</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B44" t="s">
+        <v>576</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B45" t="s">
+        <v>576</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C45">
+    <sortCondition ref="A2:A45"/>
+    <sortCondition ref="C2:C45"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1846DEF0-F0AD-422F-BC6D-F9094EDD7D3F}">
   <dimension ref="A1:B223"/>
   <sheetViews>

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49597AE9-1ADA-4C16-B006-3BAC5D438E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70927852-BEAC-4C5F-B1A1-3D1185C56722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="3" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="5" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="All_vars" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="survey_2" sheetId="3" r:id="rId3"/>
     <sheet name="locations" sheetId="5" r:id="rId4"/>
     <sheet name="oldsheet_v2" sheetId="4" r:id="rId5"/>
+    <sheet name="remove_vars" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All_vars!$A$1:$K$650</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="1389">
   <si>
     <t>vars</t>
   </si>
@@ -3607,6 +3608,609 @@
   </si>
   <si>
     <t>Northern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cultureinfo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">main_intro_screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">privacypolicy_insert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_5_name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_pop_dens_1_code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_pop_dens_1_label </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_pop_dens_2_code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_pop_dens_2_label </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_rural_urban_code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_rural_urban_label </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_1_code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_town_label </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_town_code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_town_pop_code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_1_name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_2_code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_2_name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_tv_station </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_3_code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_3_name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_4_code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_4_name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_5_code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sniffer_device_type_final </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sniffer_device_type_initial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">higher_earner_occupation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uksg_version </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q48a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_scale_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q49_l0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">quotagerange </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukregion1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukstdregion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_town_pop_label </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qsample </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q51 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q20b </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q23_quota_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q23_quota_10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q23_quota_11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q23_quota_12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q23_quota_13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q23_quota_14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q23_quota_15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q23_quota_16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q23_quota_17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q23_quota_2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q23_quota_3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q23_quota_4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q23_quota_5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q23_quota_6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q23_quota_7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q23_quota_8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q23_quota_9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q61a_insert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q61b_codes_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q61b_codes_2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q61b_insert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q20_new </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q20_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_scale_1_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">usegendernonbinary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">insq61a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">insq61b </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q53a_choosen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q59_7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q61b_codes_98 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q61b_codes_99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uk02eth_18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_ukitv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukmktsize </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukmktsize2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukmunicipality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uk_region1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uk_region2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uk_region3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uk_region3_label </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukruralurban </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uk_stdmktsize </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uk_stdregion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uk_towncode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uk_townname </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q20_import </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_1_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_2_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_3_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_4_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_5_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_6_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_7_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_8_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_10_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_12_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_13_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_14_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_9_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_15_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_22_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_23_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_24_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_25_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q63validate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qconfirm1a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qconfirm1b </t>
+  </si>
+  <si>
+    <t xml:space="preserve">w1_namesexage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">w2_namesexage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">w3_namesexage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nameagesex_scale_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_32_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_33_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_34_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_35_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">w4_namesexage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_42_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_43_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_44_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_45_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">w5_namesexage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_52_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_53_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_54_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21_55_original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">w6_namesexage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">higher_earner_education </t>
+  </si>
+  <si>
+    <t xml:space="preserve">higher_earner_occupation_prev </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q51_help_3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q50_help_3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q41 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q39 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q26_filter_8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q_panel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q_wave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bestdregion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q49_l1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ical_standardoccupation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nostdregion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q36_insert_4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qedu_no </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qforigin_codes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qforigin_rec </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmorigin_codes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmorigin_rec </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qn086 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qno81 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qrorigin_codes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qrorigin_rec </t>
+  </si>
+  <si>
+    <t>check_to_remove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_refused_to_answer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_text </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsizeversion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_15_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_16_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_32_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_33_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_44_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_45_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_46_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_47_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_48_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_49_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_50_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_51_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_52_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_53_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_54_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_55_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_57_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_58_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_59_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_60_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_61_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_62_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_63_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_64_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_65_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_66_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_67_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_68_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_69_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_70_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_71_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_72_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_73_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_74_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_75_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_76_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_77_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_78_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_79_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_80_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_81_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_82_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_19_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_85_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_86_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_34_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_35_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qmktsize_36_1 </t>
+  </si>
+  <si>
+    <t>remove</t>
   </si>
 </sst>
 </file>
@@ -26083,8 +26687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1C5985-D720-4533-B6F5-A2816F80F2F5}">
   <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A385" sqref="A385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31514,7 +32118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6379954C-B519-4E67-8DE4-32A1851A1CD0}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D56" sqref="D56:D73"/>
     </sheetView>
   </sheetViews>
@@ -34351,4 +34955,856 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB4B1FA-6628-4BA2-9F29-B27CBB154F46}">
+  <dimension ref="A1:B111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="36.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>229</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B93" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B94" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B95" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B96" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B97" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B98" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B99" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B100" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B101" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B102" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B103" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B104" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B105" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B106" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B107" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B108" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B109" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B110" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B111" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A484">
+    <sortCondition ref="A2:A484"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70927852-BEAC-4C5F-B1A1-3D1185C56722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA5A986-D2FD-4E9D-B1BA-3BF86F207699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="5" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
-    <sheet name="All_vars" sheetId="1" r:id="rId1"/>
-    <sheet name="survey_1" sheetId="2" r:id="rId2"/>
-    <sheet name="survey_2" sheetId="3" r:id="rId3"/>
-    <sheet name="locations" sheetId="5" r:id="rId4"/>
-    <sheet name="oldsheet_v2" sheetId="4" r:id="rId5"/>
-    <sheet name="remove_vars" sheetId="6" r:id="rId6"/>
+    <sheet name="Summary" sheetId="7" r:id="rId1"/>
+    <sheet name="All_vars" sheetId="1" r:id="rId2"/>
+    <sheet name="survey_1" sheetId="2" r:id="rId3"/>
+    <sheet name="survey_2" sheetId="3" r:id="rId4"/>
+    <sheet name="locations" sheetId="5" r:id="rId5"/>
+    <sheet name="oldsheet_v2" sheetId="4" r:id="rId6"/>
+    <sheet name="remove_vars" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All_vars!$A$1:$K$650</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey_1!$A$1:$G$423</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">survey_2!$A$1:$B$262</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">All_vars!$A$1:$K$650</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">survey_1!$A$1:$G$423</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">survey_2!$A$1:$B$262</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4567,6 +4568,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED087E4C-9F1F-4889-910F-E633D6596E81}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DB8823-33FC-4C68-8AB1-65768017318F}">
   <dimension ref="A1:K650"/>
   <sheetViews>
@@ -4634,11 +4647,11 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J19" si="0">SUM(C2:F2)</f>
+        <f t="shared" ref="J2" si="0">SUM(C2:F2)</f>
         <v>1</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K19" si="1">SUM(G2:H2)</f>
+        <f t="shared" ref="K2" si="1">SUM(G2:H2)</f>
         <v>0</v>
       </c>
     </row>
@@ -26683,7 +26696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1C5985-D720-4533-B6F5-A2816F80F2F5}">
   <dimension ref="A1:B418"/>
   <sheetViews>
@@ -30050,7 +30063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6804872F-908E-4576-8C9F-D057085582A0}">
   <dimension ref="A1:B256"/>
   <sheetViews>
@@ -32114,11 +32127,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6379954C-B519-4E67-8DE4-32A1851A1CD0}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D56" sqref="D56:D73"/>
     </sheetView>
   </sheetViews>
@@ -33164,7 +33177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1846DEF0-F0AD-422F-BC6D-F9094EDD7D3F}">
   <dimension ref="A1:B223"/>
   <sheetViews>
@@ -34957,11 +34970,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB4B1FA-6628-4BA2-9F29-B27CBB154F46}">
   <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA5A986-D2FD-4E9D-B1BA-3BF86F207699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118BEFFD-1DB2-495A-BB56-5155C20F3BAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="1389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="1390">
   <si>
     <t>vars</t>
   </si>
@@ -4212,6 +4212,9 @@
   </si>
   <si>
     <t>remove</t>
+  </si>
+  <si>
+    <t>List variable names and way of cleaning the locations</t>
   </si>
 </sst>
 </file>
@@ -4569,12 +4572,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED087E4C-9F1F-4889-910F-E633D6596E81}">
-  <dimension ref="A1"/>
+  <dimension ref="A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118BEFFD-1DB2-495A-BB56-5155C20F3BAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC423AE8-646E-4E9D-85B2-443C38A13A8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="1391">
   <si>
     <t>vars</t>
   </si>
@@ -4215,6 +4215,9 @@
   </si>
   <si>
     <t>List variable names and way of cleaning the locations</t>
+  </si>
+  <si>
+    <t>Need to add different ones for different surveys</t>
   </si>
 </sst>
 </file>
@@ -4572,10 +4575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED087E4C-9F1F-4889-910F-E633D6596E81}">
-  <dimension ref="A3"/>
+  <dimension ref="A3:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4583,6 +4586,11 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>1390</v>
       </c>
     </row>
   </sheetData>

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC423AE8-646E-4E9D-85B2-443C38A13A8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81109116-DDDD-420D-BABD-1A2C16B7C987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -1979,9 +1979,6 @@
     <t>hhm_cont_adm_hosp_other</t>
   </si>
   <si>
-    <t>part_hhm_covid_test</t>
-  </si>
-  <si>
     <t>part_att_serious</t>
   </si>
   <si>
@@ -3341,15 +3338,9 @@
     <t>q35_scale_3</t>
   </si>
   <si>
-    <t>part_hhm_covid_contact</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>part_hhm_covid_test_result</t>
-  </si>
-  <si>
     <t>hhm_symp_diarrhoea</t>
   </si>
   <si>
@@ -4218,6 +4209,15 @@
   </si>
   <si>
     <t>Need to add different ones for different surveys</t>
+  </si>
+  <si>
+    <t>hhm_covid_test</t>
+  </si>
+  <si>
+    <t>hhm_covid_test_result</t>
+  </si>
+  <si>
+    <t>hhm_covid_contact</t>
   </si>
 </sst>
 </file>
@@ -4577,7 +4577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED087E4C-9F1F-4889-910F-E633D6596E81}">
   <dimension ref="A3:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -4585,12 +4585,12 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
   </sheetData>
@@ -9439,7 +9439,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -11513,7 +11513,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -11547,7 +11547,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -11649,7 +11649,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -11683,7 +11683,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -11717,7 +11717,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -11751,7 +11751,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -11785,7 +11785,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -11819,7 +11819,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -11887,7 +11887,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -11921,7 +11921,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -11955,7 +11955,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -12023,7 +12023,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -12057,7 +12057,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -12091,7 +12091,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -12125,7 +12125,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -12159,7 +12159,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -12193,7 +12193,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -12431,7 +12431,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -12465,7 +12465,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -12499,7 +12499,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -12533,7 +12533,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -12839,7 +12839,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -12941,7 +12941,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -13213,7 +13213,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -13247,7 +13247,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -13383,7 +13383,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -13417,7 +13417,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -13451,7 +13451,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -13485,7 +13485,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -13519,7 +13519,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -13553,7 +13553,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -13587,7 +13587,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -13621,7 +13621,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -13689,7 +13689,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -14267,7 +14267,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -15593,7 +15593,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -15627,7 +15627,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -16137,7 +16137,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C340">
         <v>1</v>
@@ -16205,7 +16205,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C342">
         <v>1</v>
@@ -16239,7 +16239,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -16273,7 +16273,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -16307,7 +16307,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -16341,7 +16341,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -16375,7 +16375,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -16409,7 +16409,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -16443,7 +16443,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C349">
         <v>1</v>
@@ -16477,7 +16477,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -16885,7 +16885,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C362">
         <v>1</v>
@@ -16919,7 +16919,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -16953,7 +16953,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -16987,7 +16987,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -17021,7 +17021,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C366">
         <v>1</v>
@@ -17055,7 +17055,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -17089,7 +17089,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C368">
         <v>1</v>
@@ -17123,7 +17123,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C369">
         <v>1</v>
@@ -17157,7 +17157,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C370">
         <v>1</v>
@@ -17191,7 +17191,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C371">
         <v>1</v>
@@ -17225,7 +17225,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -17259,7 +17259,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C373">
         <v>1</v>
@@ -17293,7 +17293,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -17327,7 +17327,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -17361,7 +17361,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C376">
         <v>1</v>
@@ -17395,7 +17395,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -17429,7 +17429,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -17463,7 +17463,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C379">
         <v>1</v>
@@ -17497,7 +17497,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C380">
         <v>1</v>
@@ -17531,7 +17531,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -17565,7 +17565,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -17599,7 +17599,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -17633,7 +17633,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -17667,7 +17667,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -17871,7 +17871,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -18959,7 +18959,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -18993,7 +18993,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C424">
         <v>1</v>
@@ -19027,7 +19027,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -19061,7 +19061,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C426">
         <v>1</v>
@@ -19095,7 +19095,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -19129,7 +19129,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -19163,7 +19163,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -19809,7 +19809,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C448">
         <v>1</v>
@@ -20625,7 +20625,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C472">
         <v>1</v>
@@ -20659,7 +20659,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C473">
         <v>1</v>
@@ -20693,7 +20693,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C474">
         <v>1</v>
@@ -20727,7 +20727,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C475">
         <v>1</v>
@@ -20761,7 +20761,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C476">
         <v>1</v>
@@ -20795,7 +20795,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C477">
         <v>1</v>
@@ -20829,7 +20829,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C478">
         <v>1</v>
@@ -20863,7 +20863,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C479">
         <v>1</v>
@@ -20897,7 +20897,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C480">
         <v>1</v>
@@ -20931,7 +20931,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C481">
         <v>1</v>
@@ -20965,7 +20965,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -20999,7 +20999,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C483">
         <v>1</v>
@@ -21033,7 +21033,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C484">
         <v>1</v>
@@ -21067,7 +21067,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C485">
         <v>1</v>
@@ -21101,7 +21101,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C486">
         <v>1</v>
@@ -21135,7 +21135,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C487">
         <v>1</v>
@@ -21169,7 +21169,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C488">
         <v>1</v>
@@ -21203,7 +21203,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C489">
         <v>1</v>
@@ -26719,8 +26719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1C5985-D720-4533-B6F5-A2816F80F2F5}">
   <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A385" sqref="A385"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26742,7 +26742,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -26758,7 +26758,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -26774,7 +26774,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -26790,7 +26790,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -26798,7 +26798,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -26806,7 +26806,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -26814,7 +26814,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -26822,7 +26822,7 @@
         <v>307</v>
       </c>
       <c r="B12" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -26894,7 +26894,7 @@
         <v>315</v>
       </c>
       <c r="B21" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -26910,7 +26910,7 @@
         <v>318</v>
       </c>
       <c r="B23" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -26926,7 +26926,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -26958,7 +26958,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -26966,7 +26966,7 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -26982,7 +26982,7 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -27006,7 +27006,7 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -27014,7 +27014,7 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -27054,7 +27054,7 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -27062,7 +27062,7 @@
         <v>332</v>
       </c>
       <c r="B42" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -27078,7 +27078,7 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -27086,7 +27086,7 @@
         <v>380</v>
       </c>
       <c r="B45" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -27094,7 +27094,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -27110,7 +27110,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -27118,7 +27118,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -27126,7 +27126,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -27134,7 +27134,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -27142,7 +27142,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -27150,7 +27150,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -27158,7 +27158,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -27166,7 +27166,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -27174,7 +27174,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -27182,7 +27182,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -27190,7 +27190,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -27198,7 +27198,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -27206,7 +27206,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -27214,7 +27214,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -27222,7 +27222,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -27230,7 +27230,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -27238,7 +27238,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -27299,10 +27299,10 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B72" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -27606,7 +27606,7 @@
         <v>402</v>
       </c>
       <c r="B110" t="s">
-        <v>644</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -27614,7 +27614,7 @@
         <v>102</v>
       </c>
       <c r="B111" t="s">
-        <v>1100</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -27622,7 +27622,7 @@
         <v>103</v>
       </c>
       <c r="B112" t="s">
-        <v>1098</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -27630,23 +27630,23 @@
         <v>406</v>
       </c>
       <c r="B113" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B114" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B115" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -27654,7 +27654,7 @@
         <v>104</v>
       </c>
       <c r="B116" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -27662,87 +27662,87 @@
         <v>105</v>
       </c>
       <c r="B117" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B118" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B119" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B120" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B121" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B122" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B123" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B124" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B125" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B126" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B127" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
@@ -27750,55 +27750,55 @@
         <v>106</v>
       </c>
       <c r="B128" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B129" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B130" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B131" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B132" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B133" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B134" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
@@ -27806,7 +27806,7 @@
         <v>107</v>
       </c>
       <c r="B135" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
@@ -27814,7 +27814,7 @@
         <v>108</v>
       </c>
       <c r="B136" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
@@ -27822,7 +27822,7 @@
         <v>109</v>
       </c>
       <c r="B137" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
@@ -27830,7 +27830,7 @@
         <v>110</v>
       </c>
       <c r="B138" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
@@ -27838,7 +27838,7 @@
         <v>111</v>
       </c>
       <c r="B139" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
@@ -27846,39 +27846,39 @@
         <v>112</v>
       </c>
       <c r="B140" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B141" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B142" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B143" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B144" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
@@ -27886,7 +27886,7 @@
         <v>407</v>
       </c>
       <c r="B145" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
@@ -27894,7 +27894,7 @@
         <v>113</v>
       </c>
       <c r="B146" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
@@ -27902,7 +27902,7 @@
         <v>114</v>
       </c>
       <c r="B147" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
@@ -27910,7 +27910,7 @@
         <v>115</v>
       </c>
       <c r="B148" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
@@ -27918,15 +27918,15 @@
         <v>116</v>
       </c>
       <c r="B149" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B150" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
@@ -27934,7 +27934,7 @@
         <v>117</v>
       </c>
       <c r="B151" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
@@ -27942,15 +27942,15 @@
         <v>118</v>
       </c>
       <c r="B152" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B153" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
@@ -27958,7 +27958,7 @@
         <v>119</v>
       </c>
       <c r="B154" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
@@ -27966,7 +27966,7 @@
         <v>120</v>
       </c>
       <c r="B155" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
@@ -27974,7 +27974,7 @@
         <v>121</v>
       </c>
       <c r="B156" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
@@ -27982,87 +27982,87 @@
         <v>122</v>
       </c>
       <c r="B157" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
+        <v>685</v>
+      </c>
+      <c r="B158" t="s">
         <v>686</v>
-      </c>
-      <c r="B158" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
+        <v>687</v>
+      </c>
+      <c r="B159" t="s">
         <v>688</v>
-      </c>
-      <c r="B159" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
+        <v>689</v>
+      </c>
+      <c r="B160" t="s">
         <v>690</v>
-      </c>
-      <c r="B160" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
+        <v>691</v>
+      </c>
+      <c r="B161" t="s">
         <v>692</v>
-      </c>
-      <c r="B161" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
+        <v>693</v>
+      </c>
+      <c r="B162" t="s">
         <v>694</v>
-      </c>
-      <c r="B162" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
+        <v>695</v>
+      </c>
+      <c r="B163" t="s">
         <v>696</v>
-      </c>
-      <c r="B163" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
+        <v>697</v>
+      </c>
+      <c r="B164" t="s">
         <v>698</v>
-      </c>
-      <c r="B164" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
+        <v>699</v>
+      </c>
+      <c r="B165" t="s">
         <v>700</v>
-      </c>
-      <c r="B165" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
+        <v>701</v>
+      </c>
+      <c r="B166" t="s">
         <v>702</v>
-      </c>
-      <c r="B166" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
+        <v>703</v>
+      </c>
+      <c r="B167" t="s">
         <v>704</v>
-      </c>
-      <c r="B167" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
@@ -28070,15 +28070,15 @@
         <v>123</v>
       </c>
       <c r="B168" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B169" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
@@ -28086,7 +28086,7 @@
         <v>124</v>
       </c>
       <c r="B170" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
@@ -28094,7 +28094,7 @@
         <v>125</v>
       </c>
       <c r="B171" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
@@ -28102,7 +28102,7 @@
         <v>126</v>
       </c>
       <c r="B172" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
@@ -28110,7 +28110,7 @@
         <v>127</v>
       </c>
       <c r="B173" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
@@ -28118,7 +28118,7 @@
         <v>128</v>
       </c>
       <c r="B174" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
@@ -28126,7 +28126,7 @@
         <v>129</v>
       </c>
       <c r="B175" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
@@ -28134,7 +28134,7 @@
         <v>130</v>
       </c>
       <c r="B176" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
@@ -28142,7 +28142,7 @@
         <v>131</v>
       </c>
       <c r="B177" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
@@ -28150,7 +28150,7 @@
         <v>132</v>
       </c>
       <c r="B178" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
@@ -28158,7 +28158,7 @@
         <v>133</v>
       </c>
       <c r="B179" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
@@ -28166,7 +28166,7 @@
         <v>134</v>
       </c>
       <c r="B180" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
@@ -28174,7 +28174,7 @@
         <v>135</v>
       </c>
       <c r="B181" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
@@ -28182,7 +28182,7 @@
         <v>136</v>
       </c>
       <c r="B182" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
@@ -28190,7 +28190,7 @@
         <v>137</v>
       </c>
       <c r="B183" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
@@ -28198,7 +28198,7 @@
         <v>138</v>
       </c>
       <c r="B184" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
@@ -28206,7 +28206,7 @@
         <v>139</v>
       </c>
       <c r="B185" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
@@ -28214,7 +28214,7 @@
         <v>140</v>
       </c>
       <c r="B186" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
@@ -28222,7 +28222,7 @@
         <v>141</v>
       </c>
       <c r="B187" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
@@ -28230,7 +28230,7 @@
         <v>142</v>
       </c>
       <c r="B188" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
@@ -28238,7 +28238,7 @@
         <v>143</v>
       </c>
       <c r="B189" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
@@ -28246,7 +28246,7 @@
         <v>144</v>
       </c>
       <c r="B190" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
@@ -28254,7 +28254,7 @@
         <v>145</v>
       </c>
       <c r="B191" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
@@ -28262,7 +28262,7 @@
         <v>146</v>
       </c>
       <c r="B192" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
@@ -28270,7 +28270,7 @@
         <v>147</v>
       </c>
       <c r="B193" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
@@ -28278,7 +28278,7 @@
         <v>148</v>
       </c>
       <c r="B194" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
@@ -28286,7 +28286,7 @@
         <v>149</v>
       </c>
       <c r="B195" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
@@ -28294,7 +28294,7 @@
         <v>150</v>
       </c>
       <c r="B196" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
@@ -28302,7 +28302,7 @@
         <v>151</v>
       </c>
       <c r="B197" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
@@ -28310,7 +28310,7 @@
         <v>152</v>
       </c>
       <c r="B198" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
@@ -28318,7 +28318,7 @@
         <v>153</v>
       </c>
       <c r="B199" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
@@ -28326,7 +28326,7 @@
         <v>154</v>
       </c>
       <c r="B200" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
@@ -28334,7 +28334,7 @@
         <v>155</v>
       </c>
       <c r="B201" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.45">
@@ -28342,7 +28342,7 @@
         <v>156</v>
       </c>
       <c r="B202" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.45">
@@ -28350,7 +28350,7 @@
         <v>157</v>
       </c>
       <c r="B203" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.45">
@@ -28358,7 +28358,7 @@
         <v>158</v>
       </c>
       <c r="B204" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
@@ -28366,7 +28366,7 @@
         <v>159</v>
       </c>
       <c r="B205" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
@@ -28374,7 +28374,7 @@
         <v>160</v>
       </c>
       <c r="B206" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
@@ -28382,7 +28382,7 @@
         <v>163</v>
       </c>
       <c r="B207" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.45">
@@ -28390,7 +28390,7 @@
         <v>164</v>
       </c>
       <c r="B208" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.45">
@@ -28398,7 +28398,7 @@
         <v>165</v>
       </c>
       <c r="B209" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.45">
@@ -28406,7 +28406,7 @@
         <v>166</v>
       </c>
       <c r="B210" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.45">
@@ -28414,7 +28414,7 @@
         <v>167</v>
       </c>
       <c r="B211" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.45">
@@ -28422,7 +28422,7 @@
         <v>168</v>
       </c>
       <c r="B212" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.45">
@@ -28430,7 +28430,7 @@
         <v>169</v>
       </c>
       <c r="B213" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.45">
@@ -28438,7 +28438,7 @@
         <v>170</v>
       </c>
       <c r="B214" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.45">
@@ -28446,7 +28446,7 @@
         <v>171</v>
       </c>
       <c r="B215" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.45">
@@ -28454,7 +28454,7 @@
         <v>172</v>
       </c>
       <c r="B216" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.45">
@@ -28462,7 +28462,7 @@
         <v>173</v>
       </c>
       <c r="B217" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.45">
@@ -28470,7 +28470,7 @@
         <v>174</v>
       </c>
       <c r="B218" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.45">
@@ -28478,7 +28478,7 @@
         <v>175</v>
       </c>
       <c r="B219" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.45">
@@ -28486,7 +28486,7 @@
         <v>176</v>
       </c>
       <c r="B220" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.45">
@@ -28494,7 +28494,7 @@
         <v>177</v>
       </c>
       <c r="B221" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.45">
@@ -28502,7 +28502,7 @@
         <v>178</v>
       </c>
       <c r="B222" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.45">
@@ -28510,7 +28510,7 @@
         <v>179</v>
       </c>
       <c r="B223" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.45">
@@ -28518,7 +28518,7 @@
         <v>180</v>
       </c>
       <c r="B224" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.45">
@@ -28526,7 +28526,7 @@
         <v>181</v>
       </c>
       <c r="B225" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.45">
@@ -28534,7 +28534,7 @@
         <v>182</v>
       </c>
       <c r="B226" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.45">
@@ -28542,7 +28542,7 @@
         <v>183</v>
       </c>
       <c r="B227" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.45">
@@ -28550,7 +28550,7 @@
         <v>184</v>
       </c>
       <c r="B228" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.45">
@@ -28558,7 +28558,7 @@
         <v>185</v>
       </c>
       <c r="B229" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.45">
@@ -28566,7 +28566,7 @@
         <v>186</v>
       </c>
       <c r="B230" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.45">
@@ -28574,7 +28574,7 @@
         <v>187</v>
       </c>
       <c r="B231" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.45">
@@ -28582,7 +28582,7 @@
         <v>188</v>
       </c>
       <c r="B232" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.45">
@@ -28590,7 +28590,7 @@
         <v>189</v>
       </c>
       <c r="B233" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.45">
@@ -28598,7 +28598,7 @@
         <v>190</v>
       </c>
       <c r="B234" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.45">
@@ -28606,7 +28606,7 @@
         <v>191</v>
       </c>
       <c r="B235" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.45">
@@ -28614,271 +28614,271 @@
         <v>192</v>
       </c>
       <c r="B236" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B237" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B238" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B239" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B240" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B241" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B242" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B243" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B244" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B245" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B246" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B247" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B248" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B249" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B250" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B251" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B252" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B253" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B254" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B255" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B256" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B257" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B258" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B259" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B260" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B261" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B262" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B263" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B264" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B265" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B266" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B267" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B268" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B269" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.45">
@@ -28886,7 +28886,7 @@
         <v>428</v>
       </c>
       <c r="B270" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.45">
@@ -28894,7 +28894,7 @@
         <v>431</v>
       </c>
       <c r="B271" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.45">
@@ -28902,15 +28902,15 @@
         <v>193</v>
       </c>
       <c r="B272" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B273" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.45">
@@ -28918,7 +28918,7 @@
         <v>432</v>
       </c>
       <c r="B274" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.45">
@@ -28926,7 +28926,7 @@
         <v>435</v>
       </c>
       <c r="B275" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.45">
@@ -28934,7 +28934,7 @@
         <v>436</v>
       </c>
       <c r="B276" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.45">
@@ -28942,7 +28942,7 @@
         <v>437</v>
       </c>
       <c r="B277" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.45">
@@ -28950,7 +28950,7 @@
         <v>438</v>
       </c>
       <c r="B278" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.45">
@@ -28958,7 +28958,7 @@
         <v>439</v>
       </c>
       <c r="B279" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.45">
@@ -28966,7 +28966,7 @@
         <v>440</v>
       </c>
       <c r="B280" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.45">
@@ -28974,7 +28974,7 @@
         <v>441</v>
       </c>
       <c r="B281" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.45">
@@ -28982,7 +28982,7 @@
         <v>442</v>
       </c>
       <c r="B282" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.45">
@@ -28990,7 +28990,7 @@
         <v>194</v>
       </c>
       <c r="B283" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.45">
@@ -28998,7 +28998,7 @@
         <v>195</v>
       </c>
       <c r="B284" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.45">
@@ -29006,7 +29006,7 @@
         <v>196</v>
       </c>
       <c r="B285" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.45">
@@ -29014,7 +29014,7 @@
         <v>197</v>
       </c>
       <c r="B286" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.45">
@@ -29022,7 +29022,7 @@
         <v>198</v>
       </c>
       <c r="B287" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.45">
@@ -29030,7 +29030,7 @@
         <v>199</v>
       </c>
       <c r="B288" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.45">
@@ -29038,7 +29038,7 @@
         <v>200</v>
       </c>
       <c r="B289" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.45">
@@ -29046,7 +29046,7 @@
         <v>201</v>
       </c>
       <c r="B290" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.45">
@@ -29054,7 +29054,7 @@
         <v>202</v>
       </c>
       <c r="B291" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.45">
@@ -29062,7 +29062,7 @@
         <v>203</v>
       </c>
       <c r="B292" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.45">
@@ -29070,7 +29070,7 @@
         <v>443</v>
       </c>
       <c r="B293" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.45">
@@ -29078,7 +29078,7 @@
         <v>204</v>
       </c>
       <c r="B294" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.45">
@@ -29086,7 +29086,7 @@
         <v>205</v>
       </c>
       <c r="B295" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.45">
@@ -29094,7 +29094,7 @@
         <v>444</v>
       </c>
       <c r="B296" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.45">
@@ -29102,7 +29102,7 @@
         <v>445</v>
       </c>
       <c r="B297" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.45">
@@ -29110,7 +29110,7 @@
         <v>446</v>
       </c>
       <c r="B298" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.45">
@@ -29118,7 +29118,7 @@
         <v>447</v>
       </c>
       <c r="B299" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.45">
@@ -29126,71 +29126,71 @@
         <v>448</v>
       </c>
       <c r="B300" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B301" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B302" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B303" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B304" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B305" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B306" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B307" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B308" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.45">
@@ -29198,7 +29198,7 @@
         <v>451</v>
       </c>
       <c r="B309" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.45">
@@ -29206,7 +29206,7 @@
         <v>452</v>
       </c>
       <c r="B310" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.45">
@@ -29214,7 +29214,7 @@
         <v>207</v>
       </c>
       <c r="B311" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.45">
@@ -29222,7 +29222,7 @@
         <v>208</v>
       </c>
       <c r="B312" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.45">
@@ -29230,7 +29230,7 @@
         <v>455</v>
       </c>
       <c r="B313" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.45">
@@ -29238,7 +29238,7 @@
         <v>456</v>
       </c>
       <c r="B314" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.45">
@@ -29246,7 +29246,7 @@
         <v>457</v>
       </c>
       <c r="B315" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.45">
@@ -29254,7 +29254,7 @@
         <v>459</v>
       </c>
       <c r="B316" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.45">
@@ -29262,7 +29262,7 @@
         <v>460</v>
       </c>
       <c r="B317" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.45">
@@ -29270,7 +29270,7 @@
         <v>461</v>
       </c>
       <c r="B318" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.45">
@@ -29278,7 +29278,7 @@
         <v>462</v>
       </c>
       <c r="B319" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.45">
@@ -29286,15 +29286,15 @@
         <v>210</v>
       </c>
       <c r="B320" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B321" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.45">
@@ -29302,7 +29302,7 @@
         <v>463</v>
       </c>
       <c r="B322" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.45">
@@ -29310,7 +29310,7 @@
         <v>464</v>
       </c>
       <c r="B323" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.45">
@@ -29318,7 +29318,7 @@
         <v>465</v>
       </c>
       <c r="B324" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.45">
@@ -29326,7 +29326,7 @@
         <v>466</v>
       </c>
       <c r="B325" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.45">
@@ -29334,7 +29334,7 @@
         <v>211</v>
       </c>
       <c r="B326" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.45">
@@ -29342,7 +29342,7 @@
         <v>467</v>
       </c>
       <c r="B327" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.45">
@@ -29350,7 +29350,7 @@
         <v>468</v>
       </c>
       <c r="B328" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.45">
@@ -29358,7 +29358,7 @@
         <v>470</v>
       </c>
       <c r="B329" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.45">
@@ -29366,7 +29366,7 @@
         <v>471</v>
       </c>
       <c r="B330" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.45">
@@ -29374,7 +29374,7 @@
         <v>472</v>
       </c>
       <c r="B331" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.45">
@@ -29382,7 +29382,7 @@
         <v>473</v>
       </c>
       <c r="B332" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.45">
@@ -29390,7 +29390,7 @@
         <v>474</v>
       </c>
       <c r="B333" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.45">
@@ -29398,7 +29398,7 @@
         <v>475</v>
       </c>
       <c r="B334" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.45">
@@ -29406,7 +29406,7 @@
         <v>476</v>
       </c>
       <c r="B335" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.45">
@@ -29414,7 +29414,7 @@
         <v>477</v>
       </c>
       <c r="B336" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.45">
@@ -29422,7 +29422,7 @@
         <v>212</v>
       </c>
       <c r="B337" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.45">
@@ -29430,7 +29430,7 @@
         <v>213</v>
       </c>
       <c r="B338" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.45">
@@ -29438,7 +29438,7 @@
         <v>480</v>
       </c>
       <c r="B339" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.45">
@@ -29446,7 +29446,7 @@
         <v>481</v>
       </c>
       <c r="B340" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.45">
@@ -29454,151 +29454,151 @@
         <v>483</v>
       </c>
       <c r="B341" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
+        <v>896</v>
+      </c>
+      <c r="B342" t="s">
         <v>897</v>
-      </c>
-      <c r="B342" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
+        <v>898</v>
+      </c>
+      <c r="B343" t="s">
         <v>899</v>
-      </c>
-      <c r="B343" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
+        <v>900</v>
+      </c>
+      <c r="B344" t="s">
         <v>901</v>
-      </c>
-      <c r="B344" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
+        <v>902</v>
+      </c>
+      <c r="B345" t="s">
         <v>903</v>
-      </c>
-      <c r="B345" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
+        <v>904</v>
+      </c>
+      <c r="B346" t="s">
         <v>905</v>
-      </c>
-      <c r="B346" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
+        <v>906</v>
+      </c>
+      <c r="B347" t="s">
         <v>907</v>
-      </c>
-      <c r="B347" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
+        <v>908</v>
+      </c>
+      <c r="B348" t="s">
         <v>909</v>
-      </c>
-      <c r="B348" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
+        <v>910</v>
+      </c>
+      <c r="B349" t="s">
         <v>911</v>
-      </c>
-      <c r="B349" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
+        <v>912</v>
+      </c>
+      <c r="B350" t="s">
         <v>913</v>
-      </c>
-      <c r="B350" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
+        <v>914</v>
+      </c>
+      <c r="B351" t="s">
         <v>915</v>
-      </c>
-      <c r="B351" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
+        <v>916</v>
+      </c>
+      <c r="B352" t="s">
         <v>917</v>
-      </c>
-      <c r="B352" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
+        <v>918</v>
+      </c>
+      <c r="B353" t="s">
         <v>919</v>
-      </c>
-      <c r="B353" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
+        <v>920</v>
+      </c>
+      <c r="B354" t="s">
         <v>921</v>
-      </c>
-      <c r="B354" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
+        <v>922</v>
+      </c>
+      <c r="B355" t="s">
         <v>923</v>
-      </c>
-      <c r="B355" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
+        <v>924</v>
+      </c>
+      <c r="B356" t="s">
         <v>925</v>
-      </c>
-      <c r="B356" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
+        <v>926</v>
+      </c>
+      <c r="B357" t="s">
         <v>927</v>
-      </c>
-      <c r="B357" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
+        <v>928</v>
+      </c>
+      <c r="B358" t="s">
         <v>929</v>
-      </c>
-      <c r="B358" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
+        <v>930</v>
+      </c>
+      <c r="B359" t="s">
         <v>931</v>
-      </c>
-      <c r="B359" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.45">
@@ -29614,7 +29614,7 @@
         <v>214</v>
       </c>
       <c r="B361" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.45">
@@ -29622,7 +29622,7 @@
         <v>216</v>
       </c>
       <c r="B362" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.45">
@@ -29630,7 +29630,7 @@
         <v>217</v>
       </c>
       <c r="B363" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.45">
@@ -29638,7 +29638,7 @@
         <v>219</v>
       </c>
       <c r="B364" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.45">
@@ -29814,7 +29814,7 @@
         <v>270</v>
       </c>
       <c r="B386" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.45">
@@ -29822,7 +29822,7 @@
         <v>271</v>
       </c>
       <c r="B387" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.45">
@@ -29830,7 +29830,7 @@
         <v>272</v>
       </c>
       <c r="B388" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.45">
@@ -29838,7 +29838,7 @@
         <v>273</v>
       </c>
       <c r="B389" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.45">
@@ -29846,7 +29846,7 @@
         <v>274</v>
       </c>
       <c r="B390" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.45">
@@ -29854,7 +29854,7 @@
         <v>276</v>
       </c>
       <c r="B391" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.45">
@@ -29862,7 +29862,7 @@
         <v>278</v>
       </c>
       <c r="B392" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.45">
@@ -29870,7 +29870,7 @@
         <v>279</v>
       </c>
       <c r="B393" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.45">
@@ -29878,7 +29878,7 @@
         <v>280</v>
       </c>
       <c r="B394" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.45">
@@ -29886,7 +29886,7 @@
         <v>281</v>
       </c>
       <c r="B395" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.45">
@@ -29894,7 +29894,7 @@
         <v>282</v>
       </c>
       <c r="B396" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.45">
@@ -29902,7 +29902,7 @@
         <v>283</v>
       </c>
       <c r="B397" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.45">
@@ -29910,7 +29910,7 @@
         <v>284</v>
       </c>
       <c r="B398" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.45">
@@ -29918,7 +29918,7 @@
         <v>285</v>
       </c>
       <c r="B399" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.45">
@@ -29926,7 +29926,7 @@
         <v>287</v>
       </c>
       <c r="B400" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.45">
@@ -29934,7 +29934,7 @@
         <v>526</v>
       </c>
       <c r="B401" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.45">
@@ -30030,7 +30030,7 @@
         <v>545</v>
       </c>
       <c r="B413" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.45">
@@ -30046,7 +30046,7 @@
         <v>548</v>
       </c>
       <c r="B415" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.45">
@@ -30054,7 +30054,7 @@
         <v>301</v>
       </c>
       <c r="B416" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.45">
@@ -30070,7 +30070,7 @@
         <v>302</v>
       </c>
       <c r="B418" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
@@ -30086,8 +30086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6804872F-908E-4576-8C9F-D057085582A0}">
   <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -30108,7 +30108,7 @@
         <v>306</v>
       </c>
       <c r="B2" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -30116,7 +30116,7 @@
         <v>307</v>
       </c>
       <c r="B3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -30172,7 +30172,7 @@
         <v>315</v>
       </c>
       <c r="B10" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -30180,7 +30180,7 @@
         <v>317</v>
       </c>
       <c r="B11" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -30188,7 +30188,7 @@
         <v>318</v>
       </c>
       <c r="B12" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -30204,7 +30204,7 @@
         <v>320</v>
       </c>
       <c r="B14" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -30212,12 +30212,12 @@
         <v>321</v>
       </c>
       <c r="B15" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -30225,7 +30225,7 @@
         <v>323</v>
       </c>
       <c r="B17" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -30233,7 +30233,7 @@
         <v>324</v>
       </c>
       <c r="B18" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -30249,7 +30249,7 @@
         <v>326</v>
       </c>
       <c r="B20" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -30257,7 +30257,7 @@
         <v>327</v>
       </c>
       <c r="B21" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -30281,7 +30281,7 @@
         <v>330</v>
       </c>
       <c r="B24" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -30289,7 +30289,7 @@
         <v>331</v>
       </c>
       <c r="B25" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -30297,7 +30297,7 @@
         <v>332</v>
       </c>
       <c r="B26" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -30305,7 +30305,7 @@
         <v>333</v>
       </c>
       <c r="B27" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -30313,7 +30313,7 @@
         <v>334</v>
       </c>
       <c r="B28" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -30321,7 +30321,7 @@
         <v>335</v>
       </c>
       <c r="B29" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -30329,7 +30329,7 @@
         <v>337</v>
       </c>
       <c r="B30" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -30337,7 +30337,7 @@
         <v>339</v>
       </c>
       <c r="B31" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -30345,7 +30345,7 @@
         <v>341</v>
       </c>
       <c r="B32" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -30353,7 +30353,7 @@
         <v>343</v>
       </c>
       <c r="B33" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -30361,7 +30361,7 @@
         <v>345</v>
       </c>
       <c r="B34" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -30369,7 +30369,7 @@
         <v>347</v>
       </c>
       <c r="B35" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -30377,7 +30377,7 @@
         <v>348</v>
       </c>
       <c r="B36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -30385,7 +30385,7 @@
         <v>349</v>
       </c>
       <c r="B37" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -30393,7 +30393,7 @@
         <v>355</v>
       </c>
       <c r="B38" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -30401,7 +30401,7 @@
         <v>350</v>
       </c>
       <c r="B39" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -30409,7 +30409,7 @@
         <v>351</v>
       </c>
       <c r="B40" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -30417,7 +30417,7 @@
         <v>352</v>
       </c>
       <c r="B41" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -30425,7 +30425,7 @@
         <v>353</v>
       </c>
       <c r="B42" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -30433,7 +30433,7 @@
         <v>354</v>
       </c>
       <c r="B43" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -30441,7 +30441,7 @@
         <v>360</v>
       </c>
       <c r="B44" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -30449,7 +30449,7 @@
         <v>356</v>
       </c>
       <c r="B45" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -30457,7 +30457,7 @@
         <v>357</v>
       </c>
       <c r="B46" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -30465,7 +30465,7 @@
         <v>358</v>
       </c>
       <c r="B47" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -30473,7 +30473,7 @@
         <v>359</v>
       </c>
       <c r="B48" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -30481,7 +30481,7 @@
         <v>365</v>
       </c>
       <c r="B49" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -30489,7 +30489,7 @@
         <v>361</v>
       </c>
       <c r="B50" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -30497,7 +30497,7 @@
         <v>362</v>
       </c>
       <c r="B51" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -30505,7 +30505,7 @@
         <v>363</v>
       </c>
       <c r="B52" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -30513,7 +30513,7 @@
         <v>364</v>
       </c>
       <c r="B53" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -30521,7 +30521,7 @@
         <v>370</v>
       </c>
       <c r="B54" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -30529,7 +30529,7 @@
         <v>366</v>
       </c>
       <c r="B55" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -30537,7 +30537,7 @@
         <v>367</v>
       </c>
       <c r="B56" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -30545,7 +30545,7 @@
         <v>368</v>
       </c>
       <c r="B57" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -30553,7 +30553,7 @@
         <v>369</v>
       </c>
       <c r="B58" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -30561,7 +30561,7 @@
         <v>375</v>
       </c>
       <c r="B59" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -30569,7 +30569,7 @@
         <v>371</v>
       </c>
       <c r="B60" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -30577,7 +30577,7 @@
         <v>372</v>
       </c>
       <c r="B61" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -30585,7 +30585,7 @@
         <v>373</v>
       </c>
       <c r="B62" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -30593,7 +30593,7 @@
         <v>374</v>
       </c>
       <c r="B63" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -30601,7 +30601,7 @@
         <v>376</v>
       </c>
       <c r="B64" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -30609,7 +30609,7 @@
         <v>377</v>
       </c>
       <c r="B65" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -30617,7 +30617,7 @@
         <v>378</v>
       </c>
       <c r="B66" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -30625,7 +30625,7 @@
         <v>379</v>
       </c>
       <c r="B67" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -30633,7 +30633,7 @@
         <v>380</v>
       </c>
       <c r="B68" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -30705,7 +30705,7 @@
         <v>385</v>
       </c>
       <c r="B77" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -30713,7 +30713,7 @@
         <v>386</v>
       </c>
       <c r="B78" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -30737,7 +30737,7 @@
         <v>389</v>
       </c>
       <c r="B81" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -30753,7 +30753,7 @@
         <v>391</v>
       </c>
       <c r="B83" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -30761,7 +30761,7 @@
         <v>392</v>
       </c>
       <c r="B84" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
@@ -30785,7 +30785,7 @@
         <v>395</v>
       </c>
       <c r="B87" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -30793,7 +30793,7 @@
         <v>396</v>
       </c>
       <c r="B88" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -30801,7 +30801,7 @@
         <v>397</v>
       </c>
       <c r="B89" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
@@ -30809,7 +30809,7 @@
         <v>398</v>
       </c>
       <c r="B90" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
@@ -30817,7 +30817,7 @@
         <v>399</v>
       </c>
       <c r="B91" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -30825,7 +30825,7 @@
         <v>400</v>
       </c>
       <c r="B92" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
@@ -30841,7 +30841,7 @@
         <v>402</v>
       </c>
       <c r="B94" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -30849,7 +30849,7 @@
         <v>403</v>
       </c>
       <c r="B95" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -30857,7 +30857,7 @@
         <v>405</v>
       </c>
       <c r="B96" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
@@ -30865,23 +30865,23 @@
         <v>406</v>
       </c>
       <c r="B97" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B98" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B99" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
@@ -30889,7 +30889,7 @@
         <v>407</v>
       </c>
       <c r="B100" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
@@ -30897,7 +30897,7 @@
         <v>408</v>
       </c>
       <c r="B101" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
@@ -30905,7 +30905,7 @@
         <v>409</v>
       </c>
       <c r="B102" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -30913,7 +30913,7 @@
         <v>410</v>
       </c>
       <c r="B103" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
@@ -30921,7 +30921,7 @@
         <v>411</v>
       </c>
       <c r="B104" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -30929,7 +30929,7 @@
         <v>412</v>
       </c>
       <c r="B105" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
@@ -30937,7 +30937,7 @@
         <v>413</v>
       </c>
       <c r="B106" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
@@ -30945,7 +30945,7 @@
         <v>414</v>
       </c>
       <c r="B107" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
@@ -30953,7 +30953,7 @@
         <v>415</v>
       </c>
       <c r="B108" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
@@ -30961,7 +30961,7 @@
         <v>416</v>
       </c>
       <c r="B109" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
@@ -30969,7 +30969,7 @@
         <v>417</v>
       </c>
       <c r="B110" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -30977,7 +30977,7 @@
         <v>418</v>
       </c>
       <c r="B111" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -30985,7 +30985,7 @@
         <v>419</v>
       </c>
       <c r="B112" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -30993,7 +30993,7 @@
         <v>420</v>
       </c>
       <c r="B113" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -31001,7 +31001,7 @@
         <v>421</v>
       </c>
       <c r="B114" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -31009,7 +31009,7 @@
         <v>422</v>
       </c>
       <c r="B115" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -31017,7 +31017,7 @@
         <v>423</v>
       </c>
       <c r="B116" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -31025,7 +31025,7 @@
         <v>424</v>
       </c>
       <c r="B117" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -31033,7 +31033,7 @@
         <v>425</v>
       </c>
       <c r="B118" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
@@ -31041,7 +31041,7 @@
         <v>426</v>
       </c>
       <c r="B119" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -31049,7 +31049,7 @@
         <v>427</v>
       </c>
       <c r="B120" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
@@ -31057,7 +31057,7 @@
         <v>428</v>
       </c>
       <c r="B121" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
@@ -31065,7 +31065,7 @@
         <v>429</v>
       </c>
       <c r="B122" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
@@ -31073,7 +31073,7 @@
         <v>431</v>
       </c>
       <c r="B123" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
@@ -31081,7 +31081,7 @@
         <v>432</v>
       </c>
       <c r="B124" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
@@ -31089,7 +31089,7 @@
         <v>433</v>
       </c>
       <c r="B125" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
@@ -31097,7 +31097,7 @@
         <v>434</v>
       </c>
       <c r="B126" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
@@ -31105,7 +31105,7 @@
         <v>435</v>
       </c>
       <c r="B127" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
@@ -31113,7 +31113,7 @@
         <v>436</v>
       </c>
       <c r="B128" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
@@ -31121,7 +31121,7 @@
         <v>437</v>
       </c>
       <c r="B129" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
@@ -31129,7 +31129,7 @@
         <v>438</v>
       </c>
       <c r="B130" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
@@ -31137,7 +31137,7 @@
         <v>439</v>
       </c>
       <c r="B131" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
@@ -31145,7 +31145,7 @@
         <v>440</v>
       </c>
       <c r="B132" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
@@ -31153,7 +31153,7 @@
         <v>441</v>
       </c>
       <c r="B133" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
@@ -31161,7 +31161,7 @@
         <v>442</v>
       </c>
       <c r="B134" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
@@ -31169,7 +31169,7 @@
         <v>443</v>
       </c>
       <c r="B135" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
@@ -31177,7 +31177,7 @@
         <v>444</v>
       </c>
       <c r="B136" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
@@ -31185,7 +31185,7 @@
         <v>445</v>
       </c>
       <c r="B137" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
@@ -31193,7 +31193,7 @@
         <v>446</v>
       </c>
       <c r="B138" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
@@ -31201,7 +31201,7 @@
         <v>447</v>
       </c>
       <c r="B139" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
@@ -31209,7 +31209,7 @@
         <v>448</v>
       </c>
       <c r="B140" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
@@ -31217,7 +31217,7 @@
         <v>449</v>
       </c>
       <c r="B141" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
@@ -31225,7 +31225,7 @@
         <v>450</v>
       </c>
       <c r="B142" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
@@ -31233,7 +31233,7 @@
         <v>451</v>
       </c>
       <c r="B143" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
@@ -31241,7 +31241,7 @@
         <v>452</v>
       </c>
       <c r="B144" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
@@ -31249,7 +31249,7 @@
         <v>453</v>
       </c>
       <c r="B145" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
@@ -31257,7 +31257,7 @@
         <v>454</v>
       </c>
       <c r="B146" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
@@ -31265,7 +31265,7 @@
         <v>455</v>
       </c>
       <c r="B147" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
@@ -31273,7 +31273,7 @@
         <v>456</v>
       </c>
       <c r="B148" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
@@ -31281,7 +31281,7 @@
         <v>457</v>
       </c>
       <c r="B149" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
@@ -31289,7 +31289,7 @@
         <v>458</v>
       </c>
       <c r="B150" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
@@ -31297,7 +31297,7 @@
         <v>459</v>
       </c>
       <c r="B151" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
@@ -31305,7 +31305,7 @@
         <v>460</v>
       </c>
       <c r="B152" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
@@ -31313,7 +31313,7 @@
         <v>461</v>
       </c>
       <c r="B153" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
@@ -31321,15 +31321,15 @@
         <v>462</v>
       </c>
       <c r="B154" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B155" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
@@ -31337,7 +31337,7 @@
         <v>463</v>
       </c>
       <c r="B156" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
@@ -31345,7 +31345,7 @@
         <v>464</v>
       </c>
       <c r="B157" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
@@ -31353,7 +31353,7 @@
         <v>465</v>
       </c>
       <c r="B158" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
@@ -31361,7 +31361,7 @@
         <v>466</v>
       </c>
       <c r="B159" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
@@ -31369,7 +31369,7 @@
         <v>467</v>
       </c>
       <c r="B160" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
@@ -31377,7 +31377,7 @@
         <v>468</v>
       </c>
       <c r="B161" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
@@ -31385,7 +31385,7 @@
         <v>469</v>
       </c>
       <c r="B162" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
@@ -31393,7 +31393,7 @@
         <v>470</v>
       </c>
       <c r="B163" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
@@ -31401,7 +31401,7 @@
         <v>471</v>
       </c>
       <c r="B164" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
@@ -31409,7 +31409,7 @@
         <v>472</v>
       </c>
       <c r="B165" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
@@ -31417,7 +31417,7 @@
         <v>473</v>
       </c>
       <c r="B166" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
@@ -31425,7 +31425,7 @@
         <v>474</v>
       </c>
       <c r="B167" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
@@ -31433,7 +31433,7 @@
         <v>475</v>
       </c>
       <c r="B168" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
@@ -31441,7 +31441,7 @@
         <v>476</v>
       </c>
       <c r="B169" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
@@ -31449,7 +31449,7 @@
         <v>477</v>
       </c>
       <c r="B170" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
@@ -31457,7 +31457,7 @@
         <v>479</v>
       </c>
       <c r="B171" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
@@ -31465,7 +31465,7 @@
         <v>480</v>
       </c>
       <c r="B172" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
@@ -31473,7 +31473,7 @@
         <v>481</v>
       </c>
       <c r="B173" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
@@ -31481,7 +31481,7 @@
         <v>482</v>
       </c>
       <c r="B174" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
@@ -31489,7 +31489,7 @@
         <v>483</v>
       </c>
       <c r="B175" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
@@ -31497,7 +31497,7 @@
         <v>484</v>
       </c>
       <c r="B176" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
@@ -31505,7 +31505,7 @@
         <v>485</v>
       </c>
       <c r="B177" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
@@ -31513,7 +31513,7 @@
         <v>486</v>
       </c>
       <c r="B178" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
@@ -31521,7 +31521,7 @@
         <v>487</v>
       </c>
       <c r="B179" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
@@ -31529,7 +31529,7 @@
         <v>488</v>
       </c>
       <c r="B180" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
@@ -31537,7 +31537,7 @@
         <v>489</v>
       </c>
       <c r="B181" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
@@ -31545,7 +31545,7 @@
         <v>490</v>
       </c>
       <c r="B182" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
@@ -31553,7 +31553,7 @@
         <v>491</v>
       </c>
       <c r="B183" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
@@ -31561,7 +31561,7 @@
         <v>492</v>
       </c>
       <c r="B184" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
@@ -31569,31 +31569,31 @@
         <v>493</v>
       </c>
       <c r="B185" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B186" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B187" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B188" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
@@ -31601,31 +31601,31 @@
         <v>495</v>
       </c>
       <c r="B189" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B190" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B191" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B192" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
@@ -31633,31 +31633,31 @@
         <v>497</v>
       </c>
       <c r="B193" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B194" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B195" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B196" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
@@ -31665,7 +31665,7 @@
         <v>499</v>
       </c>
       <c r="B197" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
@@ -31673,7 +31673,7 @@
         <v>500</v>
       </c>
       <c r="B198" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
@@ -31681,7 +31681,7 @@
         <v>501</v>
       </c>
       <c r="B199" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
@@ -31689,7 +31689,7 @@
         <v>502</v>
       </c>
       <c r="B200" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
@@ -31705,7 +31705,7 @@
         <v>504</v>
       </c>
       <c r="B202" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.45">
@@ -31873,7 +31873,7 @@
         <v>526</v>
       </c>
       <c r="B223" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.45">
@@ -31905,7 +31905,7 @@
         <v>530</v>
       </c>
       <c r="B227" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.45">
@@ -31961,7 +31961,7 @@
         <v>540</v>
       </c>
       <c r="B234" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.45">
@@ -31969,7 +31969,7 @@
         <v>542</v>
       </c>
       <c r="B235" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.45">
@@ -31977,7 +31977,7 @@
         <v>290</v>
       </c>
       <c r="B236" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.45">
@@ -32009,7 +32009,7 @@
         <v>545</v>
       </c>
       <c r="B240" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.45">
@@ -32017,7 +32017,7 @@
         <v>294</v>
       </c>
       <c r="B241" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.45">
@@ -32025,7 +32025,7 @@
         <v>295</v>
       </c>
       <c r="B242" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.45">
@@ -32033,7 +32033,7 @@
         <v>296</v>
       </c>
       <c r="B243" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.45">
@@ -32041,7 +32041,7 @@
         <v>297</v>
       </c>
       <c r="B244" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.45">
@@ -32057,7 +32057,7 @@
         <v>298</v>
       </c>
       <c r="B246" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.45">
@@ -32065,7 +32065,7 @@
         <v>548</v>
       </c>
       <c r="B247" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.45">
@@ -32073,7 +32073,7 @@
         <v>299</v>
       </c>
       <c r="B248" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.45">
@@ -32081,7 +32081,7 @@
         <v>300</v>
       </c>
       <c r="B249" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.45">
@@ -32089,7 +32089,7 @@
         <v>549</v>
       </c>
       <c r="B250" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.45">
@@ -32097,7 +32097,7 @@
         <v>550</v>
       </c>
       <c r="B251" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.45">
@@ -32105,7 +32105,7 @@
         <v>551</v>
       </c>
       <c r="B252" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.45">
@@ -32113,7 +32113,7 @@
         <v>552</v>
       </c>
       <c r="B253" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.45">
@@ -32121,7 +32121,7 @@
         <v>553</v>
       </c>
       <c r="B254" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.45">
@@ -32129,7 +32129,7 @@
         <v>554</v>
       </c>
       <c r="B255" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.45">
@@ -32166,7 +32166,7 @@
         <v>308</v>
       </c>
       <c r="B1" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="C1" t="s">
         <v>556</v>
@@ -32177,167 +32177,167 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B2" t="s">
         <v>574</v>
       </c>
       <c r="C2" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="D2" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B3" t="s">
         <v>574</v>
       </c>
       <c r="C3" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D3" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B4" t="s">
         <v>574</v>
       </c>
       <c r="C4" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="D4" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B5" t="s">
         <v>574</v>
       </c>
       <c r="C5" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="D5" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B6" t="s">
         <v>574</v>
       </c>
       <c r="C6" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="D6" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B7" t="s">
         <v>574</v>
       </c>
       <c r="C7" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="D7" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B8" t="s">
         <v>574</v>
       </c>
       <c r="C8" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D8" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B9" t="s">
         <v>574</v>
       </c>
       <c r="C9" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="D9" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B10" t="s">
         <v>574</v>
       </c>
       <c r="C10" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D10" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B11" t="s">
         <v>574</v>
       </c>
       <c r="C11" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="D11" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B12" t="s">
         <v>574</v>
       </c>
       <c r="C12" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="D12" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B13" t="s">
         <v>574</v>
       </c>
       <c r="C13" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="D13" t="str">
         <f>C13</f>
@@ -32346,13 +32346,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B14" t="s">
         <v>574</v>
       </c>
       <c r="C14" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="D14" t="str">
         <f>C14</f>
@@ -32361,13 +32361,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B15" t="s">
         <v>574</v>
       </c>
       <c r="C15" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="D15" t="str">
         <f>C15</f>
@@ -32376,814 +32376,814 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B16" t="s">
         <v>574</v>
       </c>
       <c r="C16" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="D16" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B17" t="s">
         <v>574</v>
       </c>
       <c r="C17" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="D17" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B18" t="s">
         <v>574</v>
       </c>
       <c r="C18" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="D18" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B19" t="s">
         <v>574</v>
       </c>
       <c r="C19" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D19" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B20" t="s">
         <v>574</v>
       </c>
       <c r="C20" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D20" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B21" t="s">
         <v>574</v>
       </c>
       <c r="C21" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="D21" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B22" t="s">
         <v>574</v>
       </c>
       <c r="C22" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="D22" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B23" t="s">
         <v>574</v>
       </c>
       <c r="C23" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="D23" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B24" t="s">
         <v>574</v>
       </c>
       <c r="C24" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="D24" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B25" t="s">
         <v>574</v>
       </c>
       <c r="C25" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="D25" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B26" t="s">
         <v>574</v>
       </c>
       <c r="C26" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D26" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B27" t="s">
         <v>574</v>
       </c>
       <c r="C27" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D27" t="s">
         <v>1178</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B28" t="s">
         <v>574</v>
       </c>
       <c r="C28" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D28" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B29" t="s">
         <v>574</v>
       </c>
       <c r="C29" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="D29" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B30" t="s">
         <v>576</v>
       </c>
       <c r="C30" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="D30" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B31" t="s">
         <v>576</v>
       </c>
       <c r="C31" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="D31" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B32" t="s">
         <v>576</v>
       </c>
       <c r="C32" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="D32" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B33" t="s">
         <v>576</v>
       </c>
       <c r="C33" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="D33" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B34" t="s">
         <v>576</v>
       </c>
       <c r="C34" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="D34" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B35" t="s">
         <v>576</v>
       </c>
       <c r="C35" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="D35" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B36" t="s">
         <v>576</v>
       </c>
       <c r="C36" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="D36" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B37" t="s">
         <v>576</v>
       </c>
       <c r="C37" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="D37" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B38" t="s">
         <v>576</v>
       </c>
       <c r="C38" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="D38" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B39" t="s">
         <v>576</v>
       </c>
       <c r="C39" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="D39" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B40" t="s">
         <v>576</v>
       </c>
       <c r="C40" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D40" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B41" t="s">
         <v>576</v>
       </c>
       <c r="C41" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D41" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B42" t="s">
         <v>576</v>
       </c>
       <c r="C42" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="D42" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B43" t="s">
         <v>576</v>
       </c>
       <c r="C43" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="D43" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B44" t="s">
         <v>576</v>
       </c>
       <c r="C44" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="D44" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B45" t="s">
         <v>576</v>
       </c>
       <c r="C45" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="D45" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B46" t="s">
         <v>576</v>
       </c>
       <c r="C46" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="D46" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B47" t="s">
         <v>576</v>
       </c>
       <c r="C47" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D47" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B48" t="s">
         <v>576</v>
       </c>
       <c r="C48" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="D48" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B49" t="s">
         <v>576</v>
       </c>
       <c r="C49" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D49" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B50" t="s">
         <v>576</v>
       </c>
       <c r="C50" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="D50" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B51" t="s">
         <v>576</v>
       </c>
       <c r="C51" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="D51" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B52" t="s">
         <v>576</v>
       </c>
       <c r="C52" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="D52" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B53" t="s">
         <v>576</v>
       </c>
       <c r="C53" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="D53" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B54" t="s">
         <v>576</v>
       </c>
       <c r="C54" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="D54" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B55" t="s">
         <v>576</v>
       </c>
       <c r="C55" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D55" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B56" t="s">
         <v>576</v>
       </c>
       <c r="C56" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="D56" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B57" t="s">
         <v>576</v>
       </c>
       <c r="C57" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="D57" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B58" t="s">
         <v>576</v>
       </c>
       <c r="C58" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D58" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B59" t="s">
         <v>576</v>
       </c>
       <c r="C59" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D59" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B60" t="s">
         <v>576</v>
       </c>
       <c r="C60" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="D60" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B61" t="s">
         <v>576</v>
       </c>
       <c r="C61" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="D61" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B62" t="s">
         <v>576</v>
       </c>
       <c r="C62" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="D62" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B63" t="s">
         <v>576</v>
       </c>
       <c r="C63" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="D63" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B64" t="s">
         <v>576</v>
       </c>
       <c r="C64" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D64" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B65" t="s">
         <v>576</v>
       </c>
       <c r="C65" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="D65" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B66" t="s">
         <v>576</v>
       </c>
       <c r="C66" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="D66" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B67" t="s">
         <v>576</v>
       </c>
       <c r="C67" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="D67" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B68" t="s">
         <v>576</v>
       </c>
       <c r="C68" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="D68" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B69" t="s">
         <v>576</v>
       </c>
       <c r="C69" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D69" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B70" t="s">
         <v>576</v>
       </c>
       <c r="C70" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="D70" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B71" t="s">
         <v>576</v>
       </c>
       <c r="C71" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="D71" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B72" t="s">
         <v>576</v>
       </c>
       <c r="C72" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="D72" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B73" t="s">
         <v>576</v>
       </c>
       <c r="C73" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="D73" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
   </sheetData>
@@ -33216,10 +33216,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>933</v>
+      </c>
+      <c r="B2" t="s">
         <v>934</v>
-      </c>
-      <c r="B2" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -33272,26 +33272,26 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B9" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B11" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -33336,7 +33336,7 @@
         <v>333</v>
       </c>
       <c r="B17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -33344,7 +33344,7 @@
         <v>334</v>
       </c>
       <c r="B18" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -33352,7 +33352,7 @@
         <v>335</v>
       </c>
       <c r="B19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -33360,7 +33360,7 @@
         <v>337</v>
       </c>
       <c r="B20" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -33368,7 +33368,7 @@
         <v>339</v>
       </c>
       <c r="B21" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -33376,7 +33376,7 @@
         <v>341</v>
       </c>
       <c r="B22" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -33384,7 +33384,7 @@
         <v>343</v>
       </c>
       <c r="B23" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -33392,7 +33392,7 @@
         <v>345</v>
       </c>
       <c r="B24" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -33400,7 +33400,7 @@
         <v>347</v>
       </c>
       <c r="B25" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -33408,7 +33408,7 @@
         <v>348</v>
       </c>
       <c r="B26" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -33416,15 +33416,15 @@
         <v>349</v>
       </c>
       <c r="B27" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
+        <v>948</v>
+      </c>
+      <c r="B28" t="s">
         <v>949</v>
-      </c>
-      <c r="B28" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -33496,7 +33496,7 @@
         <v>385</v>
       </c>
       <c r="B37" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -33504,7 +33504,7 @@
         <v>386</v>
       </c>
       <c r="B38" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -33528,7 +33528,7 @@
         <v>389</v>
       </c>
       <c r="B41" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -33544,7 +33544,7 @@
         <v>391</v>
       </c>
       <c r="B43" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -33552,7 +33552,7 @@
         <v>392</v>
       </c>
       <c r="B44" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -33576,7 +33576,7 @@
         <v>395</v>
       </c>
       <c r="B47" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -33584,7 +33584,7 @@
         <v>396</v>
       </c>
       <c r="B48" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -33592,7 +33592,7 @@
         <v>397</v>
       </c>
       <c r="B49" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -33600,7 +33600,7 @@
         <v>398</v>
       </c>
       <c r="B50" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -33608,7 +33608,7 @@
         <v>399</v>
       </c>
       <c r="B51" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -33616,7 +33616,7 @@
         <v>400</v>
       </c>
       <c r="B52" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -33632,7 +33632,7 @@
         <v>402</v>
       </c>
       <c r="B54" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -33640,7 +33640,7 @@
         <v>403</v>
       </c>
       <c r="B55" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -33648,7 +33648,7 @@
         <v>405</v>
       </c>
       <c r="B56" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -33656,23 +33656,23 @@
         <v>406</v>
       </c>
       <c r="B57" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B58" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B59" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -33680,7 +33680,7 @@
         <v>407</v>
       </c>
       <c r="B60" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -33688,7 +33688,7 @@
         <v>408</v>
       </c>
       <c r="B61" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -33696,7 +33696,7 @@
         <v>409</v>
       </c>
       <c r="B62" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -33704,7 +33704,7 @@
         <v>410</v>
       </c>
       <c r="B63" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -33712,7 +33712,7 @@
         <v>411</v>
       </c>
       <c r="B64" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -33720,7 +33720,7 @@
         <v>412</v>
       </c>
       <c r="B65" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -33728,7 +33728,7 @@
         <v>413</v>
       </c>
       <c r="B66" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -33736,7 +33736,7 @@
         <v>414</v>
       </c>
       <c r="B67" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -33744,7 +33744,7 @@
         <v>415</v>
       </c>
       <c r="B68" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -33752,7 +33752,7 @@
         <v>416</v>
       </c>
       <c r="B69" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
@@ -33760,7 +33760,7 @@
         <v>417</v>
       </c>
       <c r="B70" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
@@ -33768,7 +33768,7 @@
         <v>418</v>
       </c>
       <c r="B71" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
@@ -33776,7 +33776,7 @@
         <v>419</v>
       </c>
       <c r="B72" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -33784,7 +33784,7 @@
         <v>420</v>
       </c>
       <c r="B73" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
@@ -33792,7 +33792,7 @@
         <v>421</v>
       </c>
       <c r="B74" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
@@ -33800,7 +33800,7 @@
         <v>422</v>
       </c>
       <c r="B75" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
@@ -33808,7 +33808,7 @@
         <v>423</v>
       </c>
       <c r="B76" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
@@ -33816,7 +33816,7 @@
         <v>424</v>
       </c>
       <c r="B77" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -33824,7 +33824,7 @@
         <v>425</v>
       </c>
       <c r="B78" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -33832,7 +33832,7 @@
         <v>426</v>
       </c>
       <c r="B79" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
@@ -33840,7 +33840,7 @@
         <v>427</v>
       </c>
       <c r="B80" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
@@ -33848,7 +33848,7 @@
         <v>428</v>
       </c>
       <c r="B81" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -33856,7 +33856,7 @@
         <v>431</v>
       </c>
       <c r="B82" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
@@ -33864,7 +33864,7 @@
         <v>432</v>
       </c>
       <c r="B83" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -33872,7 +33872,7 @@
         <v>433</v>
       </c>
       <c r="B84" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
@@ -33880,7 +33880,7 @@
         <v>434</v>
       </c>
       <c r="B85" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
@@ -33888,7 +33888,7 @@
         <v>435</v>
       </c>
       <c r="B86" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
@@ -33896,7 +33896,7 @@
         <v>436</v>
       </c>
       <c r="B87" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -33904,7 +33904,7 @@
         <v>437</v>
       </c>
       <c r="B88" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -33912,7 +33912,7 @@
         <v>438</v>
       </c>
       <c r="B89" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
@@ -33920,7 +33920,7 @@
         <v>439</v>
       </c>
       <c r="B90" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
@@ -33928,7 +33928,7 @@
         <v>440</v>
       </c>
       <c r="B91" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -33936,7 +33936,7 @@
         <v>441</v>
       </c>
       <c r="B92" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
@@ -33944,7 +33944,7 @@
         <v>442</v>
       </c>
       <c r="B93" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
@@ -33952,7 +33952,7 @@
         <v>443</v>
       </c>
       <c r="B94" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -33960,7 +33960,7 @@
         <v>444</v>
       </c>
       <c r="B95" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -33968,7 +33968,7 @@
         <v>445</v>
       </c>
       <c r="B96" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
@@ -33976,7 +33976,7 @@
         <v>446</v>
       </c>
       <c r="B97" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
@@ -33984,7 +33984,7 @@
         <v>447</v>
       </c>
       <c r="B98" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
@@ -33992,7 +33992,7 @@
         <v>448</v>
       </c>
       <c r="B99" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
@@ -34000,7 +34000,7 @@
         <v>449</v>
       </c>
       <c r="B100" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
@@ -34008,7 +34008,7 @@
         <v>451</v>
       </c>
       <c r="B101" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
@@ -34016,7 +34016,7 @@
         <v>452</v>
       </c>
       <c r="B102" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -34024,7 +34024,7 @@
         <v>455</v>
       </c>
       <c r="B103" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
@@ -34032,7 +34032,7 @@
         <v>456</v>
       </c>
       <c r="B104" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -34040,7 +34040,7 @@
         <v>457</v>
       </c>
       <c r="B105" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
@@ -34048,7 +34048,7 @@
         <v>459</v>
       </c>
       <c r="B106" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
@@ -34056,7 +34056,7 @@
         <v>460</v>
       </c>
       <c r="B107" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
@@ -34064,7 +34064,7 @@
         <v>461</v>
       </c>
       <c r="B108" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
@@ -34072,7 +34072,7 @@
         <v>462</v>
       </c>
       <c r="B109" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
@@ -34080,7 +34080,7 @@
         <v>210</v>
       </c>
       <c r="B110" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -34088,7 +34088,7 @@
         <v>463</v>
       </c>
       <c r="B111" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -34096,7 +34096,7 @@
         <v>464</v>
       </c>
       <c r="B112" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -34104,7 +34104,7 @@
         <v>465</v>
       </c>
       <c r="B113" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -34112,7 +34112,7 @@
         <v>466</v>
       </c>
       <c r="B114" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -34120,7 +34120,7 @@
         <v>211</v>
       </c>
       <c r="B115" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -34128,7 +34128,7 @@
         <v>467</v>
       </c>
       <c r="B116" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -34136,7 +34136,7 @@
         <v>468</v>
       </c>
       <c r="B117" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -34144,7 +34144,7 @@
         <v>469</v>
       </c>
       <c r="B118" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
@@ -34152,7 +34152,7 @@
         <v>470</v>
       </c>
       <c r="B119" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -34160,7 +34160,7 @@
         <v>471</v>
       </c>
       <c r="B120" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
@@ -34168,7 +34168,7 @@
         <v>472</v>
       </c>
       <c r="B121" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
@@ -34176,7 +34176,7 @@
         <v>473</v>
       </c>
       <c r="B122" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
@@ -34184,7 +34184,7 @@
         <v>474</v>
       </c>
       <c r="B123" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
@@ -34192,7 +34192,7 @@
         <v>475</v>
       </c>
       <c r="B124" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
@@ -34200,7 +34200,7 @@
         <v>476</v>
       </c>
       <c r="B125" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
@@ -34208,7 +34208,7 @@
         <v>477</v>
       </c>
       <c r="B126" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
@@ -34216,7 +34216,7 @@
         <v>478</v>
       </c>
       <c r="B127" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
@@ -34224,23 +34224,23 @@
         <v>479</v>
       </c>
       <c r="B128" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
+        <v>873</v>
+      </c>
+      <c r="B129" t="s">
         <v>874</v>
-      </c>
-      <c r="B129" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
+        <v>875</v>
+      </c>
+      <c r="B130" t="s">
         <v>876</v>
-      </c>
-      <c r="B130" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
@@ -34248,7 +34248,7 @@
         <v>480</v>
       </c>
       <c r="B131" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
@@ -34256,7 +34256,7 @@
         <v>481</v>
       </c>
       <c r="B132" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
@@ -34264,7 +34264,7 @@
         <v>482</v>
       </c>
       <c r="B133" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
@@ -34272,7 +34272,7 @@
         <v>483</v>
       </c>
       <c r="B134" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
@@ -34280,7 +34280,7 @@
         <v>484</v>
       </c>
       <c r="B135" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
@@ -34288,7 +34288,7 @@
         <v>485</v>
       </c>
       <c r="B136" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
@@ -34296,7 +34296,7 @@
         <v>486</v>
       </c>
       <c r="B137" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
@@ -34304,7 +34304,7 @@
         <v>487</v>
       </c>
       <c r="B138" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
@@ -34312,7 +34312,7 @@
         <v>488</v>
       </c>
       <c r="B139" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
@@ -34320,7 +34320,7 @@
         <v>489</v>
       </c>
       <c r="B140" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
@@ -34328,7 +34328,7 @@
         <v>490</v>
       </c>
       <c r="B141" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
@@ -34336,7 +34336,7 @@
         <v>491</v>
       </c>
       <c r="B142" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
@@ -34344,7 +34344,7 @@
         <v>492</v>
       </c>
       <c r="B143" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
@@ -34352,31 +34352,31 @@
         <v>493</v>
       </c>
       <c r="B144" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B145" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B146" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B147" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
@@ -34384,31 +34384,31 @@
         <v>495</v>
       </c>
       <c r="B148" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B149" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B150" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B151" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
@@ -34416,31 +34416,31 @@
         <v>497</v>
       </c>
       <c r="B152" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B153" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B154" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B155" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
@@ -34448,7 +34448,7 @@
         <v>499</v>
       </c>
       <c r="B156" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
@@ -34456,7 +34456,7 @@
         <v>500</v>
       </c>
       <c r="B157" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
@@ -34472,7 +34472,7 @@
         <v>216</v>
       </c>
       <c r="B159" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
@@ -34480,7 +34480,7 @@
         <v>504</v>
       </c>
       <c r="B160" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
@@ -34656,7 +34656,7 @@
         <v>273</v>
       </c>
       <c r="B182" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
@@ -34664,7 +34664,7 @@
         <v>280</v>
       </c>
       <c r="B183" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
@@ -34672,7 +34672,7 @@
         <v>281</v>
       </c>
       <c r="B184" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
@@ -34680,7 +34680,7 @@
         <v>282</v>
       </c>
       <c r="B185" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
@@ -34688,15 +34688,15 @@
         <v>283</v>
       </c>
       <c r="B186" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
+        <v>894</v>
+      </c>
+      <c r="B187" t="s">
         <v>895</v>
-      </c>
-      <c r="B187" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
@@ -34704,7 +34704,7 @@
         <v>284</v>
       </c>
       <c r="B188" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
@@ -34712,7 +34712,7 @@
         <v>526</v>
       </c>
       <c r="B189" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
@@ -34752,23 +34752,23 @@
         <v>530</v>
       </c>
       <c r="B194" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
+        <v>705</v>
+      </c>
+      <c r="B195" t="s">
         <v>706</v>
-      </c>
-      <c r="B195" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
+        <v>707</v>
+      </c>
+      <c r="B196" t="s">
         <v>708</v>
-      </c>
-      <c r="B196" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
@@ -34789,10 +34789,10 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B199" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
@@ -34805,10 +34805,10 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B201" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.45">
@@ -34837,10 +34837,10 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B205" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
@@ -34848,7 +34848,7 @@
         <v>540</v>
       </c>
       <c r="B206" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
@@ -34861,7 +34861,7 @@
         <v>542</v>
       </c>
       <c r="B208" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.45">
@@ -34877,7 +34877,7 @@
         <v>290</v>
       </c>
       <c r="B210" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.45">
@@ -34909,7 +34909,7 @@
         <v>545</v>
       </c>
       <c r="B214" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.45">
@@ -34917,7 +34917,7 @@
         <v>294</v>
       </c>
       <c r="B215" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.45">
@@ -34925,7 +34925,7 @@
         <v>295</v>
       </c>
       <c r="B216" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.45">
@@ -34933,7 +34933,7 @@
         <v>296</v>
       </c>
       <c r="B217" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.45">
@@ -34949,7 +34949,7 @@
         <v>298</v>
       </c>
       <c r="B219" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.45">
@@ -34957,7 +34957,7 @@
         <v>548</v>
       </c>
       <c r="B220" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.45">
@@ -34965,7 +34965,7 @@
         <v>299</v>
       </c>
       <c r="B221" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.45">
@@ -34973,7 +34973,7 @@
         <v>300</v>
       </c>
       <c r="B222" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.45">
@@ -35004,199 +35004,199 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="B1" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="B2" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="B3" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="B4" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="B5" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="B6" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B7" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="B8" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="B9" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="B10" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="B11" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="B12" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="B13" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="B14" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="B15" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="B16" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="B17" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="B18" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="B19" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="B20" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="B21" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="B22" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="B23" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="B24" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -35204,530 +35204,530 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="B26" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="B27" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="B28" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="B29" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="B30" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="B31" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="B32" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="B33" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="B34" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="B35" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="B36" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B37" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="B38" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="B39" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="B40" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="B41" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="B42" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="B43" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="B44" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="B45" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B46" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="B47" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="B48" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="B49" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="B50" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="B51" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="B52" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="B53" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="B54" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="B55" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="B56" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="B57" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="B58" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="B59" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="B60" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="B61" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="B62" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="B63" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="B64" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="B65" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="B66" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="B67" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="B68" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="B69" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="B70" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="B71" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="B72" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="B73" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B74" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="B75" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="B76" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="B77" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="B78" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="B79" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="B80" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="B81" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="B82" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="B83" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="B84" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="B85" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="B86" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="B87" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="B88" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="B89" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="B90" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="B91" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -35735,102 +35735,102 @@
         <v>229</v>
       </c>
       <c r="B92" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
   </sheetData>

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81109116-DDDD-420D-BABD-1A2C16B7C987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C79F556-9FB1-4B59-BCC6-A643A632ACB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="13118" yWindow="195" windowWidth="15195" windowHeight="15450" activeTab="3" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -1889,12 +1889,6 @@
     <t>hhm_symp_ache</t>
   </si>
   <si>
-    <t>hhm_symp_bn</t>
-  </si>
-  <si>
-    <t>hhm_symp_st</t>
-  </si>
-  <si>
     <t>hhm_symp_tired</t>
   </si>
   <si>
@@ -2372,33 +2366,9 @@
     <t>hhm_not_attend_childcare_sitter_paid</t>
   </si>
   <si>
-    <t>part_visit_pub</t>
-  </si>
-  <si>
     <t>part_visit_restaurant</t>
   </si>
   <si>
-    <t>part_visit_cinema</t>
-  </si>
-  <si>
-    <t>part_visit_concert</t>
-  </si>
-  <si>
-    <t>part_visit_supermarket</t>
-  </si>
-  <si>
-    <t>part_visit_sportevent_attendee</t>
-  </si>
-  <si>
-    <t>part_visit_sportevent_participant</t>
-  </si>
-  <si>
-    <t>part_visit_religous_event</t>
-  </si>
-  <si>
-    <t>part_visit_indoor_event_over_100</t>
-  </si>
-  <si>
     <t>part_visit_outdoor_event_over_100</t>
   </si>
   <si>
@@ -2456,12 +2426,6 @@
     <t>part_visit_sportevent_participant_not_attend_times_dk</t>
   </si>
   <si>
-    <t>part_visit_religous_event_not_attend_times</t>
-  </si>
-  <si>
-    <t>part_visit_religous_event_not_attend_times_dk</t>
-  </si>
-  <si>
     <t>part_visit_indoor_event_not_attend_times</t>
   </si>
   <si>
@@ -4218,6 +4182,42 @@
   </si>
   <si>
     <t>hhm_covid_contact</t>
+  </si>
+  <si>
+    <t>part_visit_religious_event_not_attend_times</t>
+  </si>
+  <si>
+    <t>part_visit_religious_event_not_attend_times_dk</t>
+  </si>
+  <si>
+    <t>part_visit_pub_int</t>
+  </si>
+  <si>
+    <t>part_visit_restaurant_int</t>
+  </si>
+  <si>
+    <t>part_visit_cinema_int</t>
+  </si>
+  <si>
+    <t>part_visit_concert_int</t>
+  </si>
+  <si>
+    <t>part_visit_supermarket_int</t>
+  </si>
+  <si>
+    <t>part_visit_sportevent_attendee_int</t>
+  </si>
+  <si>
+    <t>part_visit_sportevent_participant_int</t>
+  </si>
+  <si>
+    <t>part_visit_religious_event_int</t>
+  </si>
+  <si>
+    <t>part_visit_indoor_event_over_100_int</t>
+  </si>
+  <si>
+    <t>cnt_other_place</t>
   </si>
 </sst>
 </file>
@@ -4585,12 +4585,12 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1387</v>
+        <v>1375</v>
       </c>
     </row>
   </sheetData>
@@ -9439,7 +9439,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -11513,7 +11513,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -11547,7 +11547,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -11649,7 +11649,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -11683,7 +11683,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -11717,7 +11717,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -11751,7 +11751,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -11785,7 +11785,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -11819,7 +11819,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -11887,7 +11887,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -11921,7 +11921,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -11955,7 +11955,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -12023,7 +12023,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -12057,7 +12057,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -12091,7 +12091,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -12125,7 +12125,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -12159,7 +12159,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -12193,7 +12193,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -12431,7 +12431,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -12465,7 +12465,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -12499,7 +12499,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -12533,7 +12533,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -12839,7 +12839,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -12941,7 +12941,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -13213,7 +13213,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -13247,7 +13247,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -13383,7 +13383,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -13417,7 +13417,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -13451,7 +13451,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -13485,7 +13485,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -13519,7 +13519,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -13553,7 +13553,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -13587,7 +13587,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -13621,7 +13621,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -13689,7 +13689,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -14267,7 +14267,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -15593,7 +15593,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -15627,7 +15627,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -16137,7 +16137,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="C340">
         <v>1</v>
@@ -16205,7 +16205,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="C342">
         <v>1</v>
@@ -16239,7 +16239,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -16273,7 +16273,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -16307,7 +16307,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -16341,7 +16341,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -16375,7 +16375,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -16409,7 +16409,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -16443,7 +16443,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="C349">
         <v>1</v>
@@ -16477,7 +16477,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -16885,7 +16885,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="C362">
         <v>1</v>
@@ -16919,7 +16919,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -16953,7 +16953,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -16987,7 +16987,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -17021,7 +17021,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="C366">
         <v>1</v>
@@ -17055,7 +17055,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -17089,7 +17089,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="C368">
         <v>1</v>
@@ -17123,7 +17123,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="C369">
         <v>1</v>
@@ -17157,7 +17157,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="C370">
         <v>1</v>
@@ -17191,7 +17191,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="C371">
         <v>1</v>
@@ -17225,7 +17225,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -17259,7 +17259,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="C373">
         <v>1</v>
@@ -17293,7 +17293,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -17327,7 +17327,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -17361,7 +17361,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="C376">
         <v>1</v>
@@ -17395,7 +17395,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -17429,7 +17429,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -17463,7 +17463,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="C379">
         <v>1</v>
@@ -17497,7 +17497,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="C380">
         <v>1</v>
@@ -17531,7 +17531,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -17565,7 +17565,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -17599,7 +17599,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -17633,7 +17633,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -17667,7 +17667,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -17871,7 +17871,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -18959,7 +18959,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -18993,7 +18993,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="C424">
         <v>1</v>
@@ -19027,7 +19027,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -19061,7 +19061,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="C426">
         <v>1</v>
@@ -19095,7 +19095,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -19129,7 +19129,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -19163,7 +19163,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -19809,7 +19809,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="C448">
         <v>1</v>
@@ -20625,7 +20625,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="C472">
         <v>1</v>
@@ -20659,7 +20659,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="C473">
         <v>1</v>
@@ -20693,7 +20693,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="C474">
         <v>1</v>
@@ -20727,7 +20727,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="C475">
         <v>1</v>
@@ -20761,7 +20761,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="C476">
         <v>1</v>
@@ -20795,7 +20795,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="C477">
         <v>1</v>
@@ -20829,7 +20829,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="C478">
         <v>1</v>
@@ -20863,7 +20863,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="C479">
         <v>1</v>
@@ -20897,7 +20897,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="C480">
         <v>1</v>
@@ -20931,7 +20931,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="C481">
         <v>1</v>
@@ -20965,7 +20965,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -20999,7 +20999,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="C483">
         <v>1</v>
@@ -21033,7 +21033,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="C484">
         <v>1</v>
@@ -21067,7 +21067,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="C485">
         <v>1</v>
@@ -21101,7 +21101,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="C486">
         <v>1</v>
@@ -21135,7 +21135,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="C487">
         <v>1</v>
@@ -21169,7 +21169,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="C488">
         <v>1</v>
@@ -21203,7 +21203,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="C489">
         <v>1</v>
@@ -26719,8 +26719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1C5985-D720-4533-B6F5-A2816F80F2F5}">
   <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="B325" sqref="B325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26742,7 +26742,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -26758,7 +26758,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -26774,7 +26774,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -26790,7 +26790,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -26798,7 +26798,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -26806,7 +26806,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -26814,7 +26814,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -26822,7 +26822,7 @@
         <v>307</v>
       </c>
       <c r="B12" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -26894,7 +26894,7 @@
         <v>315</v>
       </c>
       <c r="B21" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -26910,7 +26910,7 @@
         <v>318</v>
       </c>
       <c r="B23" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -26926,7 +26926,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -26958,7 +26958,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -26966,7 +26966,7 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -26982,7 +26982,7 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -27006,7 +27006,7 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -27014,7 +27014,7 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -27054,7 +27054,7 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -27062,7 +27062,7 @@
         <v>332</v>
       </c>
       <c r="B42" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -27078,7 +27078,7 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -27086,7 +27086,7 @@
         <v>380</v>
       </c>
       <c r="B45" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -27094,7 +27094,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -27110,7 +27110,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -27118,7 +27118,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -27126,7 +27126,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -27134,7 +27134,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -27142,7 +27142,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -27150,7 +27150,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -27158,7 +27158,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -27166,7 +27166,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -27174,7 +27174,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -27182,7 +27182,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -27190,7 +27190,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -27198,7 +27198,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -27206,7 +27206,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -27214,7 +27214,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -27222,7 +27222,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -27230,7 +27230,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -27238,7 +27238,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -27299,10 +27299,10 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="B72" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -27366,7 +27366,7 @@
         <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>614</v>
+        <v>945</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
@@ -27374,7 +27374,7 @@
         <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>615</v>
+        <v>944</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -27382,7 +27382,7 @@
         <v>75</v>
       </c>
       <c r="B82" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
@@ -27390,7 +27390,7 @@
         <v>76</v>
       </c>
       <c r="B83" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -27398,7 +27398,7 @@
         <v>77</v>
       </c>
       <c r="B84" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
@@ -27406,7 +27406,7 @@
         <v>401</v>
       </c>
       <c r="B85" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
@@ -27414,7 +27414,7 @@
         <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
@@ -27422,7 +27422,7 @@
         <v>79</v>
       </c>
       <c r="B87" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -27430,7 +27430,7 @@
         <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -27438,7 +27438,7 @@
         <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
@@ -27446,7 +27446,7 @@
         <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
@@ -27454,7 +27454,7 @@
         <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -27462,7 +27462,7 @@
         <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
@@ -27470,7 +27470,7 @@
         <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
@@ -27478,7 +27478,7 @@
         <v>86</v>
       </c>
       <c r="B94" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -27486,7 +27486,7 @@
         <v>87</v>
       </c>
       <c r="B95" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -27494,7 +27494,7 @@
         <v>88</v>
       </c>
       <c r="B96" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
@@ -27502,7 +27502,7 @@
         <v>89</v>
       </c>
       <c r="B97" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
@@ -27510,7 +27510,7 @@
         <v>90</v>
       </c>
       <c r="B98" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
@@ -27518,7 +27518,7 @@
         <v>91</v>
       </c>
       <c r="B99" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
@@ -27526,7 +27526,7 @@
         <v>92</v>
       </c>
       <c r="B100" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
@@ -27534,7 +27534,7 @@
         <v>93</v>
       </c>
       <c r="B101" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
@@ -27542,7 +27542,7 @@
         <v>94</v>
       </c>
       <c r="B102" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -27550,7 +27550,7 @@
         <v>95</v>
       </c>
       <c r="B103" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
@@ -27558,7 +27558,7 @@
         <v>96</v>
       </c>
       <c r="B104" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -27566,7 +27566,7 @@
         <v>97</v>
       </c>
       <c r="B105" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
@@ -27574,7 +27574,7 @@
         <v>98</v>
       </c>
       <c r="B106" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
@@ -27582,7 +27582,7 @@
         <v>99</v>
       </c>
       <c r="B107" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
@@ -27590,7 +27590,7 @@
         <v>100</v>
       </c>
       <c r="B108" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
@@ -27598,7 +27598,7 @@
         <v>101</v>
       </c>
       <c r="B109" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
@@ -27606,7 +27606,7 @@
         <v>402</v>
       </c>
       <c r="B110" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -27614,7 +27614,7 @@
         <v>102</v>
       </c>
       <c r="B111" t="s">
-        <v>1389</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -27622,7 +27622,7 @@
         <v>103</v>
       </c>
       <c r="B112" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -27630,23 +27630,23 @@
         <v>406</v>
       </c>
       <c r="B113" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="B114" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="B115" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -27654,7 +27654,7 @@
         <v>104</v>
       </c>
       <c r="B116" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -27662,87 +27662,87 @@
         <v>105</v>
       </c>
       <c r="B117" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="B118" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="B119" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="B120" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="B121" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="B122" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="B123" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="B124" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="B125" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="B126" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
       <c r="B127" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
@@ -27750,55 +27750,55 @@
         <v>106</v>
       </c>
       <c r="B128" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="B129" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
       <c r="B130" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
       <c r="B131" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="B132" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="B133" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="B134" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
@@ -27806,7 +27806,7 @@
         <v>107</v>
       </c>
       <c r="B135" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
@@ -27814,7 +27814,7 @@
         <v>108</v>
       </c>
       <c r="B136" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
@@ -27822,7 +27822,7 @@
         <v>109</v>
       </c>
       <c r="B137" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
@@ -27830,7 +27830,7 @@
         <v>110</v>
       </c>
       <c r="B138" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
@@ -27838,7 +27838,7 @@
         <v>111</v>
       </c>
       <c r="B139" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
@@ -27846,39 +27846,39 @@
         <v>112</v>
       </c>
       <c r="B140" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
       <c r="B141" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="B142" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="B143" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="B144" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
@@ -27886,7 +27886,7 @@
         <v>407</v>
       </c>
       <c r="B145" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
@@ -27894,7 +27894,7 @@
         <v>113</v>
       </c>
       <c r="B146" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
@@ -27902,7 +27902,7 @@
         <v>114</v>
       </c>
       <c r="B147" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
@@ -27910,7 +27910,7 @@
         <v>115</v>
       </c>
       <c r="B148" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
@@ -27918,15 +27918,15 @@
         <v>116</v>
       </c>
       <c r="B149" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="B150" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
@@ -27934,7 +27934,7 @@
         <v>117</v>
       </c>
       <c r="B151" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
@@ -27942,15 +27942,15 @@
         <v>118</v>
       </c>
       <c r="B152" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="B153" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
@@ -27958,7 +27958,7 @@
         <v>119</v>
       </c>
       <c r="B154" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
@@ -27966,7 +27966,7 @@
         <v>120</v>
       </c>
       <c r="B155" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
@@ -27974,7 +27974,7 @@
         <v>121</v>
       </c>
       <c r="B156" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
@@ -27982,87 +27982,87 @@
         <v>122</v>
       </c>
       <c r="B157" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B158" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B159" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B160" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B161" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B162" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B163" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B164" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B165" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B166" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B167" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
@@ -28070,15 +28070,15 @@
         <v>123</v>
       </c>
       <c r="B168" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="B169" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
@@ -28086,7 +28086,7 @@
         <v>124</v>
       </c>
       <c r="B170" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
@@ -28094,7 +28094,7 @@
         <v>125</v>
       </c>
       <c r="B171" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
@@ -28102,7 +28102,7 @@
         <v>126</v>
       </c>
       <c r="B172" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
@@ -28110,7 +28110,7 @@
         <v>127</v>
       </c>
       <c r="B173" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
@@ -28118,7 +28118,7 @@
         <v>128</v>
       </c>
       <c r="B174" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
@@ -28126,7 +28126,7 @@
         <v>129</v>
       </c>
       <c r="B175" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
@@ -28134,7 +28134,7 @@
         <v>130</v>
       </c>
       <c r="B176" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
@@ -28142,7 +28142,7 @@
         <v>131</v>
       </c>
       <c r="B177" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
@@ -28150,7 +28150,7 @@
         <v>132</v>
       </c>
       <c r="B178" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
@@ -28158,7 +28158,7 @@
         <v>133</v>
       </c>
       <c r="B179" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
@@ -28166,7 +28166,7 @@
         <v>134</v>
       </c>
       <c r="B180" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
@@ -28174,7 +28174,7 @@
         <v>135</v>
       </c>
       <c r="B181" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
@@ -28182,7 +28182,7 @@
         <v>136</v>
       </c>
       <c r="B182" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
@@ -28190,7 +28190,7 @@
         <v>137</v>
       </c>
       <c r="B183" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
@@ -28198,7 +28198,7 @@
         <v>138</v>
       </c>
       <c r="B184" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
@@ -28206,7 +28206,7 @@
         <v>139</v>
       </c>
       <c r="B185" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
@@ -28214,7 +28214,7 @@
         <v>140</v>
       </c>
       <c r="B186" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
@@ -28222,7 +28222,7 @@
         <v>141</v>
       </c>
       <c r="B187" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
@@ -28230,7 +28230,7 @@
         <v>142</v>
       </c>
       <c r="B188" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
@@ -28238,7 +28238,7 @@
         <v>143</v>
       </c>
       <c r="B189" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
@@ -28246,7 +28246,7 @@
         <v>144</v>
       </c>
       <c r="B190" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
@@ -28254,7 +28254,7 @@
         <v>145</v>
       </c>
       <c r="B191" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
@@ -28262,7 +28262,7 @@
         <v>146</v>
       </c>
       <c r="B192" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
@@ -28270,7 +28270,7 @@
         <v>147</v>
       </c>
       <c r="B193" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
@@ -28278,7 +28278,7 @@
         <v>148</v>
       </c>
       <c r="B194" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
@@ -28286,7 +28286,7 @@
         <v>149</v>
       </c>
       <c r="B195" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
@@ -28294,7 +28294,7 @@
         <v>150</v>
       </c>
       <c r="B196" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
@@ -28302,7 +28302,7 @@
         <v>151</v>
       </c>
       <c r="B197" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
@@ -28310,7 +28310,7 @@
         <v>152</v>
       </c>
       <c r="B198" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
@@ -28318,7 +28318,7 @@
         <v>153</v>
       </c>
       <c r="B199" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
@@ -28326,7 +28326,7 @@
         <v>154</v>
       </c>
       <c r="B200" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
@@ -28334,7 +28334,7 @@
         <v>155</v>
       </c>
       <c r="B201" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.45">
@@ -28342,7 +28342,7 @@
         <v>156</v>
       </c>
       <c r="B202" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.45">
@@ -28350,7 +28350,7 @@
         <v>157</v>
       </c>
       <c r="B203" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.45">
@@ -28358,7 +28358,7 @@
         <v>158</v>
       </c>
       <c r="B204" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
@@ -28366,7 +28366,7 @@
         <v>159</v>
       </c>
       <c r="B205" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
@@ -28374,7 +28374,7 @@
         <v>160</v>
       </c>
       <c r="B206" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
@@ -28382,7 +28382,7 @@
         <v>163</v>
       </c>
       <c r="B207" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.45">
@@ -28390,7 +28390,7 @@
         <v>164</v>
       </c>
       <c r="B208" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.45">
@@ -28398,7 +28398,7 @@
         <v>165</v>
       </c>
       <c r="B209" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.45">
@@ -28406,7 +28406,7 @@
         <v>166</v>
       </c>
       <c r="B210" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.45">
@@ -28414,7 +28414,7 @@
         <v>167</v>
       </c>
       <c r="B211" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.45">
@@ -28422,7 +28422,7 @@
         <v>168</v>
       </c>
       <c r="B212" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.45">
@@ -28430,7 +28430,7 @@
         <v>169</v>
       </c>
       <c r="B213" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.45">
@@ -28438,7 +28438,7 @@
         <v>170</v>
       </c>
       <c r="B214" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.45">
@@ -28446,7 +28446,7 @@
         <v>171</v>
       </c>
       <c r="B215" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.45">
@@ -28454,7 +28454,7 @@
         <v>172</v>
       </c>
       <c r="B216" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.45">
@@ -28462,7 +28462,7 @@
         <v>173</v>
       </c>
       <c r="B217" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.45">
@@ -28470,7 +28470,7 @@
         <v>174</v>
       </c>
       <c r="B218" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.45">
@@ -28478,7 +28478,7 @@
         <v>175</v>
       </c>
       <c r="B219" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.45">
@@ -28486,7 +28486,7 @@
         <v>176</v>
       </c>
       <c r="B220" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.45">
@@ -28494,7 +28494,7 @@
         <v>177</v>
       </c>
       <c r="B221" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.45">
@@ -28502,7 +28502,7 @@
         <v>178</v>
       </c>
       <c r="B222" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.45">
@@ -28510,7 +28510,7 @@
         <v>179</v>
       </c>
       <c r="B223" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.45">
@@ -28518,7 +28518,7 @@
         <v>180</v>
       </c>
       <c r="B224" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.45">
@@ -28526,7 +28526,7 @@
         <v>181</v>
       </c>
       <c r="B225" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.45">
@@ -28534,7 +28534,7 @@
         <v>182</v>
       </c>
       <c r="B226" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.45">
@@ -28542,7 +28542,7 @@
         <v>183</v>
       </c>
       <c r="B227" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.45">
@@ -28550,7 +28550,7 @@
         <v>184</v>
       </c>
       <c r="B228" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.45">
@@ -28558,7 +28558,7 @@
         <v>185</v>
       </c>
       <c r="B229" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.45">
@@ -28566,7 +28566,7 @@
         <v>186</v>
       </c>
       <c r="B230" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.45">
@@ -28574,7 +28574,7 @@
         <v>187</v>
       </c>
       <c r="B231" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.45">
@@ -28582,7 +28582,7 @@
         <v>188</v>
       </c>
       <c r="B232" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.45">
@@ -28590,7 +28590,7 @@
         <v>189</v>
       </c>
       <c r="B233" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.45">
@@ -28598,7 +28598,7 @@
         <v>190</v>
       </c>
       <c r="B234" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.45">
@@ -28606,7 +28606,7 @@
         <v>191</v>
       </c>
       <c r="B235" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.45">
@@ -28614,271 +28614,271 @@
         <v>192</v>
       </c>
       <c r="B236" t="s">
-        <v>775</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="B237" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="B238" t="s">
-        <v>776</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="B239" t="s">
-        <v>777</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="B240" t="s">
-        <v>778</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="B241" t="s">
-        <v>779</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="B242" t="s">
-        <v>780</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="B243" t="s">
-        <v>781</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="B244" t="s">
-        <v>782</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="B245" t="s">
-        <v>783</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="B246" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="B247" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="B248" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="B249" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="B250" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="B251" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="B252" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="B253" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="B254" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="B255" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="B256" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="B257" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="B258" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="B259" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="B260" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="B261" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="B262" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="B263" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="B264" t="s">
-        <v>803</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="B265" t="s">
-        <v>804</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="B266" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="B267" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="B268" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="B269" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.45">
@@ -28886,7 +28886,7 @@
         <v>428</v>
       </c>
       <c r="B270" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.45">
@@ -28894,7 +28894,7 @@
         <v>431</v>
       </c>
       <c r="B271" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.45">
@@ -28902,15 +28902,15 @@
         <v>193</v>
       </c>
       <c r="B272" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="B273" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.45">
@@ -28918,7 +28918,7 @@
         <v>432</v>
       </c>
       <c r="B274" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.45">
@@ -28926,7 +28926,7 @@
         <v>435</v>
       </c>
       <c r="B275" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.45">
@@ -28934,7 +28934,7 @@
         <v>436</v>
       </c>
       <c r="B276" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.45">
@@ -28942,7 +28942,7 @@
         <v>437</v>
       </c>
       <c r="B277" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.45">
@@ -28950,7 +28950,7 @@
         <v>438</v>
       </c>
       <c r="B278" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.45">
@@ -28958,7 +28958,7 @@
         <v>439</v>
       </c>
       <c r="B279" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.45">
@@ -28966,7 +28966,7 @@
         <v>440</v>
       </c>
       <c r="B280" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.45">
@@ -28974,7 +28974,7 @@
         <v>441</v>
       </c>
       <c r="B281" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.45">
@@ -28982,7 +28982,7 @@
         <v>442</v>
       </c>
       <c r="B282" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.45">
@@ -28990,7 +28990,7 @@
         <v>194</v>
       </c>
       <c r="B283" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.45">
@@ -28998,7 +28998,7 @@
         <v>195</v>
       </c>
       <c r="B284" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.45">
@@ -29006,7 +29006,7 @@
         <v>196</v>
       </c>
       <c r="B285" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.45">
@@ -29014,7 +29014,7 @@
         <v>197</v>
       </c>
       <c r="B286" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.45">
@@ -29022,7 +29022,7 @@
         <v>198</v>
       </c>
       <c r="B287" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.45">
@@ -29030,7 +29030,7 @@
         <v>199</v>
       </c>
       <c r="B288" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.45">
@@ -29038,7 +29038,7 @@
         <v>200</v>
       </c>
       <c r="B289" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.45">
@@ -29046,7 +29046,7 @@
         <v>201</v>
       </c>
       <c r="B290" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.45">
@@ -29054,7 +29054,7 @@
         <v>202</v>
       </c>
       <c r="B291" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.45">
@@ -29062,7 +29062,7 @@
         <v>203</v>
       </c>
       <c r="B292" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.45">
@@ -29070,7 +29070,7 @@
         <v>443</v>
       </c>
       <c r="B293" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.45">
@@ -29078,7 +29078,7 @@
         <v>204</v>
       </c>
       <c r="B294" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.45">
@@ -29086,7 +29086,7 @@
         <v>205</v>
       </c>
       <c r="B295" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.45">
@@ -29094,7 +29094,7 @@
         <v>444</v>
       </c>
       <c r="B296" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.45">
@@ -29102,7 +29102,7 @@
         <v>445</v>
       </c>
       <c r="B297" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.45">
@@ -29110,7 +29110,7 @@
         <v>446</v>
       </c>
       <c r="B298" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.45">
@@ -29118,7 +29118,7 @@
         <v>447</v>
       </c>
       <c r="B299" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.45">
@@ -29126,71 +29126,71 @@
         <v>448</v>
       </c>
       <c r="B300" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="B301" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="B302" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="B303" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="B304" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="B305" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="B306" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="B307" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="B308" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.45">
@@ -29198,7 +29198,7 @@
         <v>451</v>
       </c>
       <c r="B309" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.45">
@@ -29206,7 +29206,7 @@
         <v>452</v>
       </c>
       <c r="B310" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.45">
@@ -29214,7 +29214,7 @@
         <v>207</v>
       </c>
       <c r="B311" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.45">
@@ -29222,7 +29222,7 @@
         <v>208</v>
       </c>
       <c r="B312" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.45">
@@ -29230,7 +29230,7 @@
         <v>455</v>
       </c>
       <c r="B313" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.45">
@@ -29238,7 +29238,7 @@
         <v>456</v>
       </c>
       <c r="B314" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.45">
@@ -29246,7 +29246,7 @@
         <v>457</v>
       </c>
       <c r="B315" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.45">
@@ -29254,7 +29254,7 @@
         <v>459</v>
       </c>
       <c r="B316" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.45">
@@ -29262,7 +29262,7 @@
         <v>460</v>
       </c>
       <c r="B317" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.45">
@@ -29270,7 +29270,7 @@
         <v>461</v>
       </c>
       <c r="B318" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.45">
@@ -29278,7 +29278,7 @@
         <v>462</v>
       </c>
       <c r="B319" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.45">
@@ -29286,15 +29286,15 @@
         <v>210</v>
       </c>
       <c r="B320" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="B321" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.45">
@@ -29302,7 +29302,7 @@
         <v>463</v>
       </c>
       <c r="B322" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.45">
@@ -29310,7 +29310,7 @@
         <v>464</v>
       </c>
       <c r="B323" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.45">
@@ -29318,7 +29318,7 @@
         <v>465</v>
       </c>
       <c r="B324" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.45">
@@ -29326,7 +29326,7 @@
         <v>466</v>
       </c>
       <c r="B325" t="s">
-        <v>860</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.45">
@@ -29334,7 +29334,7 @@
         <v>211</v>
       </c>
       <c r="B326" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.45">
@@ -29342,7 +29342,7 @@
         <v>467</v>
       </c>
       <c r="B327" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.45">
@@ -29350,7 +29350,7 @@
         <v>468</v>
       </c>
       <c r="B328" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.45">
@@ -29358,7 +29358,7 @@
         <v>470</v>
       </c>
       <c r="B329" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.45">
@@ -29366,7 +29366,7 @@
         <v>471</v>
       </c>
       <c r="B330" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.45">
@@ -29374,7 +29374,7 @@
         <v>472</v>
       </c>
       <c r="B331" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.45">
@@ -29382,7 +29382,7 @@
         <v>473</v>
       </c>
       <c r="B332" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.45">
@@ -29390,7 +29390,7 @@
         <v>474</v>
       </c>
       <c r="B333" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.45">
@@ -29398,7 +29398,7 @@
         <v>475</v>
       </c>
       <c r="B334" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.45">
@@ -29406,7 +29406,7 @@
         <v>476</v>
       </c>
       <c r="B335" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.45">
@@ -29414,7 +29414,7 @@
         <v>477</v>
       </c>
       <c r="B336" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.45">
@@ -29422,7 +29422,7 @@
         <v>212</v>
       </c>
       <c r="B337" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.45">
@@ -29430,7 +29430,7 @@
         <v>213</v>
       </c>
       <c r="B338" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.45">
@@ -29438,7 +29438,7 @@
         <v>480</v>
       </c>
       <c r="B339" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.45">
@@ -29446,7 +29446,7 @@
         <v>481</v>
       </c>
       <c r="B340" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.45">
@@ -29454,151 +29454,151 @@
         <v>483</v>
       </c>
       <c r="B341" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="B342" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="B343" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="B344" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="B345" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="B346" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="B347" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="B348" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="B349" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="B350" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="B351" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="B352" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="B353" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="B354" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="B355" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="B356" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="B357" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="B358" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="B359" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.45">
@@ -29614,7 +29614,7 @@
         <v>214</v>
       </c>
       <c r="B361" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.45">
@@ -29622,7 +29622,7 @@
         <v>216</v>
       </c>
       <c r="B362" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.45">
@@ -29630,7 +29630,7 @@
         <v>217</v>
       </c>
       <c r="B363" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.45">
@@ -29638,7 +29638,7 @@
         <v>219</v>
       </c>
       <c r="B364" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.45">
@@ -29814,7 +29814,7 @@
         <v>270</v>
       </c>
       <c r="B386" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.45">
@@ -29822,7 +29822,7 @@
         <v>271</v>
       </c>
       <c r="B387" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.45">
@@ -29830,7 +29830,7 @@
         <v>272</v>
       </c>
       <c r="B388" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.45">
@@ -29838,7 +29838,7 @@
         <v>273</v>
       </c>
       <c r="B389" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.45">
@@ -29846,7 +29846,7 @@
         <v>274</v>
       </c>
       <c r="B390" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.45">
@@ -29854,7 +29854,7 @@
         <v>276</v>
       </c>
       <c r="B391" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.45">
@@ -29862,7 +29862,7 @@
         <v>278</v>
       </c>
       <c r="B392" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.45">
@@ -29870,7 +29870,7 @@
         <v>279</v>
       </c>
       <c r="B393" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.45">
@@ -29878,7 +29878,7 @@
         <v>280</v>
       </c>
       <c r="B394" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.45">
@@ -29886,7 +29886,7 @@
         <v>281</v>
       </c>
       <c r="B395" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.45">
@@ -29894,7 +29894,7 @@
         <v>282</v>
       </c>
       <c r="B396" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.45">
@@ -29902,7 +29902,7 @@
         <v>283</v>
       </c>
       <c r="B397" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.45">
@@ -29910,7 +29910,7 @@
         <v>284</v>
       </c>
       <c r="B398" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.45">
@@ -29918,7 +29918,7 @@
         <v>285</v>
       </c>
       <c r="B399" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.45">
@@ -29926,7 +29926,7 @@
         <v>287</v>
       </c>
       <c r="B400" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.45">
@@ -29934,7 +29934,7 @@
         <v>526</v>
       </c>
       <c r="B401" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.45">
@@ -30030,7 +30030,7 @@
         <v>545</v>
       </c>
       <c r="B413" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.45">
@@ -30046,7 +30046,7 @@
         <v>548</v>
       </c>
       <c r="B415" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.45">
@@ -30054,7 +30054,7 @@
         <v>301</v>
       </c>
       <c r="B416" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.45">
@@ -30070,7 +30070,7 @@
         <v>302</v>
       </c>
       <c r="B418" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
   </sheetData>
@@ -30086,8 +30086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6804872F-908E-4576-8C9F-D057085582A0}">
   <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -30108,7 +30108,7 @@
         <v>306</v>
       </c>
       <c r="B2" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -30116,7 +30116,7 @@
         <v>307</v>
       </c>
       <c r="B3" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -30172,7 +30172,7 @@
         <v>315</v>
       </c>
       <c r="B10" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -30180,7 +30180,7 @@
         <v>317</v>
       </c>
       <c r="B11" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -30188,7 +30188,7 @@
         <v>318</v>
       </c>
       <c r="B12" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -30204,7 +30204,7 @@
         <v>320</v>
       </c>
       <c r="B14" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -30212,12 +30212,12 @@
         <v>321</v>
       </c>
       <c r="B15" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -30225,7 +30225,7 @@
         <v>323</v>
       </c>
       <c r="B17" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -30233,7 +30233,7 @@
         <v>324</v>
       </c>
       <c r="B18" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -30249,7 +30249,7 @@
         <v>326</v>
       </c>
       <c r="B20" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -30257,7 +30257,7 @@
         <v>327</v>
       </c>
       <c r="B21" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -30281,7 +30281,7 @@
         <v>330</v>
       </c>
       <c r="B24" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -30289,7 +30289,7 @@
         <v>331</v>
       </c>
       <c r="B25" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -30297,7 +30297,7 @@
         <v>332</v>
       </c>
       <c r="B26" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -30305,7 +30305,7 @@
         <v>333</v>
       </c>
       <c r="B27" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -30313,7 +30313,7 @@
         <v>334</v>
       </c>
       <c r="B28" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -30321,7 +30321,7 @@
         <v>335</v>
       </c>
       <c r="B29" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -30329,7 +30329,7 @@
         <v>337</v>
       </c>
       <c r="B30" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -30337,7 +30337,7 @@
         <v>339</v>
       </c>
       <c r="B31" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -30345,7 +30345,7 @@
         <v>341</v>
       </c>
       <c r="B32" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -30353,7 +30353,7 @@
         <v>343</v>
       </c>
       <c r="B33" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -30361,7 +30361,7 @@
         <v>345</v>
       </c>
       <c r="B34" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -30369,7 +30369,7 @@
         <v>347</v>
       </c>
       <c r="B35" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -30377,7 +30377,7 @@
         <v>348</v>
       </c>
       <c r="B36" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -30385,7 +30385,7 @@
         <v>349</v>
       </c>
       <c r="B37" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -30393,7 +30393,7 @@
         <v>355</v>
       </c>
       <c r="B38" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -30401,7 +30401,7 @@
         <v>350</v>
       </c>
       <c r="B39" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -30409,7 +30409,7 @@
         <v>351</v>
       </c>
       <c r="B40" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -30417,7 +30417,7 @@
         <v>352</v>
       </c>
       <c r="B41" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -30425,7 +30425,7 @@
         <v>353</v>
       </c>
       <c r="B42" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -30433,7 +30433,7 @@
         <v>354</v>
       </c>
       <c r="B43" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -30441,7 +30441,7 @@
         <v>360</v>
       </c>
       <c r="B44" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -30449,7 +30449,7 @@
         <v>356</v>
       </c>
       <c r="B45" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -30457,7 +30457,7 @@
         <v>357</v>
       </c>
       <c r="B46" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -30465,7 +30465,7 @@
         <v>358</v>
       </c>
       <c r="B47" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -30473,7 +30473,7 @@
         <v>359</v>
       </c>
       <c r="B48" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -30481,7 +30481,7 @@
         <v>365</v>
       </c>
       <c r="B49" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -30489,7 +30489,7 @@
         <v>361</v>
       </c>
       <c r="B50" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -30497,7 +30497,7 @@
         <v>362</v>
       </c>
       <c r="B51" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -30505,7 +30505,7 @@
         <v>363</v>
       </c>
       <c r="B52" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -30513,7 +30513,7 @@
         <v>364</v>
       </c>
       <c r="B53" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -30521,7 +30521,7 @@
         <v>370</v>
       </c>
       <c r="B54" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -30529,7 +30529,7 @@
         <v>366</v>
       </c>
       <c r="B55" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -30537,7 +30537,7 @@
         <v>367</v>
       </c>
       <c r="B56" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -30545,7 +30545,7 @@
         <v>368</v>
       </c>
       <c r="B57" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -30553,7 +30553,7 @@
         <v>369</v>
       </c>
       <c r="B58" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -30561,7 +30561,7 @@
         <v>375</v>
       </c>
       <c r="B59" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -30569,7 +30569,7 @@
         <v>371</v>
       </c>
       <c r="B60" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -30577,7 +30577,7 @@
         <v>372</v>
       </c>
       <c r="B61" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -30585,7 +30585,7 @@
         <v>373</v>
       </c>
       <c r="B62" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -30593,7 +30593,7 @@
         <v>374</v>
       </c>
       <c r="B63" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -30601,7 +30601,7 @@
         <v>376</v>
       </c>
       <c r="B64" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -30609,7 +30609,7 @@
         <v>377</v>
       </c>
       <c r="B65" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -30617,7 +30617,7 @@
         <v>378</v>
       </c>
       <c r="B66" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -30625,7 +30625,7 @@
         <v>379</v>
       </c>
       <c r="B67" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -30633,7 +30633,7 @@
         <v>380</v>
       </c>
       <c r="B68" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -30705,7 +30705,7 @@
         <v>385</v>
       </c>
       <c r="B77" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -30713,7 +30713,7 @@
         <v>386</v>
       </c>
       <c r="B78" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -30737,7 +30737,7 @@
         <v>389</v>
       </c>
       <c r="B81" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -30745,7 +30745,7 @@
         <v>390</v>
       </c>
       <c r="B82" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
@@ -30753,7 +30753,7 @@
         <v>391</v>
       </c>
       <c r="B83" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -30761,7 +30761,7 @@
         <v>392</v>
       </c>
       <c r="B84" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
@@ -30785,7 +30785,7 @@
         <v>395</v>
       </c>
       <c r="B87" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -30793,7 +30793,7 @@
         <v>396</v>
       </c>
       <c r="B88" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -30801,7 +30801,7 @@
         <v>397</v>
       </c>
       <c r="B89" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
@@ -30809,7 +30809,7 @@
         <v>398</v>
       </c>
       <c r="B90" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
@@ -30817,7 +30817,7 @@
         <v>399</v>
       </c>
       <c r="B91" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -30825,7 +30825,7 @@
         <v>400</v>
       </c>
       <c r="B92" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
@@ -30833,7 +30833,7 @@
         <v>401</v>
       </c>
       <c r="B93" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
@@ -30841,7 +30841,7 @@
         <v>402</v>
       </c>
       <c r="B94" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -30849,7 +30849,7 @@
         <v>403</v>
       </c>
       <c r="B95" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -30857,7 +30857,7 @@
         <v>405</v>
       </c>
       <c r="B96" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
@@ -30865,23 +30865,23 @@
         <v>406</v>
       </c>
       <c r="B97" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="B98" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="B99" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
@@ -30889,7 +30889,7 @@
         <v>407</v>
       </c>
       <c r="B100" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
@@ -30897,7 +30897,7 @@
         <v>408</v>
       </c>
       <c r="B101" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
@@ -30905,7 +30905,7 @@
         <v>409</v>
       </c>
       <c r="B102" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -30913,7 +30913,7 @@
         <v>410</v>
       </c>
       <c r="B103" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
@@ -30921,7 +30921,7 @@
         <v>411</v>
       </c>
       <c r="B104" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -30929,7 +30929,7 @@
         <v>412</v>
       </c>
       <c r="B105" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
@@ -30937,7 +30937,7 @@
         <v>413</v>
       </c>
       <c r="B106" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
@@ -30945,7 +30945,7 @@
         <v>414</v>
       </c>
       <c r="B107" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
@@ -30953,7 +30953,7 @@
         <v>415</v>
       </c>
       <c r="B108" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
@@ -30961,7 +30961,7 @@
         <v>416</v>
       </c>
       <c r="B109" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
@@ -30969,7 +30969,7 @@
         <v>417</v>
       </c>
       <c r="B110" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -30977,7 +30977,7 @@
         <v>418</v>
       </c>
       <c r="B111" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -30985,7 +30985,7 @@
         <v>419</v>
       </c>
       <c r="B112" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -30993,7 +30993,7 @@
         <v>420</v>
       </c>
       <c r="B113" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -31001,7 +31001,7 @@
         <v>421</v>
       </c>
       <c r="B114" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -31009,7 +31009,7 @@
         <v>422</v>
       </c>
       <c r="B115" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -31017,7 +31017,7 @@
         <v>423</v>
       </c>
       <c r="B116" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -31025,7 +31025,7 @@
         <v>424</v>
       </c>
       <c r="B117" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -31033,7 +31033,7 @@
         <v>425</v>
       </c>
       <c r="B118" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
@@ -31041,7 +31041,7 @@
         <v>426</v>
       </c>
       <c r="B119" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -31049,7 +31049,7 @@
         <v>427</v>
       </c>
       <c r="B120" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
@@ -31057,7 +31057,7 @@
         <v>428</v>
       </c>
       <c r="B121" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
@@ -31065,7 +31065,7 @@
         <v>429</v>
       </c>
       <c r="B122" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
@@ -31073,7 +31073,7 @@
         <v>431</v>
       </c>
       <c r="B123" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
@@ -31081,7 +31081,7 @@
         <v>432</v>
       </c>
       <c r="B124" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
@@ -31089,7 +31089,7 @@
         <v>433</v>
       </c>
       <c r="B125" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
@@ -31097,7 +31097,7 @@
         <v>434</v>
       </c>
       <c r="B126" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
@@ -31105,7 +31105,7 @@
         <v>435</v>
       </c>
       <c r="B127" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
@@ -31113,7 +31113,7 @@
         <v>436</v>
       </c>
       <c r="B128" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
@@ -31121,7 +31121,7 @@
         <v>437</v>
       </c>
       <c r="B129" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
@@ -31129,7 +31129,7 @@
         <v>438</v>
       </c>
       <c r="B130" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
@@ -31137,7 +31137,7 @@
         <v>439</v>
       </c>
       <c r="B131" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
@@ -31145,7 +31145,7 @@
         <v>440</v>
       </c>
       <c r="B132" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
@@ -31153,7 +31153,7 @@
         <v>441</v>
       </c>
       <c r="B133" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
@@ -31161,7 +31161,7 @@
         <v>442</v>
       </c>
       <c r="B134" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
@@ -31169,7 +31169,7 @@
         <v>443</v>
       </c>
       <c r="B135" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
@@ -31177,7 +31177,7 @@
         <v>444</v>
       </c>
       <c r="B136" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
@@ -31185,7 +31185,7 @@
         <v>445</v>
       </c>
       <c r="B137" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
@@ -31193,7 +31193,7 @@
         <v>446</v>
       </c>
       <c r="B138" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
@@ -31201,7 +31201,7 @@
         <v>447</v>
       </c>
       <c r="B139" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
@@ -31209,7 +31209,7 @@
         <v>448</v>
       </c>
       <c r="B140" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
@@ -31217,7 +31217,7 @@
         <v>449</v>
       </c>
       <c r="B141" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
@@ -31225,7 +31225,7 @@
         <v>450</v>
       </c>
       <c r="B142" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
@@ -31233,7 +31233,7 @@
         <v>451</v>
       </c>
       <c r="B143" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
@@ -31241,7 +31241,7 @@
         <v>452</v>
       </c>
       <c r="B144" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
@@ -31249,7 +31249,7 @@
         <v>453</v>
       </c>
       <c r="B145" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
@@ -31257,7 +31257,7 @@
         <v>454</v>
       </c>
       <c r="B146" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
@@ -31265,7 +31265,7 @@
         <v>455</v>
       </c>
       <c r="B147" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
@@ -31273,7 +31273,7 @@
         <v>456</v>
       </c>
       <c r="B148" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
@@ -31281,7 +31281,7 @@
         <v>457</v>
       </c>
       <c r="B149" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
@@ -31289,7 +31289,7 @@
         <v>458</v>
       </c>
       <c r="B150" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
@@ -31297,7 +31297,7 @@
         <v>459</v>
       </c>
       <c r="B151" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
@@ -31305,7 +31305,7 @@
         <v>460</v>
       </c>
       <c r="B152" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
@@ -31313,7 +31313,7 @@
         <v>461</v>
       </c>
       <c r="B153" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
@@ -31321,15 +31321,15 @@
         <v>462</v>
       </c>
       <c r="B154" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="B155" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
@@ -31337,7 +31337,7 @@
         <v>463</v>
       </c>
       <c r="B156" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
@@ -31345,7 +31345,7 @@
         <v>464</v>
       </c>
       <c r="B157" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
@@ -31353,7 +31353,7 @@
         <v>465</v>
       </c>
       <c r="B158" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
@@ -31361,7 +31361,7 @@
         <v>466</v>
       </c>
       <c r="B159" t="s">
-        <v>860</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
@@ -31369,7 +31369,7 @@
         <v>467</v>
       </c>
       <c r="B160" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
@@ -31377,7 +31377,7 @@
         <v>468</v>
       </c>
       <c r="B161" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
@@ -31385,7 +31385,7 @@
         <v>469</v>
       </c>
       <c r="B162" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
@@ -31393,7 +31393,7 @@
         <v>470</v>
       </c>
       <c r="B163" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
@@ -31401,7 +31401,7 @@
         <v>471</v>
       </c>
       <c r="B164" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
@@ -31409,7 +31409,7 @@
         <v>472</v>
       </c>
       <c r="B165" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
@@ -31417,7 +31417,7 @@
         <v>473</v>
       </c>
       <c r="B166" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
@@ -31425,7 +31425,7 @@
         <v>474</v>
       </c>
       <c r="B167" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
@@ -31433,7 +31433,7 @@
         <v>475</v>
       </c>
       <c r="B168" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
@@ -31441,7 +31441,7 @@
         <v>476</v>
       </c>
       <c r="B169" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
@@ -31449,7 +31449,7 @@
         <v>477</v>
       </c>
       <c r="B170" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
@@ -31457,7 +31457,7 @@
         <v>479</v>
       </c>
       <c r="B171" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
@@ -31465,7 +31465,7 @@
         <v>480</v>
       </c>
       <c r="B172" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
@@ -31473,7 +31473,7 @@
         <v>481</v>
       </c>
       <c r="B173" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
@@ -31481,7 +31481,7 @@
         <v>482</v>
       </c>
       <c r="B174" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
@@ -31489,7 +31489,7 @@
         <v>483</v>
       </c>
       <c r="B175" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
@@ -31497,7 +31497,7 @@
         <v>484</v>
       </c>
       <c r="B176" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
@@ -31505,7 +31505,7 @@
         <v>485</v>
       </c>
       <c r="B177" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
@@ -31513,7 +31513,7 @@
         <v>486</v>
       </c>
       <c r="B178" t="s">
-        <v>1106</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
@@ -31521,7 +31521,7 @@
         <v>487</v>
       </c>
       <c r="B179" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
@@ -31529,7 +31529,7 @@
         <v>488</v>
       </c>
       <c r="B180" t="s">
-        <v>1108</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
@@ -31537,7 +31537,7 @@
         <v>489</v>
       </c>
       <c r="B181" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
@@ -31545,7 +31545,7 @@
         <v>490</v>
       </c>
       <c r="B182" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
@@ -31553,7 +31553,7 @@
         <v>491</v>
       </c>
       <c r="B183" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
@@ -31561,7 +31561,7 @@
         <v>492</v>
       </c>
       <c r="B184" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
@@ -31569,31 +31569,31 @@
         <v>493</v>
       </c>
       <c r="B185" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="B186" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="B187" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="B188" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
@@ -31601,31 +31601,31 @@
         <v>495</v>
       </c>
       <c r="B189" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="B190" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="B191" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="B192" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
@@ -31633,31 +31633,31 @@
         <v>497</v>
       </c>
       <c r="B193" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="B194" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="B195" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="B196" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
@@ -31665,7 +31665,7 @@
         <v>499</v>
       </c>
       <c r="B197" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
@@ -31673,7 +31673,7 @@
         <v>500</v>
       </c>
       <c r="B198" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
@@ -31681,7 +31681,7 @@
         <v>501</v>
       </c>
       <c r="B199" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
@@ -31689,7 +31689,7 @@
         <v>502</v>
       </c>
       <c r="B200" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
@@ -31705,7 +31705,7 @@
         <v>504</v>
       </c>
       <c r="B202" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.45">
@@ -31873,7 +31873,7 @@
         <v>526</v>
       </c>
       <c r="B223" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.45">
@@ -31905,7 +31905,7 @@
         <v>530</v>
       </c>
       <c r="B227" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.45">
@@ -31961,7 +31961,7 @@
         <v>540</v>
       </c>
       <c r="B234" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.45">
@@ -31969,7 +31969,7 @@
         <v>542</v>
       </c>
       <c r="B235" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.45">
@@ -31977,7 +31977,7 @@
         <v>290</v>
       </c>
       <c r="B236" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.45">
@@ -32009,7 +32009,7 @@
         <v>545</v>
       </c>
       <c r="B240" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.45">
@@ -32017,7 +32017,7 @@
         <v>294</v>
       </c>
       <c r="B241" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.45">
@@ -32025,7 +32025,7 @@
         <v>295</v>
       </c>
       <c r="B242" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.45">
@@ -32033,7 +32033,7 @@
         <v>296</v>
       </c>
       <c r="B243" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.45">
@@ -32041,7 +32041,7 @@
         <v>297</v>
       </c>
       <c r="B244" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.45">
@@ -32057,7 +32057,7 @@
         <v>298</v>
       </c>
       <c r="B246" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.45">
@@ -32065,7 +32065,7 @@
         <v>548</v>
       </c>
       <c r="B247" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.45">
@@ -32073,7 +32073,7 @@
         <v>299</v>
       </c>
       <c r="B248" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.45">
@@ -32081,7 +32081,7 @@
         <v>300</v>
       </c>
       <c r="B249" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.45">
@@ -32089,7 +32089,7 @@
         <v>549</v>
       </c>
       <c r="B250" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.45">
@@ -32097,7 +32097,7 @@
         <v>550</v>
       </c>
       <c r="B251" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.45">
@@ -32105,7 +32105,7 @@
         <v>551</v>
       </c>
       <c r="B252" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.45">
@@ -32113,7 +32113,7 @@
         <v>552</v>
       </c>
       <c r="B253" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.45">
@@ -32121,7 +32121,7 @@
         <v>553</v>
       </c>
       <c r="B254" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.45">
@@ -32129,7 +32129,7 @@
         <v>554</v>
       </c>
       <c r="B255" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.45">
@@ -32166,7 +32166,7 @@
         <v>308</v>
       </c>
       <c r="B1" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
       <c r="C1" t="s">
         <v>556</v>
@@ -32177,167 +32177,167 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="B2" t="s">
         <v>574</v>
       </c>
       <c r="C2" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="D2" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="B3" t="s">
         <v>574</v>
       </c>
       <c r="C3" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="D3" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="B4" t="s">
         <v>574</v>
       </c>
       <c r="C4" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="D4" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="B5" t="s">
         <v>574</v>
       </c>
       <c r="C5" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="D5" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="B6" t="s">
         <v>574</v>
       </c>
       <c r="C6" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="D6" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="B7" t="s">
         <v>574</v>
       </c>
       <c r="C7" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="D7" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B8" t="s">
         <v>574</v>
       </c>
       <c r="C8" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="D8" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B9" t="s">
         <v>574</v>
       </c>
       <c r="C9" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="D9" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B10" t="s">
         <v>574</v>
       </c>
       <c r="C10" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="D10" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B11" t="s">
         <v>574</v>
       </c>
       <c r="C11" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="D11" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B12" t="s">
         <v>574</v>
       </c>
       <c r="C12" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="D12" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B13" t="s">
         <v>574</v>
       </c>
       <c r="C13" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
       <c r="D13" t="str">
         <f>C13</f>
@@ -32346,13 +32346,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B14" t="s">
         <v>574</v>
       </c>
       <c r="C14" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="D14" t="str">
         <f>C14</f>
@@ -32361,13 +32361,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B15" t="s">
         <v>574</v>
       </c>
       <c r="C15" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="D15" t="str">
         <f>C15</f>
@@ -32376,814 +32376,814 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B16" t="s">
         <v>574</v>
       </c>
       <c r="C16" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
       <c r="D16" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B17" t="s">
         <v>574</v>
       </c>
       <c r="C17" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
       <c r="D17" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B18" t="s">
         <v>574</v>
       </c>
       <c r="C18" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="D18" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B19" t="s">
         <v>574</v>
       </c>
       <c r="C19" t="s">
-        <v>1183</v>
+        <v>1171</v>
       </c>
       <c r="D19" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B20" t="s">
         <v>574</v>
       </c>
       <c r="C20" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="D20" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B21" t="s">
         <v>574</v>
       </c>
       <c r="C21" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
       <c r="D21" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B22" t="s">
         <v>574</v>
       </c>
       <c r="C22" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="D22" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B23" t="s">
         <v>574</v>
       </c>
       <c r="C23" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="D23" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B24" t="s">
         <v>574</v>
       </c>
       <c r="C24" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="D24" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B25" t="s">
         <v>574</v>
       </c>
       <c r="C25" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="D25" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B26" t="s">
         <v>574</v>
       </c>
       <c r="C26" t="s">
-        <v>1181</v>
+        <v>1169</v>
       </c>
       <c r="D26" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B27" t="s">
         <v>574</v>
       </c>
       <c r="C27" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="D27" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B28" t="s">
         <v>574</v>
       </c>
       <c r="C28" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="D28" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B29" t="s">
         <v>574</v>
       </c>
       <c r="C29" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="D29" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="B30" t="s">
         <v>576</v>
       </c>
       <c r="C30" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
       <c r="D30" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="B31" t="s">
         <v>576</v>
       </c>
       <c r="C31" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="D31" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="B32" t="s">
         <v>576</v>
       </c>
       <c r="C32" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="D32" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="B33" t="s">
         <v>576</v>
       </c>
       <c r="C33" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
       <c r="D33" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="B34" t="s">
         <v>576</v>
       </c>
       <c r="C34" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="D34" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="B35" t="s">
         <v>576</v>
       </c>
       <c r="C35" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="D35" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="B36" t="s">
         <v>576</v>
       </c>
       <c r="C36" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="D36" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="B37" t="s">
         <v>576</v>
       </c>
       <c r="C37" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="D37" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B38" t="s">
         <v>576</v>
       </c>
       <c r="C38" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="D38" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B39" t="s">
         <v>576</v>
       </c>
       <c r="C39" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="D39" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B40" t="s">
         <v>576</v>
       </c>
       <c r="C40" t="s">
-        <v>1138</v>
+        <v>1126</v>
       </c>
       <c r="D40" t="s">
-        <v>1138</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B41" t="s">
         <v>576</v>
       </c>
       <c r="C41" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="D41" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B42" t="s">
         <v>576</v>
       </c>
       <c r="C42" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
       <c r="D42" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B43" t="s">
         <v>576</v>
       </c>
       <c r="C43" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
       <c r="D43" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B44" t="s">
         <v>576</v>
       </c>
       <c r="C44" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="D44" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B45" t="s">
         <v>576</v>
       </c>
       <c r="C45" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
       <c r="D45" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B46" t="s">
         <v>576</v>
       </c>
       <c r="C46" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="D46" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B47" t="s">
         <v>576</v>
       </c>
       <c r="C47" t="s">
-        <v>1128</v>
+        <v>1116</v>
       </c>
       <c r="D47" t="s">
-        <v>1128</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B48" t="s">
         <v>576</v>
       </c>
       <c r="C48" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="D48" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B49" t="s">
         <v>576</v>
       </c>
       <c r="C49" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="D49" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B50" t="s">
         <v>576</v>
       </c>
       <c r="C50" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="D50" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B51" t="s">
         <v>576</v>
       </c>
       <c r="C51" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="D51" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B52" t="s">
         <v>576</v>
       </c>
       <c r="C52" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="D52" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B53" t="s">
         <v>576</v>
       </c>
       <c r="C53" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="D53" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B54" t="s">
         <v>576</v>
       </c>
       <c r="C54" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="D54" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B55" t="s">
         <v>576</v>
       </c>
       <c r="C55" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="D55" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B56" t="s">
         <v>576</v>
       </c>
       <c r="C56" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="D56" t="s">
-        <v>1156</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B57" t="s">
         <v>576</v>
       </c>
       <c r="C57" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
       <c r="D57" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B58" t="s">
         <v>576</v>
       </c>
       <c r="C58" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="D58" t="s">
-        <v>1156</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B59" t="s">
         <v>576</v>
       </c>
       <c r="C59" t="s">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="D59" t="s">
-        <v>1156</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B60" t="s">
         <v>576</v>
       </c>
       <c r="C60" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="D60" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B61" t="s">
         <v>576</v>
       </c>
       <c r="C61" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="D61" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B62" t="s">
         <v>576</v>
       </c>
       <c r="C62" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="D62" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B63" t="s">
         <v>576</v>
       </c>
       <c r="C63" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
       <c r="D63" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B64" t="s">
         <v>576</v>
       </c>
       <c r="C64" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="D64" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B65" t="s">
         <v>576</v>
       </c>
       <c r="C65" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="D65" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B66" t="s">
         <v>576</v>
       </c>
       <c r="C66" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="D66" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B67" t="s">
         <v>576</v>
       </c>
       <c r="C67" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
       <c r="D67" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B68" t="s">
         <v>576</v>
       </c>
       <c r="C68" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="D68" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B69" t="s">
         <v>576</v>
       </c>
       <c r="C69" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="D69" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B70" t="s">
         <v>576</v>
       </c>
       <c r="C70" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
       <c r="D70" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B71" t="s">
         <v>576</v>
       </c>
       <c r="C71" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="D71" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B72" t="s">
         <v>576</v>
       </c>
       <c r="C72" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="D72" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B73" t="s">
         <v>576</v>
       </c>
       <c r="C73" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="D73" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
     </row>
   </sheetData>
@@ -33216,10 +33216,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="B2" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -33272,26 +33272,26 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="B9" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="B10" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="B11" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -33336,7 +33336,7 @@
         <v>333</v>
       </c>
       <c r="B17" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -33344,7 +33344,7 @@
         <v>334</v>
       </c>
       <c r="B18" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -33352,7 +33352,7 @@
         <v>335</v>
       </c>
       <c r="B19" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -33360,7 +33360,7 @@
         <v>337</v>
       </c>
       <c r="B20" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -33368,7 +33368,7 @@
         <v>339</v>
       </c>
       <c r="B21" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -33376,7 +33376,7 @@
         <v>341</v>
       </c>
       <c r="B22" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -33384,7 +33384,7 @@
         <v>343</v>
       </c>
       <c r="B23" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -33392,7 +33392,7 @@
         <v>345</v>
       </c>
       <c r="B24" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -33400,7 +33400,7 @@
         <v>347</v>
       </c>
       <c r="B25" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -33408,7 +33408,7 @@
         <v>348</v>
       </c>
       <c r="B26" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -33416,15 +33416,15 @@
         <v>349</v>
       </c>
       <c r="B27" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="B28" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -33496,7 +33496,7 @@
         <v>385</v>
       </c>
       <c r="B37" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -33504,7 +33504,7 @@
         <v>386</v>
       </c>
       <c r="B38" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -33528,7 +33528,7 @@
         <v>389</v>
       </c>
       <c r="B41" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -33536,7 +33536,7 @@
         <v>390</v>
       </c>
       <c r="B42" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -33544,7 +33544,7 @@
         <v>391</v>
       </c>
       <c r="B43" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -33552,7 +33552,7 @@
         <v>392</v>
       </c>
       <c r="B44" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -33576,7 +33576,7 @@
         <v>395</v>
       </c>
       <c r="B47" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -33584,7 +33584,7 @@
         <v>396</v>
       </c>
       <c r="B48" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -33592,7 +33592,7 @@
         <v>397</v>
       </c>
       <c r="B49" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -33600,7 +33600,7 @@
         <v>398</v>
       </c>
       <c r="B50" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -33608,7 +33608,7 @@
         <v>399</v>
       </c>
       <c r="B51" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -33616,7 +33616,7 @@
         <v>400</v>
       </c>
       <c r="B52" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -33624,7 +33624,7 @@
         <v>401</v>
       </c>
       <c r="B53" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -33632,7 +33632,7 @@
         <v>402</v>
       </c>
       <c r="B54" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -33640,7 +33640,7 @@
         <v>403</v>
       </c>
       <c r="B55" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -33648,7 +33648,7 @@
         <v>405</v>
       </c>
       <c r="B56" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -33656,23 +33656,23 @@
         <v>406</v>
       </c>
       <c r="B57" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="B58" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="B59" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -33680,7 +33680,7 @@
         <v>407</v>
       </c>
       <c r="B60" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -33688,7 +33688,7 @@
         <v>408</v>
       </c>
       <c r="B61" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -33696,7 +33696,7 @@
         <v>409</v>
       </c>
       <c r="B62" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -33704,7 +33704,7 @@
         <v>410</v>
       </c>
       <c r="B63" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -33712,7 +33712,7 @@
         <v>411</v>
       </c>
       <c r="B64" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -33720,7 +33720,7 @@
         <v>412</v>
       </c>
       <c r="B65" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -33728,7 +33728,7 @@
         <v>413</v>
       </c>
       <c r="B66" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -33736,7 +33736,7 @@
         <v>414</v>
       </c>
       <c r="B67" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -33744,7 +33744,7 @@
         <v>415</v>
       </c>
       <c r="B68" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -33752,7 +33752,7 @@
         <v>416</v>
       </c>
       <c r="B69" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
@@ -33760,7 +33760,7 @@
         <v>417</v>
       </c>
       <c r="B70" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
@@ -33768,7 +33768,7 @@
         <v>418</v>
       </c>
       <c r="B71" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
@@ -33776,7 +33776,7 @@
         <v>419</v>
       </c>
       <c r="B72" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -33784,7 +33784,7 @@
         <v>420</v>
       </c>
       <c r="B73" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
@@ -33792,7 +33792,7 @@
         <v>421</v>
       </c>
       <c r="B74" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
@@ -33800,7 +33800,7 @@
         <v>422</v>
       </c>
       <c r="B75" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
@@ -33808,7 +33808,7 @@
         <v>423</v>
       </c>
       <c r="B76" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
@@ -33816,7 +33816,7 @@
         <v>424</v>
       </c>
       <c r="B77" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -33824,7 +33824,7 @@
         <v>425</v>
       </c>
       <c r="B78" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -33832,7 +33832,7 @@
         <v>426</v>
       </c>
       <c r="B79" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
@@ -33840,7 +33840,7 @@
         <v>427</v>
       </c>
       <c r="B80" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
@@ -33848,7 +33848,7 @@
         <v>428</v>
       </c>
       <c r="B81" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -33856,7 +33856,7 @@
         <v>431</v>
       </c>
       <c r="B82" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
@@ -33864,7 +33864,7 @@
         <v>432</v>
       </c>
       <c r="B83" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -33872,7 +33872,7 @@
         <v>433</v>
       </c>
       <c r="B84" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
@@ -33880,7 +33880,7 @@
         <v>434</v>
       </c>
       <c r="B85" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
@@ -33888,7 +33888,7 @@
         <v>435</v>
       </c>
       <c r="B86" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
@@ -33896,7 +33896,7 @@
         <v>436</v>
       </c>
       <c r="B87" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -33904,7 +33904,7 @@
         <v>437</v>
       </c>
       <c r="B88" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -33912,7 +33912,7 @@
         <v>438</v>
       </c>
       <c r="B89" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
@@ -33920,7 +33920,7 @@
         <v>439</v>
       </c>
       <c r="B90" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
@@ -33928,7 +33928,7 @@
         <v>440</v>
       </c>
       <c r="B91" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -33936,7 +33936,7 @@
         <v>441</v>
       </c>
       <c r="B92" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
@@ -33944,7 +33944,7 @@
         <v>442</v>
       </c>
       <c r="B93" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
@@ -33952,7 +33952,7 @@
         <v>443</v>
       </c>
       <c r="B94" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -33960,7 +33960,7 @@
         <v>444</v>
       </c>
       <c r="B95" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -33968,7 +33968,7 @@
         <v>445</v>
       </c>
       <c r="B96" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
@@ -33976,7 +33976,7 @@
         <v>446</v>
       </c>
       <c r="B97" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
@@ -33984,7 +33984,7 @@
         <v>447</v>
       </c>
       <c r="B98" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
@@ -33992,7 +33992,7 @@
         <v>448</v>
       </c>
       <c r="B99" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
@@ -34000,7 +34000,7 @@
         <v>449</v>
       </c>
       <c r="B100" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
@@ -34008,7 +34008,7 @@
         <v>451</v>
       </c>
       <c r="B101" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
@@ -34016,7 +34016,7 @@
         <v>452</v>
       </c>
       <c r="B102" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -34024,7 +34024,7 @@
         <v>455</v>
       </c>
       <c r="B103" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
@@ -34032,7 +34032,7 @@
         <v>456</v>
       </c>
       <c r="B104" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -34040,7 +34040,7 @@
         <v>457</v>
       </c>
       <c r="B105" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
@@ -34048,7 +34048,7 @@
         <v>459</v>
       </c>
       <c r="B106" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
@@ -34056,7 +34056,7 @@
         <v>460</v>
       </c>
       <c r="B107" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
@@ -34064,7 +34064,7 @@
         <v>461</v>
       </c>
       <c r="B108" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
@@ -34072,7 +34072,7 @@
         <v>462</v>
       </c>
       <c r="B109" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
@@ -34080,7 +34080,7 @@
         <v>210</v>
       </c>
       <c r="B110" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -34088,7 +34088,7 @@
         <v>463</v>
       </c>
       <c r="B111" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -34096,7 +34096,7 @@
         <v>464</v>
       </c>
       <c r="B112" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -34104,7 +34104,7 @@
         <v>465</v>
       </c>
       <c r="B113" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -34112,7 +34112,7 @@
         <v>466</v>
       </c>
       <c r="B114" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -34120,7 +34120,7 @@
         <v>211</v>
       </c>
       <c r="B115" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -34128,7 +34128,7 @@
         <v>467</v>
       </c>
       <c r="B116" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -34136,7 +34136,7 @@
         <v>468</v>
       </c>
       <c r="B117" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -34144,7 +34144,7 @@
         <v>469</v>
       </c>
       <c r="B118" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
@@ -34152,7 +34152,7 @@
         <v>470</v>
       </c>
       <c r="B119" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -34160,7 +34160,7 @@
         <v>471</v>
       </c>
       <c r="B120" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
@@ -34168,7 +34168,7 @@
         <v>472</v>
       </c>
       <c r="B121" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
@@ -34176,7 +34176,7 @@
         <v>473</v>
       </c>
       <c r="B122" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
@@ -34184,7 +34184,7 @@
         <v>474</v>
       </c>
       <c r="B123" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
@@ -34192,7 +34192,7 @@
         <v>475</v>
       </c>
       <c r="B124" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
@@ -34200,7 +34200,7 @@
         <v>476</v>
       </c>
       <c r="B125" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
@@ -34208,7 +34208,7 @@
         <v>477</v>
       </c>
       <c r="B126" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
@@ -34216,7 +34216,7 @@
         <v>478</v>
       </c>
       <c r="B127" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
@@ -34224,23 +34224,23 @@
         <v>479</v>
       </c>
       <c r="B128" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="B129" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="B130" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
@@ -34248,7 +34248,7 @@
         <v>480</v>
       </c>
       <c r="B131" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
@@ -34256,7 +34256,7 @@
         <v>481</v>
       </c>
       <c r="B132" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
@@ -34264,7 +34264,7 @@
         <v>482</v>
       </c>
       <c r="B133" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
@@ -34272,7 +34272,7 @@
         <v>483</v>
       </c>
       <c r="B134" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
@@ -34280,7 +34280,7 @@
         <v>484</v>
       </c>
       <c r="B135" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
@@ -34288,7 +34288,7 @@
         <v>485</v>
       </c>
       <c r="B136" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
@@ -34296,7 +34296,7 @@
         <v>486</v>
       </c>
       <c r="B137" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
@@ -34304,7 +34304,7 @@
         <v>487</v>
       </c>
       <c r="B138" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
@@ -34312,7 +34312,7 @@
         <v>488</v>
       </c>
       <c r="B139" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
@@ -34320,7 +34320,7 @@
         <v>489</v>
       </c>
       <c r="B140" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
@@ -34328,7 +34328,7 @@
         <v>490</v>
       </c>
       <c r="B141" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
@@ -34336,7 +34336,7 @@
         <v>491</v>
       </c>
       <c r="B142" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
@@ -34344,7 +34344,7 @@
         <v>492</v>
       </c>
       <c r="B143" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
@@ -34352,31 +34352,31 @@
         <v>493</v>
       </c>
       <c r="B144" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="B145" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="B146" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="B147" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
@@ -34384,31 +34384,31 @@
         <v>495</v>
       </c>
       <c r="B148" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="B149" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="B150" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="B151" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
@@ -34416,31 +34416,31 @@
         <v>497</v>
       </c>
       <c r="B152" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="B153" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="B154" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="B155" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
@@ -34448,7 +34448,7 @@
         <v>499</v>
       </c>
       <c r="B156" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
@@ -34456,7 +34456,7 @@
         <v>500</v>
       </c>
       <c r="B157" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
@@ -34472,7 +34472,7 @@
         <v>216</v>
       </c>
       <c r="B159" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
@@ -34480,7 +34480,7 @@
         <v>504</v>
       </c>
       <c r="B160" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
@@ -34656,7 +34656,7 @@
         <v>273</v>
       </c>
       <c r="B182" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
@@ -34664,7 +34664,7 @@
         <v>280</v>
       </c>
       <c r="B183" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
@@ -34672,7 +34672,7 @@
         <v>281</v>
       </c>
       <c r="B184" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
@@ -34680,7 +34680,7 @@
         <v>282</v>
       </c>
       <c r="B185" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
@@ -34688,15 +34688,15 @@
         <v>283</v>
       </c>
       <c r="B186" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="B187" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
@@ -34704,7 +34704,7 @@
         <v>284</v>
       </c>
       <c r="B188" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
@@ -34712,7 +34712,7 @@
         <v>526</v>
       </c>
       <c r="B189" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
@@ -34752,23 +34752,23 @@
         <v>530</v>
       </c>
       <c r="B194" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B195" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B196" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
@@ -34789,10 +34789,10 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="B199" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
@@ -34805,10 +34805,10 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="B201" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.45">
@@ -34837,10 +34837,10 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="B205" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
@@ -34848,7 +34848,7 @@
         <v>540</v>
       </c>
       <c r="B206" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
@@ -34861,7 +34861,7 @@
         <v>542</v>
       </c>
       <c r="B208" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.45">
@@ -34877,7 +34877,7 @@
         <v>290</v>
       </c>
       <c r="B210" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.45">
@@ -34909,7 +34909,7 @@
         <v>545</v>
       </c>
       <c r="B214" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.45">
@@ -34917,7 +34917,7 @@
         <v>294</v>
       </c>
       <c r="B215" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.45">
@@ -34925,7 +34925,7 @@
         <v>295</v>
       </c>
       <c r="B216" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.45">
@@ -34933,7 +34933,7 @@
         <v>296</v>
       </c>
       <c r="B217" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.45">
@@ -34949,7 +34949,7 @@
         <v>298</v>
       </c>
       <c r="B219" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.45">
@@ -34957,7 +34957,7 @@
         <v>548</v>
       </c>
       <c r="B220" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.45">
@@ -34965,7 +34965,7 @@
         <v>299</v>
       </c>
       <c r="B221" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.45">
@@ -34973,7 +34973,7 @@
         <v>300</v>
       </c>
       <c r="B222" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.45">
@@ -35004,199 +35004,199 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
       <c r="B1" t="s">
-        <v>1333</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="B2" t="s">
-        <v>1188</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
       <c r="B3" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1321</v>
+        <v>1309</v>
       </c>
       <c r="B4" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="B5" t="s">
-        <v>1191</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="B6" t="s">
-        <v>1192</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="B7" t="s">
-        <v>1193</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="B8" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="B9" t="s">
-        <v>1195</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="B10" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1187</v>
+        <v>1175</v>
       </c>
       <c r="B11" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1317</v>
+        <v>1305</v>
       </c>
       <c r="B12" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>1318</v>
+        <v>1306</v>
       </c>
       <c r="B13" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>1288</v>
+        <v>1276</v>
       </c>
       <c r="B14" t="s">
-        <v>1200</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1289</v>
+        <v>1277</v>
       </c>
       <c r="B15" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="B16" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>1325</v>
+        <v>1313</v>
       </c>
       <c r="B17" t="s">
-        <v>1203</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>1326</v>
+        <v>1314</v>
       </c>
       <c r="B18" t="s">
-        <v>1204</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="B19" t="s">
-        <v>1205</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1328</v>
+        <v>1316</v>
       </c>
       <c r="B20" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>1329</v>
+        <v>1317</v>
       </c>
       <c r="B21" t="s">
-        <v>1207</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>1330</v>
+        <v>1318</v>
       </c>
       <c r="B22" t="s">
-        <v>1216</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="B23" t="s">
-        <v>1217</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>1332</v>
+        <v>1320</v>
       </c>
       <c r="B24" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>1219</v>
+        <v>1207</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -35204,530 +35204,530 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="B26" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>1208</v>
+        <v>1196</v>
       </c>
       <c r="B27" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="B28" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="B29" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="B30" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B31" t="s">
         <v>1257</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="B32" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="B33" t="s">
-        <v>1278</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="B34" t="s">
-        <v>1279</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>1290</v>
+        <v>1278</v>
       </c>
       <c r="B35" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>1291</v>
+        <v>1279</v>
       </c>
       <c r="B36" t="s">
-        <v>1282</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="B37" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="B38" t="s">
-        <v>1283</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>1303</v>
+        <v>1291</v>
       </c>
       <c r="B39" t="s">
-        <v>1284</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="B40" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
       <c r="B41" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="B42" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>1336</v>
+        <v>1324</v>
       </c>
       <c r="B43" t="s">
-        <v>1294</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>1337</v>
+        <v>1325</v>
       </c>
       <c r="B44" t="s">
-        <v>1295</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>1338</v>
+        <v>1326</v>
       </c>
       <c r="B45" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>1339</v>
+        <v>1327</v>
       </c>
       <c r="B46" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
       <c r="B47" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>1341</v>
+        <v>1329</v>
       </c>
       <c r="B48" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="B49" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
       <c r="B50" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
       <c r="B51" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="B52" t="s">
-        <v>1273</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="B53" t="s">
-        <v>1304</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
       <c r="B54" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
       <c r="B55" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>1349</v>
+        <v>1337</v>
       </c>
       <c r="B56" t="s">
-        <v>1307</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="B57" t="s">
-        <v>1274</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="B58" t="s">
-        <v>1275</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
       <c r="B59" t="s">
-        <v>1276</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="B60" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="B61" t="s">
-        <v>1213</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
       <c r="B62" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="B63" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="B64" t="s">
-        <v>1223</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>1358</v>
+        <v>1346</v>
       </c>
       <c r="B65" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="B66" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
       <c r="B67" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>1361</v>
+        <v>1349</v>
       </c>
       <c r="B68" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="B69" t="s">
-        <v>1228</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="B70" t="s">
-        <v>1229</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="B71" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
       <c r="B72" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
       <c r="B73" t="s">
-        <v>1232</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>1367</v>
+        <v>1355</v>
       </c>
       <c r="B74" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>1368</v>
+        <v>1356</v>
       </c>
       <c r="B75" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>1369</v>
+        <v>1357</v>
       </c>
       <c r="B76" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>1370</v>
+        <v>1358</v>
       </c>
       <c r="B77" t="s">
-        <v>1236</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>1371</v>
+        <v>1359</v>
       </c>
       <c r="B78" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
       <c r="B79" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>1373</v>
+        <v>1361</v>
       </c>
       <c r="B80" t="s">
-        <v>1316</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>1374</v>
+        <v>1362</v>
       </c>
       <c r="B81" t="s">
-        <v>1323</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>1375</v>
+        <v>1363</v>
       </c>
       <c r="B82" t="s">
-        <v>1315</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
       <c r="B83" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>1377</v>
+        <v>1365</v>
       </c>
       <c r="B84" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="B85" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>1379</v>
+        <v>1367</v>
       </c>
       <c r="B86" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="B87" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="B88" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="B89" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="B90" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="B91" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -35735,102 +35735,102 @@
         <v>229</v>
       </c>
       <c r="B92" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
-        <v>1261</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
-        <v>1309</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
     </row>
   </sheetData>

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C79F556-9FB1-4B59-BCC6-A643A632ACB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54622D8-2032-4094-A8D8-3A5212996204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13118" yWindow="195" windowWidth="15195" windowHeight="15450" activeTab="3" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="9225" yWindow="487" windowWidth="15195" windowHeight="15450" activeTab="3" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="1392">
   <si>
     <t>vars</t>
   </si>
@@ -4218,6 +4218,9 @@
   </si>
   <si>
     <t>cnt_other_place</t>
+  </si>
+  <si>
+    <t>hhm_contact</t>
   </si>
 </sst>
 </file>
@@ -26719,8 +26722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1C5985-D720-4533-B6F5-A2816F80F2F5}">
   <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="B325" sqref="B325"/>
+    <sheetView topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="B358" sqref="B358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -29230,7 +29233,7 @@
         <v>455</v>
       </c>
       <c r="B313" t="s">
-        <v>838</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.45">
@@ -29286,7 +29289,7 @@
         <v>210</v>
       </c>
       <c r="B320" t="s">
-        <v>844</v>
+        <v>975</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.45">
@@ -30086,8 +30089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6804872F-908E-4576-8C9F-D057085582A0}">
   <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31265,7 +31268,7 @@
         <v>455</v>
       </c>
       <c r="B147" t="s">
-        <v>838</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54622D8-2032-4094-A8D8-3A5212996204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CBE19E-7691-4D8A-8925-08B7C2240BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9225" yWindow="487" windowWidth="15195" windowHeight="15450" activeTab="3" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="1401">
   <si>
     <t>vars</t>
   </si>
@@ -4221,6 +4221,33 @@
   </si>
   <si>
     <t>hhm_contact</t>
+  </si>
+  <si>
+    <t>part_visit_another_home_int</t>
+  </si>
+  <si>
+    <t>part_visit_salon_int</t>
+  </si>
+  <si>
+    <t>part_visit_none_int</t>
+  </si>
+  <si>
+    <t>part_visit_public_transport_int</t>
+  </si>
+  <si>
+    <t>part_visit_essential_shop_int</t>
+  </si>
+  <si>
+    <t>part_visit_non_essential_shop_int</t>
+  </si>
+  <si>
+    <t>part_visit_sport_venue_int</t>
+  </si>
+  <si>
+    <t>part_visit_outdoors_int</t>
+  </si>
+  <si>
+    <t>part_visit_healthcare_int</t>
   </si>
 </sst>
 </file>
@@ -30089,8 +30116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6804872F-908E-4576-8C9F-D057085582A0}">
   <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -30972,7 +30999,7 @@
         <v>417</v>
       </c>
       <c r="B110" t="s">
-        <v>959</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -30980,7 +31007,7 @@
         <v>418</v>
       </c>
       <c r="B111" t="s">
-        <v>960</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -30988,7 +31015,7 @@
         <v>419</v>
       </c>
       <c r="B112" t="s">
-        <v>961</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -30996,7 +31023,7 @@
         <v>420</v>
       </c>
       <c r="B113" t="s">
-        <v>962</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -31004,7 +31031,7 @@
         <v>421</v>
       </c>
       <c r="B114" t="s">
-        <v>963</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -31012,7 +31039,7 @@
         <v>422</v>
       </c>
       <c r="B115" t="s">
-        <v>964</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -31020,7 +31047,7 @@
         <v>423</v>
       </c>
       <c r="B116" t="s">
-        <v>965</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -31028,7 +31055,7 @@
         <v>424</v>
       </c>
       <c r="B117" t="s">
-        <v>773</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -31036,7 +31063,7 @@
         <v>425</v>
       </c>
       <c r="B118" t="s">
-        <v>966</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
@@ -31044,7 +31071,7 @@
         <v>426</v>
       </c>
       <c r="B119" t="s">
-        <v>967</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -31052,7 +31079,7 @@
         <v>427</v>
       </c>
       <c r="B120" t="s">
-        <v>968</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CBE19E-7691-4D8A-8925-08B7C2240BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10503B3B-2141-4587-962C-B0C15C889A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="487" windowWidth="15195" windowHeight="15450" activeTab="3" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="9225" yWindow="487" windowWidth="15195" windowHeight="15450" activeTab="2" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -2369,9 +2369,6 @@
     <t>part_visit_restaurant</t>
   </si>
   <si>
-    <t>part_visit_outdoor_event_over_100</t>
-  </si>
-  <si>
     <t>part_visit_pub_not_attend_times</t>
   </si>
   <si>
@@ -4248,6 +4245,9 @@
   </si>
   <si>
     <t>part_visit_healthcare_int</t>
+  </si>
+  <si>
+    <t>part_visit_outdoor_event_over_100_int</t>
   </si>
 </sst>
 </file>
@@ -4615,12 +4615,12 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
   </sheetData>
@@ -9469,7 +9469,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -11543,7 +11543,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -11577,7 +11577,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -11679,7 +11679,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -11713,7 +11713,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -11747,7 +11747,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -11815,7 +11815,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -11849,7 +11849,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -11883,7 +11883,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -11917,7 +11917,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -11951,7 +11951,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -11985,7 +11985,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -12053,7 +12053,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -12087,7 +12087,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -12121,7 +12121,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -12155,7 +12155,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -12189,7 +12189,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -12223,7 +12223,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -12461,7 +12461,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -12495,7 +12495,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -12529,7 +12529,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -12563,7 +12563,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -12869,7 +12869,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -12971,7 +12971,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -13719,7 +13719,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -14297,7 +14297,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -15623,7 +15623,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -15657,7 +15657,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -16167,7 +16167,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C340">
         <v>1</v>
@@ -16235,7 +16235,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C342">
         <v>1</v>
@@ -16269,7 +16269,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -16303,7 +16303,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -16337,7 +16337,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -16371,7 +16371,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -16405,7 +16405,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -16439,7 +16439,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C349">
         <v>1</v>
@@ -16507,7 +16507,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -16915,7 +16915,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C362">
         <v>1</v>
@@ -16949,7 +16949,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -16983,7 +16983,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -17017,7 +17017,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -17051,7 +17051,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C366">
         <v>1</v>
@@ -17085,7 +17085,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -17119,7 +17119,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C368">
         <v>1</v>
@@ -17153,7 +17153,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C369">
         <v>1</v>
@@ -17187,7 +17187,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C370">
         <v>1</v>
@@ -17221,7 +17221,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C371">
         <v>1</v>
@@ -17255,7 +17255,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -17289,7 +17289,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C373">
         <v>1</v>
@@ -17323,7 +17323,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -17357,7 +17357,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -17391,7 +17391,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C376">
         <v>1</v>
@@ -17425,7 +17425,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -17459,7 +17459,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -17493,7 +17493,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C379">
         <v>1</v>
@@ -17527,7 +17527,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C380">
         <v>1</v>
@@ -17561,7 +17561,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -17595,7 +17595,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -17629,7 +17629,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -17663,7 +17663,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -17697,7 +17697,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -18989,7 +18989,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -19023,7 +19023,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C424">
         <v>1</v>
@@ -19057,7 +19057,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -19091,7 +19091,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C426">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -19159,7 +19159,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -19193,7 +19193,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -19227,7 +19227,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -19839,7 +19839,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C448">
         <v>1</v>
@@ -20655,7 +20655,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C472">
         <v>1</v>
@@ -20689,7 +20689,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C473">
         <v>1</v>
@@ -20723,7 +20723,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C474">
         <v>1</v>
@@ -20757,7 +20757,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C475">
         <v>1</v>
@@ -20791,7 +20791,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C476">
         <v>1</v>
@@ -20825,7 +20825,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C477">
         <v>1</v>
@@ -20859,7 +20859,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C478">
         <v>1</v>
@@ -20893,7 +20893,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C479">
         <v>1</v>
@@ -20927,7 +20927,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C480">
         <v>1</v>
@@ -20961,7 +20961,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C481">
         <v>1</v>
@@ -20995,7 +20995,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -21029,7 +21029,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C483">
         <v>1</v>
@@ -21063,7 +21063,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C484">
         <v>1</v>
@@ -21097,7 +21097,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C485">
         <v>1</v>
@@ -21131,7 +21131,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C486">
         <v>1</v>
@@ -21165,7 +21165,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C487">
         <v>1</v>
@@ -21199,7 +21199,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C488">
         <v>1</v>
@@ -21233,7 +21233,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C489">
         <v>1</v>
@@ -26749,8 +26749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1C5985-D720-4533-B6F5-A2816F80F2F5}">
   <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="B358" sqref="B358"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26772,7 +26772,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -26788,7 +26788,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -26804,7 +26804,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -26820,7 +26820,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -26828,7 +26828,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -26836,7 +26836,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -26844,7 +26844,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -26852,7 +26852,7 @@
         <v>307</v>
       </c>
       <c r="B12" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -26924,7 +26924,7 @@
         <v>315</v>
       </c>
       <c r="B21" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -26940,7 +26940,7 @@
         <v>318</v>
       </c>
       <c r="B23" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -26956,7 +26956,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -26988,7 +26988,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -26996,7 +26996,7 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -27012,7 +27012,7 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -27036,7 +27036,7 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -27044,7 +27044,7 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -27084,7 +27084,7 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -27092,7 +27092,7 @@
         <v>332</v>
       </c>
       <c r="B42" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -27108,7 +27108,7 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -27116,7 +27116,7 @@
         <v>380</v>
       </c>
       <c r="B45" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -27124,7 +27124,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -27140,7 +27140,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -27148,7 +27148,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -27156,7 +27156,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -27164,7 +27164,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -27172,7 +27172,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -27180,7 +27180,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -27188,7 +27188,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -27196,7 +27196,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -27204,7 +27204,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -27212,7 +27212,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -27220,7 +27220,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -27228,7 +27228,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -27236,7 +27236,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -27244,7 +27244,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -27252,7 +27252,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -27260,7 +27260,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -27268,7 +27268,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -27329,10 +27329,10 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B72" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -27396,7 +27396,7 @@
         <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
@@ -27404,7 +27404,7 @@
         <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -27636,7 +27636,7 @@
         <v>402</v>
       </c>
       <c r="B110" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -27644,7 +27644,7 @@
         <v>102</v>
       </c>
       <c r="B111" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -27652,7 +27652,7 @@
         <v>103</v>
       </c>
       <c r="B112" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -27665,7 +27665,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B114" t="s">
         <v>643</v>
@@ -27673,7 +27673,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B115" t="s">
         <v>644</v>
@@ -27684,7 +27684,7 @@
         <v>104</v>
       </c>
       <c r="B116" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -27697,7 +27697,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B118" t="s">
         <v>646</v>
@@ -27705,7 +27705,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B119" t="s">
         <v>647</v>
@@ -27713,7 +27713,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B120" t="s">
         <v>648</v>
@@ -27721,7 +27721,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B121" t="s">
         <v>649</v>
@@ -27729,7 +27729,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B122" t="s">
         <v>650</v>
@@ -27737,7 +27737,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B123" t="s">
         <v>651</v>
@@ -27745,7 +27745,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B124" t="s">
         <v>652</v>
@@ -27753,7 +27753,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B125" t="s">
         <v>653</v>
@@ -27761,7 +27761,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B126" t="s">
         <v>654</v>
@@ -27769,7 +27769,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B127" t="s">
         <v>655</v>
@@ -27785,7 +27785,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B129" t="s">
         <v>657</v>
@@ -27793,7 +27793,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B130" t="s">
         <v>658</v>
@@ -27801,7 +27801,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B131" t="s">
         <v>659</v>
@@ -27809,7 +27809,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B132" t="s">
         <v>660</v>
@@ -27817,7 +27817,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B133" t="s">
         <v>661</v>
@@ -27825,7 +27825,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B134" t="s">
         <v>662</v>
@@ -27881,7 +27881,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B141" t="s">
         <v>664</v>
@@ -27889,7 +27889,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B142" t="s">
         <v>665</v>
@@ -27897,7 +27897,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B143" t="s">
         <v>666</v>
@@ -27905,7 +27905,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B144" t="s">
         <v>667</v>
@@ -27916,7 +27916,7 @@
         <v>407</v>
       </c>
       <c r="B145" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
@@ -27953,10 +27953,10 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B150" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
@@ -27977,10 +27977,10 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B153" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
@@ -28105,7 +28105,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B169" t="s">
         <v>706</v>
@@ -28644,271 +28644,271 @@
         <v>192</v>
       </c>
       <c r="B236" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B237" t="s">
-        <v>774</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B238" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B239" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B240" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B241" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B242" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B243" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B244" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B245" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B246" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B247" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B248" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B249" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B250" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B251" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B252" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B253" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B254" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B255" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B256" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B257" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B258" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B259" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B260" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B261" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B262" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B263" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B264" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B265" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B266" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B267" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B268" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B269" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.45">
@@ -28916,7 +28916,7 @@
         <v>428</v>
       </c>
       <c r="B270" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.45">
@@ -28924,7 +28924,7 @@
         <v>431</v>
       </c>
       <c r="B271" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.45">
@@ -28932,15 +28932,15 @@
         <v>193</v>
       </c>
       <c r="B272" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B273" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.45">
@@ -28948,7 +28948,7 @@
         <v>432</v>
       </c>
       <c r="B274" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.45">
@@ -28956,7 +28956,7 @@
         <v>435</v>
       </c>
       <c r="B275" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.45">
@@ -28964,7 +28964,7 @@
         <v>436</v>
       </c>
       <c r="B276" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.45">
@@ -28972,7 +28972,7 @@
         <v>437</v>
       </c>
       <c r="B277" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.45">
@@ -28980,7 +28980,7 @@
         <v>438</v>
       </c>
       <c r="B278" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.45">
@@ -28988,7 +28988,7 @@
         <v>439</v>
       </c>
       <c r="B279" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.45">
@@ -28996,7 +28996,7 @@
         <v>440</v>
       </c>
       <c r="B280" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.45">
@@ -29004,7 +29004,7 @@
         <v>441</v>
       </c>
       <c r="B281" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.45">
@@ -29012,7 +29012,7 @@
         <v>442</v>
       </c>
       <c r="B282" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.45">
@@ -29020,7 +29020,7 @@
         <v>194</v>
       </c>
       <c r="B283" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.45">
@@ -29028,7 +29028,7 @@
         <v>195</v>
       </c>
       <c r="B284" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.45">
@@ -29036,7 +29036,7 @@
         <v>196</v>
       </c>
       <c r="B285" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.45">
@@ -29044,7 +29044,7 @@
         <v>197</v>
       </c>
       <c r="B286" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.45">
@@ -29052,7 +29052,7 @@
         <v>198</v>
       </c>
       <c r="B287" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.45">
@@ -29060,7 +29060,7 @@
         <v>199</v>
       </c>
       <c r="B288" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.45">
@@ -29068,7 +29068,7 @@
         <v>200</v>
       </c>
       <c r="B289" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.45">
@@ -29076,7 +29076,7 @@
         <v>201</v>
       </c>
       <c r="B290" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.45">
@@ -29084,7 +29084,7 @@
         <v>202</v>
       </c>
       <c r="B291" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.45">
@@ -29092,7 +29092,7 @@
         <v>203</v>
       </c>
       <c r="B292" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.45">
@@ -29100,7 +29100,7 @@
         <v>443</v>
       </c>
       <c r="B293" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.45">
@@ -29108,7 +29108,7 @@
         <v>204</v>
       </c>
       <c r="B294" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.45">
@@ -29116,7 +29116,7 @@
         <v>205</v>
       </c>
       <c r="B295" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.45">
@@ -29124,7 +29124,7 @@
         <v>444</v>
       </c>
       <c r="B296" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.45">
@@ -29132,7 +29132,7 @@
         <v>445</v>
       </c>
       <c r="B297" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.45">
@@ -29140,7 +29140,7 @@
         <v>446</v>
       </c>
       <c r="B298" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.45">
@@ -29148,7 +29148,7 @@
         <v>447</v>
       </c>
       <c r="B299" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.45">
@@ -29156,71 +29156,71 @@
         <v>448</v>
       </c>
       <c r="B300" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B301" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B302" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B303" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B304" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B305" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B306" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B307" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B308" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.45">
@@ -29228,7 +29228,7 @@
         <v>451</v>
       </c>
       <c r="B309" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.45">
@@ -29236,7 +29236,7 @@
         <v>452</v>
       </c>
       <c r="B310" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.45">
@@ -29244,7 +29244,7 @@
         <v>207</v>
       </c>
       <c r="B311" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.45">
@@ -29252,7 +29252,7 @@
         <v>208</v>
       </c>
       <c r="B312" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.45">
@@ -29260,7 +29260,7 @@
         <v>455</v>
       </c>
       <c r="B313" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.45">
@@ -29268,7 +29268,7 @@
         <v>456</v>
       </c>
       <c r="B314" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.45">
@@ -29276,7 +29276,7 @@
         <v>457</v>
       </c>
       <c r="B315" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.45">
@@ -29284,7 +29284,7 @@
         <v>459</v>
       </c>
       <c r="B316" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.45">
@@ -29292,7 +29292,7 @@
         <v>460</v>
       </c>
       <c r="B317" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.45">
@@ -29300,7 +29300,7 @@
         <v>461</v>
       </c>
       <c r="B318" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.45">
@@ -29308,7 +29308,7 @@
         <v>462</v>
       </c>
       <c r="B319" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.45">
@@ -29316,15 +29316,15 @@
         <v>210</v>
       </c>
       <c r="B320" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B321" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.45">
@@ -29332,7 +29332,7 @@
         <v>463</v>
       </c>
       <c r="B322" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.45">
@@ -29340,7 +29340,7 @@
         <v>464</v>
       </c>
       <c r="B323" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.45">
@@ -29348,7 +29348,7 @@
         <v>465</v>
       </c>
       <c r="B324" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.45">
@@ -29356,7 +29356,7 @@
         <v>466</v>
       </c>
       <c r="B325" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.45">
@@ -29364,7 +29364,7 @@
         <v>211</v>
       </c>
       <c r="B326" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.45">
@@ -29372,7 +29372,7 @@
         <v>467</v>
       </c>
       <c r="B327" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.45">
@@ -29380,7 +29380,7 @@
         <v>468</v>
       </c>
       <c r="B328" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.45">
@@ -29388,7 +29388,7 @@
         <v>470</v>
       </c>
       <c r="B329" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.45">
@@ -29396,7 +29396,7 @@
         <v>471</v>
       </c>
       <c r="B330" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.45">
@@ -29404,7 +29404,7 @@
         <v>472</v>
       </c>
       <c r="B331" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.45">
@@ -29412,7 +29412,7 @@
         <v>473</v>
       </c>
       <c r="B332" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.45">
@@ -29420,7 +29420,7 @@
         <v>474</v>
       </c>
       <c r="B333" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.45">
@@ -29428,7 +29428,7 @@
         <v>475</v>
       </c>
       <c r="B334" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.45">
@@ -29436,7 +29436,7 @@
         <v>476</v>
       </c>
       <c r="B335" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.45">
@@ -29444,7 +29444,7 @@
         <v>477</v>
       </c>
       <c r="B336" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.45">
@@ -29452,7 +29452,7 @@
         <v>212</v>
       </c>
       <c r="B337" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.45">
@@ -29460,7 +29460,7 @@
         <v>213</v>
       </c>
       <c r="B338" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.45">
@@ -29468,7 +29468,7 @@
         <v>480</v>
       </c>
       <c r="B339" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.45">
@@ -29476,7 +29476,7 @@
         <v>481</v>
       </c>
       <c r="B340" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.45">
@@ -29484,151 +29484,151 @@
         <v>483</v>
       </c>
       <c r="B341" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
+        <v>883</v>
+      </c>
+      <c r="B342" t="s">
         <v>884</v>
-      </c>
-      <c r="B342" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
+        <v>885</v>
+      </c>
+      <c r="B343" t="s">
         <v>886</v>
-      </c>
-      <c r="B343" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
+        <v>887</v>
+      </c>
+      <c r="B344" t="s">
         <v>888</v>
-      </c>
-      <c r="B344" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
+        <v>889</v>
+      </c>
+      <c r="B345" t="s">
         <v>890</v>
-      </c>
-      <c r="B345" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
+        <v>891</v>
+      </c>
+      <c r="B346" t="s">
         <v>892</v>
-      </c>
-      <c r="B346" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
+        <v>893</v>
+      </c>
+      <c r="B347" t="s">
         <v>894</v>
-      </c>
-      <c r="B347" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
+        <v>895</v>
+      </c>
+      <c r="B348" t="s">
         <v>896</v>
-      </c>
-      <c r="B348" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
+        <v>897</v>
+      </c>
+      <c r="B349" t="s">
         <v>898</v>
-      </c>
-      <c r="B349" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
+        <v>899</v>
+      </c>
+      <c r="B350" t="s">
         <v>900</v>
-      </c>
-      <c r="B350" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
+        <v>901</v>
+      </c>
+      <c r="B351" t="s">
         <v>902</v>
-      </c>
-      <c r="B351" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
+        <v>903</v>
+      </c>
+      <c r="B352" t="s">
         <v>904</v>
-      </c>
-      <c r="B352" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
+        <v>905</v>
+      </c>
+      <c r="B353" t="s">
         <v>906</v>
-      </c>
-      <c r="B353" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
+        <v>907</v>
+      </c>
+      <c r="B354" t="s">
         <v>908</v>
-      </c>
-      <c r="B354" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
+        <v>909</v>
+      </c>
+      <c r="B355" t="s">
         <v>910</v>
-      </c>
-      <c r="B355" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
+        <v>911</v>
+      </c>
+      <c r="B356" t="s">
         <v>912</v>
-      </c>
-      <c r="B356" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
+        <v>913</v>
+      </c>
+      <c r="B357" t="s">
         <v>914</v>
-      </c>
-      <c r="B357" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
+        <v>915</v>
+      </c>
+      <c r="B358" t="s">
         <v>916</v>
-      </c>
-      <c r="B358" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
+        <v>917</v>
+      </c>
+      <c r="B359" t="s">
         <v>918</v>
-      </c>
-      <c r="B359" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.45">
@@ -29644,7 +29644,7 @@
         <v>214</v>
       </c>
       <c r="B361" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.45">
@@ -29652,7 +29652,7 @@
         <v>216</v>
       </c>
       <c r="B362" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.45">
@@ -29660,7 +29660,7 @@
         <v>217</v>
       </c>
       <c r="B363" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.45">
@@ -29668,7 +29668,7 @@
         <v>219</v>
       </c>
       <c r="B364" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.45">
@@ -29844,7 +29844,7 @@
         <v>270</v>
       </c>
       <c r="B386" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.45">
@@ -29852,7 +29852,7 @@
         <v>271</v>
       </c>
       <c r="B387" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.45">
@@ -29860,7 +29860,7 @@
         <v>272</v>
       </c>
       <c r="B388" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.45">
@@ -29868,7 +29868,7 @@
         <v>273</v>
       </c>
       <c r="B389" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.45">
@@ -29876,7 +29876,7 @@
         <v>274</v>
       </c>
       <c r="B390" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.45">
@@ -29884,7 +29884,7 @@
         <v>276</v>
       </c>
       <c r="B391" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.45">
@@ -29892,7 +29892,7 @@
         <v>278</v>
       </c>
       <c r="B392" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.45">
@@ -29900,7 +29900,7 @@
         <v>279</v>
       </c>
       <c r="B393" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.45">
@@ -29908,7 +29908,7 @@
         <v>280</v>
       </c>
       <c r="B394" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.45">
@@ -29916,7 +29916,7 @@
         <v>281</v>
       </c>
       <c r="B395" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.45">
@@ -29924,7 +29924,7 @@
         <v>282</v>
       </c>
       <c r="B396" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.45">
@@ -29932,7 +29932,7 @@
         <v>283</v>
       </c>
       <c r="B397" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.45">
@@ -29940,7 +29940,7 @@
         <v>284</v>
       </c>
       <c r="B398" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.45">
@@ -29948,7 +29948,7 @@
         <v>285</v>
       </c>
       <c r="B399" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.45">
@@ -29956,7 +29956,7 @@
         <v>287</v>
       </c>
       <c r="B400" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.45">
@@ -29964,7 +29964,7 @@
         <v>526</v>
       </c>
       <c r="B401" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.45">
@@ -30060,7 +30060,7 @@
         <v>545</v>
       </c>
       <c r="B413" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.45">
@@ -30076,7 +30076,7 @@
         <v>548</v>
       </c>
       <c r="B415" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.45">
@@ -30084,7 +30084,7 @@
         <v>301</v>
       </c>
       <c r="B416" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.45">
@@ -30100,7 +30100,7 @@
         <v>302</v>
       </c>
       <c r="B418" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
   </sheetData>
@@ -30116,8 +30116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6804872F-908E-4576-8C9F-D057085582A0}">
   <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -30138,7 +30138,7 @@
         <v>306</v>
       </c>
       <c r="B2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -30146,7 +30146,7 @@
         <v>307</v>
       </c>
       <c r="B3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -30202,7 +30202,7 @@
         <v>315</v>
       </c>
       <c r="B10" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -30210,7 +30210,7 @@
         <v>317</v>
       </c>
       <c r="B11" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -30218,7 +30218,7 @@
         <v>318</v>
       </c>
       <c r="B12" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -30234,7 +30234,7 @@
         <v>320</v>
       </c>
       <c r="B14" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -30242,12 +30242,12 @@
         <v>321</v>
       </c>
       <c r="B15" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -30255,7 +30255,7 @@
         <v>323</v>
       </c>
       <c r="B17" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -30263,7 +30263,7 @@
         <v>324</v>
       </c>
       <c r="B18" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -30279,7 +30279,7 @@
         <v>326</v>
       </c>
       <c r="B20" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -30287,7 +30287,7 @@
         <v>327</v>
       </c>
       <c r="B21" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -30311,7 +30311,7 @@
         <v>330</v>
       </c>
       <c r="B24" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -30319,7 +30319,7 @@
         <v>331</v>
       </c>
       <c r="B25" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -30327,7 +30327,7 @@
         <v>332</v>
       </c>
       <c r="B26" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -30335,7 +30335,7 @@
         <v>333</v>
       </c>
       <c r="B27" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -30343,7 +30343,7 @@
         <v>334</v>
       </c>
       <c r="B28" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -30351,7 +30351,7 @@
         <v>335</v>
       </c>
       <c r="B29" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -30359,7 +30359,7 @@
         <v>337</v>
       </c>
       <c r="B30" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -30367,7 +30367,7 @@
         <v>339</v>
       </c>
       <c r="B31" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -30375,7 +30375,7 @@
         <v>341</v>
       </c>
       <c r="B32" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -30383,7 +30383,7 @@
         <v>343</v>
       </c>
       <c r="B33" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -30391,7 +30391,7 @@
         <v>345</v>
       </c>
       <c r="B34" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -30399,7 +30399,7 @@
         <v>347</v>
       </c>
       <c r="B35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -30407,7 +30407,7 @@
         <v>348</v>
       </c>
       <c r="B36" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -30415,7 +30415,7 @@
         <v>349</v>
       </c>
       <c r="B37" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -30423,7 +30423,7 @@
         <v>355</v>
       </c>
       <c r="B38" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -30431,7 +30431,7 @@
         <v>350</v>
       </c>
       <c r="B39" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -30439,7 +30439,7 @@
         <v>351</v>
       </c>
       <c r="B40" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -30447,7 +30447,7 @@
         <v>352</v>
       </c>
       <c r="B41" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -30455,7 +30455,7 @@
         <v>353</v>
       </c>
       <c r="B42" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -30463,7 +30463,7 @@
         <v>354</v>
       </c>
       <c r="B43" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -30471,7 +30471,7 @@
         <v>360</v>
       </c>
       <c r="B44" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -30479,7 +30479,7 @@
         <v>356</v>
       </c>
       <c r="B45" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -30487,7 +30487,7 @@
         <v>357</v>
       </c>
       <c r="B46" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -30495,7 +30495,7 @@
         <v>358</v>
       </c>
       <c r="B47" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -30503,7 +30503,7 @@
         <v>359</v>
       </c>
       <c r="B48" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -30511,7 +30511,7 @@
         <v>365</v>
       </c>
       <c r="B49" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -30519,7 +30519,7 @@
         <v>361</v>
       </c>
       <c r="B50" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -30527,7 +30527,7 @@
         <v>362</v>
       </c>
       <c r="B51" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -30535,7 +30535,7 @@
         <v>363</v>
       </c>
       <c r="B52" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -30543,7 +30543,7 @@
         <v>364</v>
       </c>
       <c r="B53" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -30551,7 +30551,7 @@
         <v>370</v>
       </c>
       <c r="B54" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -30559,7 +30559,7 @@
         <v>366</v>
       </c>
       <c r="B55" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -30567,7 +30567,7 @@
         <v>367</v>
       </c>
       <c r="B56" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -30575,7 +30575,7 @@
         <v>368</v>
       </c>
       <c r="B57" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -30583,7 +30583,7 @@
         <v>369</v>
       </c>
       <c r="B58" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -30591,7 +30591,7 @@
         <v>375</v>
       </c>
       <c r="B59" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -30599,7 +30599,7 @@
         <v>371</v>
       </c>
       <c r="B60" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -30607,7 +30607,7 @@
         <v>372</v>
       </c>
       <c r="B61" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -30615,7 +30615,7 @@
         <v>373</v>
       </c>
       <c r="B62" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -30623,7 +30623,7 @@
         <v>374</v>
       </c>
       <c r="B63" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -30631,7 +30631,7 @@
         <v>376</v>
       </c>
       <c r="B64" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -30639,7 +30639,7 @@
         <v>377</v>
       </c>
       <c r="B65" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -30647,7 +30647,7 @@
         <v>378</v>
       </c>
       <c r="B66" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -30655,7 +30655,7 @@
         <v>379</v>
       </c>
       <c r="B67" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -30663,7 +30663,7 @@
         <v>380</v>
       </c>
       <c r="B68" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -30735,7 +30735,7 @@
         <v>385</v>
       </c>
       <c r="B77" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -30743,7 +30743,7 @@
         <v>386</v>
       </c>
       <c r="B78" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -30767,7 +30767,7 @@
         <v>389</v>
       </c>
       <c r="B81" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -30783,7 +30783,7 @@
         <v>391</v>
       </c>
       <c r="B83" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -30791,7 +30791,7 @@
         <v>392</v>
       </c>
       <c r="B84" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
@@ -30815,7 +30815,7 @@
         <v>395</v>
       </c>
       <c r="B87" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -30823,7 +30823,7 @@
         <v>396</v>
       </c>
       <c r="B88" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -30831,7 +30831,7 @@
         <v>397</v>
       </c>
       <c r="B89" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
@@ -30839,7 +30839,7 @@
         <v>398</v>
       </c>
       <c r="B90" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
@@ -30847,7 +30847,7 @@
         <v>399</v>
       </c>
       <c r="B91" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -30855,7 +30855,7 @@
         <v>400</v>
       </c>
       <c r="B92" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
@@ -30871,7 +30871,7 @@
         <v>402</v>
       </c>
       <c r="B94" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -30879,7 +30879,7 @@
         <v>403</v>
       </c>
       <c r="B95" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -30887,7 +30887,7 @@
         <v>405</v>
       </c>
       <c r="B96" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
@@ -30900,7 +30900,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B98" t="s">
         <v>643</v>
@@ -30908,7 +30908,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B99" t="s">
         <v>644</v>
@@ -30919,7 +30919,7 @@
         <v>407</v>
       </c>
       <c r="B100" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
@@ -30927,7 +30927,7 @@
         <v>408</v>
       </c>
       <c r="B101" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
@@ -30935,7 +30935,7 @@
         <v>409</v>
       </c>
       <c r="B102" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -30943,7 +30943,7 @@
         <v>410</v>
       </c>
       <c r="B103" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
@@ -30951,7 +30951,7 @@
         <v>411</v>
       </c>
       <c r="B104" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -30959,7 +30959,7 @@
         <v>412</v>
       </c>
       <c r="B105" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
@@ -30967,7 +30967,7 @@
         <v>413</v>
       </c>
       <c r="B106" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
@@ -30975,7 +30975,7 @@
         <v>414</v>
       </c>
       <c r="B107" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
@@ -30983,7 +30983,7 @@
         <v>415</v>
       </c>
       <c r="B108" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
@@ -30991,7 +30991,7 @@
         <v>416</v>
       </c>
       <c r="B109" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
@@ -30999,7 +30999,7 @@
         <v>417</v>
       </c>
       <c r="B110" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -31007,7 +31007,7 @@
         <v>418</v>
       </c>
       <c r="B111" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -31015,7 +31015,7 @@
         <v>419</v>
       </c>
       <c r="B112" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -31023,7 +31023,7 @@
         <v>420</v>
       </c>
       <c r="B113" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -31031,7 +31031,7 @@
         <v>421</v>
       </c>
       <c r="B114" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -31039,7 +31039,7 @@
         <v>422</v>
       </c>
       <c r="B115" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -31047,7 +31047,7 @@
         <v>423</v>
       </c>
       <c r="B116" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -31055,7 +31055,7 @@
         <v>424</v>
       </c>
       <c r="B117" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -31063,7 +31063,7 @@
         <v>425</v>
       </c>
       <c r="B118" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
@@ -31071,7 +31071,7 @@
         <v>426</v>
       </c>
       <c r="B119" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -31079,7 +31079,7 @@
         <v>427</v>
       </c>
       <c r="B120" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
@@ -31087,7 +31087,7 @@
         <v>428</v>
       </c>
       <c r="B121" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
@@ -31095,7 +31095,7 @@
         <v>429</v>
       </c>
       <c r="B122" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
@@ -31103,7 +31103,7 @@
         <v>431</v>
       </c>
       <c r="B123" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
@@ -31111,7 +31111,7 @@
         <v>432</v>
       </c>
       <c r="B124" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
@@ -31119,7 +31119,7 @@
         <v>433</v>
       </c>
       <c r="B125" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
@@ -31127,7 +31127,7 @@
         <v>434</v>
       </c>
       <c r="B126" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
@@ -31135,7 +31135,7 @@
         <v>435</v>
       </c>
       <c r="B127" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
@@ -31143,7 +31143,7 @@
         <v>436</v>
       </c>
       <c r="B128" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
@@ -31151,7 +31151,7 @@
         <v>437</v>
       </c>
       <c r="B129" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
@@ -31159,7 +31159,7 @@
         <v>438</v>
       </c>
       <c r="B130" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
@@ -31167,7 +31167,7 @@
         <v>439</v>
       </c>
       <c r="B131" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
@@ -31175,7 +31175,7 @@
         <v>440</v>
       </c>
       <c r="B132" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
@@ -31183,7 +31183,7 @@
         <v>441</v>
       </c>
       <c r="B133" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
@@ -31191,7 +31191,7 @@
         <v>442</v>
       </c>
       <c r="B134" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
@@ -31199,7 +31199,7 @@
         <v>443</v>
       </c>
       <c r="B135" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
@@ -31207,7 +31207,7 @@
         <v>444</v>
       </c>
       <c r="B136" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
@@ -31215,7 +31215,7 @@
         <v>445</v>
       </c>
       <c r="B137" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
@@ -31223,7 +31223,7 @@
         <v>446</v>
       </c>
       <c r="B138" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
@@ -31231,7 +31231,7 @@
         <v>447</v>
       </c>
       <c r="B139" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
@@ -31239,7 +31239,7 @@
         <v>448</v>
       </c>
       <c r="B140" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
@@ -31247,7 +31247,7 @@
         <v>449</v>
       </c>
       <c r="B141" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
@@ -31255,7 +31255,7 @@
         <v>450</v>
       </c>
       <c r="B142" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
@@ -31263,7 +31263,7 @@
         <v>451</v>
       </c>
       <c r="B143" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
@@ -31271,7 +31271,7 @@
         <v>452</v>
       </c>
       <c r="B144" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
@@ -31279,7 +31279,7 @@
         <v>453</v>
       </c>
       <c r="B145" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
@@ -31287,7 +31287,7 @@
         <v>454</v>
       </c>
       <c r="B146" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
@@ -31295,7 +31295,7 @@
         <v>455</v>
       </c>
       <c r="B147" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
@@ -31303,7 +31303,7 @@
         <v>456</v>
       </c>
       <c r="B148" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
@@ -31311,7 +31311,7 @@
         <v>457</v>
       </c>
       <c r="B149" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
@@ -31319,7 +31319,7 @@
         <v>458</v>
       </c>
       <c r="B150" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
@@ -31327,7 +31327,7 @@
         <v>459</v>
       </c>
       <c r="B151" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
@@ -31335,7 +31335,7 @@
         <v>460</v>
       </c>
       <c r="B152" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
@@ -31343,7 +31343,7 @@
         <v>461</v>
       </c>
       <c r="B153" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
@@ -31351,15 +31351,15 @@
         <v>462</v>
       </c>
       <c r="B154" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B155" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
@@ -31367,7 +31367,7 @@
         <v>463</v>
       </c>
       <c r="B156" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
@@ -31375,7 +31375,7 @@
         <v>464</v>
       </c>
       <c r="B157" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
@@ -31383,7 +31383,7 @@
         <v>465</v>
       </c>
       <c r="B158" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
@@ -31391,7 +31391,7 @@
         <v>466</v>
       </c>
       <c r="B159" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
@@ -31399,7 +31399,7 @@
         <v>467</v>
       </c>
       <c r="B160" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
@@ -31407,7 +31407,7 @@
         <v>468</v>
       </c>
       <c r="B161" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
@@ -31415,7 +31415,7 @@
         <v>469</v>
       </c>
       <c r="B162" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
@@ -31423,7 +31423,7 @@
         <v>470</v>
       </c>
       <c r="B163" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
@@ -31431,7 +31431,7 @@
         <v>471</v>
       </c>
       <c r="B164" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
@@ -31439,7 +31439,7 @@
         <v>472</v>
       </c>
       <c r="B165" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
@@ -31447,7 +31447,7 @@
         <v>473</v>
       </c>
       <c r="B166" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
@@ -31455,7 +31455,7 @@
         <v>474</v>
       </c>
       <c r="B167" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
@@ -31463,7 +31463,7 @@
         <v>475</v>
       </c>
       <c r="B168" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
@@ -31471,7 +31471,7 @@
         <v>476</v>
       </c>
       <c r="B169" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
@@ -31479,7 +31479,7 @@
         <v>477</v>
       </c>
       <c r="B170" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
@@ -31487,7 +31487,7 @@
         <v>479</v>
       </c>
       <c r="B171" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
@@ -31495,7 +31495,7 @@
         <v>480</v>
       </c>
       <c r="B172" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
@@ -31503,7 +31503,7 @@
         <v>481</v>
       </c>
       <c r="B173" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
@@ -31511,7 +31511,7 @@
         <v>482</v>
       </c>
       <c r="B174" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
@@ -31519,7 +31519,7 @@
         <v>483</v>
       </c>
       <c r="B175" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
@@ -31527,7 +31527,7 @@
         <v>484</v>
       </c>
       <c r="B176" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
@@ -31535,7 +31535,7 @@
         <v>485</v>
       </c>
       <c r="B177" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
@@ -31543,7 +31543,7 @@
         <v>486</v>
       </c>
       <c r="B178" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
@@ -31551,7 +31551,7 @@
         <v>487</v>
       </c>
       <c r="B179" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
@@ -31559,7 +31559,7 @@
         <v>488</v>
       </c>
       <c r="B180" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
@@ -31567,7 +31567,7 @@
         <v>489</v>
       </c>
       <c r="B181" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
@@ -31575,7 +31575,7 @@
         <v>490</v>
       </c>
       <c r="B182" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
@@ -31583,7 +31583,7 @@
         <v>491</v>
       </c>
       <c r="B183" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
@@ -31591,7 +31591,7 @@
         <v>492</v>
       </c>
       <c r="B184" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
@@ -31599,31 +31599,31 @@
         <v>493</v>
       </c>
       <c r="B185" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B186" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B187" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B188" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
@@ -31631,31 +31631,31 @@
         <v>495</v>
       </c>
       <c r="B189" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B190" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B191" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B192" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
@@ -31663,31 +31663,31 @@
         <v>497</v>
       </c>
       <c r="B193" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B194" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B195" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B196" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
@@ -31695,7 +31695,7 @@
         <v>499</v>
       </c>
       <c r="B197" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
@@ -31703,7 +31703,7 @@
         <v>500</v>
       </c>
       <c r="B198" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
@@ -31711,7 +31711,7 @@
         <v>501</v>
       </c>
       <c r="B199" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
@@ -31719,7 +31719,7 @@
         <v>502</v>
       </c>
       <c r="B200" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
@@ -31735,7 +31735,7 @@
         <v>504</v>
       </c>
       <c r="B202" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.45">
@@ -31903,7 +31903,7 @@
         <v>526</v>
       </c>
       <c r="B223" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.45">
@@ -31935,7 +31935,7 @@
         <v>530</v>
       </c>
       <c r="B227" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.45">
@@ -31991,7 +31991,7 @@
         <v>540</v>
       </c>
       <c r="B234" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.45">
@@ -31999,7 +31999,7 @@
         <v>542</v>
       </c>
       <c r="B235" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.45">
@@ -32007,7 +32007,7 @@
         <v>290</v>
       </c>
       <c r="B236" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.45">
@@ -32039,7 +32039,7 @@
         <v>545</v>
       </c>
       <c r="B240" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.45">
@@ -32047,7 +32047,7 @@
         <v>294</v>
       </c>
       <c r="B241" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.45">
@@ -32055,7 +32055,7 @@
         <v>295</v>
       </c>
       <c r="B242" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.45">
@@ -32063,7 +32063,7 @@
         <v>296</v>
       </c>
       <c r="B243" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.45">
@@ -32071,7 +32071,7 @@
         <v>297</v>
       </c>
       <c r="B244" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.45">
@@ -32087,7 +32087,7 @@
         <v>298</v>
       </c>
       <c r="B246" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.45">
@@ -32095,7 +32095,7 @@
         <v>548</v>
       </c>
       <c r="B247" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.45">
@@ -32103,7 +32103,7 @@
         <v>299</v>
       </c>
       <c r="B248" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.45">
@@ -32111,7 +32111,7 @@
         <v>300</v>
       </c>
       <c r="B249" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.45">
@@ -32119,7 +32119,7 @@
         <v>549</v>
       </c>
       <c r="B250" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.45">
@@ -32127,7 +32127,7 @@
         <v>550</v>
       </c>
       <c r="B251" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.45">
@@ -32135,7 +32135,7 @@
         <v>551</v>
       </c>
       <c r="B252" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.45">
@@ -32143,7 +32143,7 @@
         <v>552</v>
       </c>
       <c r="B253" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.45">
@@ -32151,7 +32151,7 @@
         <v>553</v>
       </c>
       <c r="B254" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.45">
@@ -32159,7 +32159,7 @@
         <v>554</v>
       </c>
       <c r="B255" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.45">
@@ -32196,7 +32196,7 @@
         <v>308</v>
       </c>
       <c r="B1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C1" t="s">
         <v>556</v>
@@ -32207,167 +32207,167 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B2" t="s">
         <v>574</v>
       </c>
       <c r="C2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B3" t="s">
         <v>574</v>
       </c>
       <c r="C3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B4" t="s">
         <v>574</v>
       </c>
       <c r="C4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B5" t="s">
         <v>574</v>
       </c>
       <c r="C5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B6" t="s">
         <v>574</v>
       </c>
       <c r="C6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B7" t="s">
         <v>574</v>
       </c>
       <c r="C7" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D7" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B8" t="s">
         <v>574</v>
       </c>
       <c r="C8" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D8" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B9" t="s">
         <v>574</v>
       </c>
       <c r="C9" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D9" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B10" t="s">
         <v>574</v>
       </c>
       <c r="C10" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D10" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B11" t="s">
         <v>574</v>
       </c>
       <c r="C11" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D11" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B12" t="s">
         <v>574</v>
       </c>
       <c r="C12" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D12" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B13" t="s">
         <v>574</v>
       </c>
       <c r="C13" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D13" t="str">
         <f>C13</f>
@@ -32376,13 +32376,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B14" t="s">
         <v>574</v>
       </c>
       <c r="C14" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D14" t="str">
         <f>C14</f>
@@ -32391,13 +32391,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B15" t="s">
         <v>574</v>
       </c>
       <c r="C15" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D15" t="str">
         <f>C15</f>
@@ -32406,814 +32406,814 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B16" t="s">
         <v>574</v>
       </c>
       <c r="C16" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D16" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B17" t="s">
         <v>574</v>
       </c>
       <c r="C17" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D17" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B18" t="s">
         <v>574</v>
       </c>
       <c r="C18" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D18" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B19" t="s">
         <v>574</v>
       </c>
       <c r="C19" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D19" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B20" t="s">
         <v>574</v>
       </c>
       <c r="C20" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D20" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B21" t="s">
         <v>574</v>
       </c>
       <c r="C21" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D21" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B22" t="s">
         <v>574</v>
       </c>
       <c r="C22" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D22" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B23" t="s">
         <v>574</v>
       </c>
       <c r="C23" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D23" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B24" t="s">
         <v>574</v>
       </c>
       <c r="C24" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D24" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B25" t="s">
         <v>574</v>
       </c>
       <c r="C25" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D25" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B26" t="s">
         <v>574</v>
       </c>
       <c r="C26" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D26" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B27" t="s">
         <v>574</v>
       </c>
       <c r="C27" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D27" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B28" t="s">
         <v>574</v>
       </c>
       <c r="C28" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D28" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B29" t="s">
         <v>574</v>
       </c>
       <c r="C29" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D29" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B30" t="s">
         <v>576</v>
       </c>
       <c r="C30" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D30" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B31" t="s">
         <v>576</v>
       </c>
       <c r="C31" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D31" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B32" t="s">
         <v>576</v>
       </c>
       <c r="C32" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D32" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B33" t="s">
         <v>576</v>
       </c>
       <c r="C33" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D33" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B34" t="s">
         <v>576</v>
       </c>
       <c r="C34" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D34" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B35" t="s">
         <v>576</v>
       </c>
       <c r="C35" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D35" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B36" t="s">
         <v>576</v>
       </c>
       <c r="C36" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D36" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B37" t="s">
         <v>576</v>
       </c>
       <c r="C37" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D37" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B38" t="s">
         <v>576</v>
       </c>
       <c r="C38" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D38" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B39" t="s">
         <v>576</v>
       </c>
       <c r="C39" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D39" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B40" t="s">
         <v>576</v>
       </c>
       <c r="C40" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D40" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B41" t="s">
         <v>576</v>
       </c>
       <c r="C41" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D41" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B42" t="s">
         <v>576</v>
       </c>
       <c r="C42" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D42" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B43" t="s">
         <v>576</v>
       </c>
       <c r="C43" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D43" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B44" t="s">
         <v>576</v>
       </c>
       <c r="C44" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D44" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B45" t="s">
         <v>576</v>
       </c>
       <c r="C45" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D45" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B46" t="s">
         <v>576</v>
       </c>
       <c r="C46" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D46" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B47" t="s">
         <v>576</v>
       </c>
       <c r="C47" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D47" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B48" t="s">
         <v>576</v>
       </c>
       <c r="C48" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D48" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B49" t="s">
         <v>576</v>
       </c>
       <c r="C49" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D49" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B50" t="s">
         <v>576</v>
       </c>
       <c r="C50" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D50" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B51" t="s">
         <v>576</v>
       </c>
       <c r="C51" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D51" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B52" t="s">
         <v>576</v>
       </c>
       <c r="C52" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D52" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B53" t="s">
         <v>576</v>
       </c>
       <c r="C53" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D53" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B54" t="s">
         <v>576</v>
       </c>
       <c r="C54" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D54" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B55" t="s">
         <v>576</v>
       </c>
       <c r="C55" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D55" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B56" t="s">
         <v>576</v>
       </c>
       <c r="C56" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D56" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B57" t="s">
         <v>576</v>
       </c>
       <c r="C57" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D57" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B58" t="s">
         <v>576</v>
       </c>
       <c r="C58" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D58" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B59" t="s">
         <v>576</v>
       </c>
       <c r="C59" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D59" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B60" t="s">
         <v>576</v>
       </c>
       <c r="C60" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D60" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B61" t="s">
         <v>576</v>
       </c>
       <c r="C61" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D61" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B62" t="s">
         <v>576</v>
       </c>
       <c r="C62" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D62" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B63" t="s">
         <v>576</v>
       </c>
       <c r="C63" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D63" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B64" t="s">
         <v>576</v>
       </c>
       <c r="C64" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D64" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B65" t="s">
         <v>576</v>
       </c>
       <c r="C65" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D65" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B66" t="s">
         <v>576</v>
       </c>
       <c r="C66" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D66" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B67" t="s">
         <v>576</v>
       </c>
       <c r="C67" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D67" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B68" t="s">
         <v>576</v>
       </c>
       <c r="C68" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D68" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B69" t="s">
         <v>576</v>
       </c>
       <c r="C69" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D69" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B70" t="s">
         <v>576</v>
       </c>
       <c r="C70" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D70" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B71" t="s">
         <v>576</v>
       </c>
       <c r="C71" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D71" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B72" t="s">
         <v>576</v>
       </c>
       <c r="C72" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D72" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B73" t="s">
         <v>576</v>
       </c>
       <c r="C73" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D73" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
   </sheetData>
@@ -33246,10 +33246,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B2" t="s">
         <v>921</v>
-      </c>
-      <c r="B2" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -33302,26 +33302,26 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B11" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -33366,7 +33366,7 @@
         <v>333</v>
       </c>
       <c r="B17" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -33374,7 +33374,7 @@
         <v>334</v>
       </c>
       <c r="B18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -33382,7 +33382,7 @@
         <v>335</v>
       </c>
       <c r="B19" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -33390,7 +33390,7 @@
         <v>337</v>
       </c>
       <c r="B20" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -33398,7 +33398,7 @@
         <v>339</v>
       </c>
       <c r="B21" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -33406,7 +33406,7 @@
         <v>341</v>
       </c>
       <c r="B22" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -33414,7 +33414,7 @@
         <v>343</v>
       </c>
       <c r="B23" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -33422,7 +33422,7 @@
         <v>345</v>
       </c>
       <c r="B24" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -33430,7 +33430,7 @@
         <v>347</v>
       </c>
       <c r="B25" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -33438,7 +33438,7 @@
         <v>348</v>
       </c>
       <c r="B26" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -33446,15 +33446,15 @@
         <v>349</v>
       </c>
       <c r="B27" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
+        <v>935</v>
+      </c>
+      <c r="B28" t="s">
         <v>936</v>
-      </c>
-      <c r="B28" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -33526,7 +33526,7 @@
         <v>385</v>
       </c>
       <c r="B37" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -33534,7 +33534,7 @@
         <v>386</v>
       </c>
       <c r="B38" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -33558,7 +33558,7 @@
         <v>389</v>
       </c>
       <c r="B41" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -33574,7 +33574,7 @@
         <v>391</v>
       </c>
       <c r="B43" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -33582,7 +33582,7 @@
         <v>392</v>
       </c>
       <c r="B44" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -33606,7 +33606,7 @@
         <v>395</v>
       </c>
       <c r="B47" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -33614,7 +33614,7 @@
         <v>396</v>
       </c>
       <c r="B48" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -33622,7 +33622,7 @@
         <v>397</v>
       </c>
       <c r="B49" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -33630,7 +33630,7 @@
         <v>398</v>
       </c>
       <c r="B50" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -33638,7 +33638,7 @@
         <v>399</v>
       </c>
       <c r="B51" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -33646,7 +33646,7 @@
         <v>400</v>
       </c>
       <c r="B52" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -33662,7 +33662,7 @@
         <v>402</v>
       </c>
       <c r="B54" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -33670,7 +33670,7 @@
         <v>403</v>
       </c>
       <c r="B55" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -33678,7 +33678,7 @@
         <v>405</v>
       </c>
       <c r="B56" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -33691,7 +33691,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B58" t="s">
         <v>643</v>
@@ -33699,7 +33699,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B59" t="s">
         <v>644</v>
@@ -33710,7 +33710,7 @@
         <v>407</v>
       </c>
       <c r="B60" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -33718,7 +33718,7 @@
         <v>408</v>
       </c>
       <c r="B61" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -33726,7 +33726,7 @@
         <v>409</v>
       </c>
       <c r="B62" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -33734,7 +33734,7 @@
         <v>410</v>
       </c>
       <c r="B63" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -33742,7 +33742,7 @@
         <v>411</v>
       </c>
       <c r="B64" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -33750,7 +33750,7 @@
         <v>412</v>
       </c>
       <c r="B65" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -33758,7 +33758,7 @@
         <v>413</v>
       </c>
       <c r="B66" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -33766,7 +33766,7 @@
         <v>414</v>
       </c>
       <c r="B67" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -33774,7 +33774,7 @@
         <v>415</v>
       </c>
       <c r="B68" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -33782,7 +33782,7 @@
         <v>416</v>
       </c>
       <c r="B69" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
@@ -33790,7 +33790,7 @@
         <v>417</v>
       </c>
       <c r="B70" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
@@ -33798,7 +33798,7 @@
         <v>418</v>
       </c>
       <c r="B71" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
@@ -33806,7 +33806,7 @@
         <v>419</v>
       </c>
       <c r="B72" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -33814,7 +33814,7 @@
         <v>420</v>
       </c>
       <c r="B73" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
@@ -33822,7 +33822,7 @@
         <v>421</v>
       </c>
       <c r="B74" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
@@ -33830,7 +33830,7 @@
         <v>422</v>
       </c>
       <c r="B75" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
@@ -33838,7 +33838,7 @@
         <v>423</v>
       </c>
       <c r="B76" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
@@ -33854,7 +33854,7 @@
         <v>425</v>
       </c>
       <c r="B78" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -33862,7 +33862,7 @@
         <v>426</v>
       </c>
       <c r="B79" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
@@ -33870,7 +33870,7 @@
         <v>427</v>
       </c>
       <c r="B80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
@@ -33878,7 +33878,7 @@
         <v>428</v>
       </c>
       <c r="B81" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -33886,7 +33886,7 @@
         <v>431</v>
       </c>
       <c r="B82" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
@@ -33894,7 +33894,7 @@
         <v>432</v>
       </c>
       <c r="B83" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -33902,7 +33902,7 @@
         <v>433</v>
       </c>
       <c r="B84" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
@@ -33910,7 +33910,7 @@
         <v>434</v>
       </c>
       <c r="B85" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
@@ -33918,7 +33918,7 @@
         <v>435</v>
       </c>
       <c r="B86" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
@@ -33926,7 +33926,7 @@
         <v>436</v>
       </c>
       <c r="B87" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -33934,7 +33934,7 @@
         <v>437</v>
       </c>
       <c r="B88" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -33942,7 +33942,7 @@
         <v>438</v>
       </c>
       <c r="B89" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
@@ -33950,7 +33950,7 @@
         <v>439</v>
       </c>
       <c r="B90" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
@@ -33958,7 +33958,7 @@
         <v>440</v>
       </c>
       <c r="B91" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -33966,7 +33966,7 @@
         <v>441</v>
       </c>
       <c r="B92" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
@@ -33974,7 +33974,7 @@
         <v>442</v>
       </c>
       <c r="B93" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
@@ -33982,7 +33982,7 @@
         <v>443</v>
       </c>
       <c r="B94" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -33990,7 +33990,7 @@
         <v>444</v>
       </c>
       <c r="B95" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -33998,7 +33998,7 @@
         <v>445</v>
       </c>
       <c r="B96" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
@@ -34006,7 +34006,7 @@
         <v>446</v>
       </c>
       <c r="B97" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
@@ -34014,7 +34014,7 @@
         <v>447</v>
       </c>
       <c r="B98" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
@@ -34022,7 +34022,7 @@
         <v>448</v>
       </c>
       <c r="B99" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
@@ -34030,7 +34030,7 @@
         <v>449</v>
       </c>
       <c r="B100" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
@@ -34038,7 +34038,7 @@
         <v>451</v>
       </c>
       <c r="B101" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
@@ -34046,7 +34046,7 @@
         <v>452</v>
       </c>
       <c r="B102" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -34054,7 +34054,7 @@
         <v>455</v>
       </c>
       <c r="B103" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
@@ -34062,7 +34062,7 @@
         <v>456</v>
       </c>
       <c r="B104" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -34070,7 +34070,7 @@
         <v>457</v>
       </c>
       <c r="B105" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
@@ -34078,7 +34078,7 @@
         <v>459</v>
       </c>
       <c r="B106" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
@@ -34086,7 +34086,7 @@
         <v>460</v>
       </c>
       <c r="B107" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
@@ -34094,7 +34094,7 @@
         <v>461</v>
       </c>
       <c r="B108" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
@@ -34102,7 +34102,7 @@
         <v>462</v>
       </c>
       <c r="B109" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
@@ -34110,7 +34110,7 @@
         <v>210</v>
       </c>
       <c r="B110" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -34118,7 +34118,7 @@
         <v>463</v>
       </c>
       <c r="B111" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -34126,7 +34126,7 @@
         <v>464</v>
       </c>
       <c r="B112" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -34134,7 +34134,7 @@
         <v>465</v>
       </c>
       <c r="B113" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -34142,7 +34142,7 @@
         <v>466</v>
       </c>
       <c r="B114" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -34150,7 +34150,7 @@
         <v>211</v>
       </c>
       <c r="B115" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -34158,7 +34158,7 @@
         <v>467</v>
       </c>
       <c r="B116" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -34166,7 +34166,7 @@
         <v>468</v>
       </c>
       <c r="B117" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -34174,7 +34174,7 @@
         <v>469</v>
       </c>
       <c r="B118" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
@@ -34182,7 +34182,7 @@
         <v>470</v>
       </c>
       <c r="B119" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -34190,7 +34190,7 @@
         <v>471</v>
       </c>
       <c r="B120" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
@@ -34198,7 +34198,7 @@
         <v>472</v>
       </c>
       <c r="B121" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
@@ -34206,7 +34206,7 @@
         <v>473</v>
       </c>
       <c r="B122" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
@@ -34214,7 +34214,7 @@
         <v>474</v>
       </c>
       <c r="B123" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
@@ -34222,7 +34222,7 @@
         <v>475</v>
       </c>
       <c r="B124" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
@@ -34230,7 +34230,7 @@
         <v>476</v>
       </c>
       <c r="B125" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
@@ -34238,7 +34238,7 @@
         <v>477</v>
       </c>
       <c r="B126" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
@@ -34246,7 +34246,7 @@
         <v>478</v>
       </c>
       <c r="B127" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
@@ -34254,23 +34254,23 @@
         <v>479</v>
       </c>
       <c r="B128" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
+        <v>860</v>
+      </c>
+      <c r="B129" t="s">
         <v>861</v>
-      </c>
-      <c r="B129" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
+        <v>862</v>
+      </c>
+      <c r="B130" t="s">
         <v>863</v>
-      </c>
-      <c r="B130" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
@@ -34278,7 +34278,7 @@
         <v>480</v>
       </c>
       <c r="B131" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
@@ -34286,7 +34286,7 @@
         <v>481</v>
       </c>
       <c r="B132" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
@@ -34294,7 +34294,7 @@
         <v>482</v>
       </c>
       <c r="B133" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
@@ -34302,7 +34302,7 @@
         <v>483</v>
       </c>
       <c r="B134" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
@@ -34310,7 +34310,7 @@
         <v>484</v>
       </c>
       <c r="B135" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
@@ -34318,7 +34318,7 @@
         <v>485</v>
       </c>
       <c r="B136" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
@@ -34326,7 +34326,7 @@
         <v>486</v>
       </c>
       <c r="B137" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
@@ -34334,7 +34334,7 @@
         <v>487</v>
       </c>
       <c r="B138" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
@@ -34342,7 +34342,7 @@
         <v>488</v>
       </c>
       <c r="B139" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
@@ -34350,7 +34350,7 @@
         <v>489</v>
       </c>
       <c r="B140" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
@@ -34358,7 +34358,7 @@
         <v>490</v>
       </c>
       <c r="B141" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
@@ -34366,7 +34366,7 @@
         <v>491</v>
       </c>
       <c r="B142" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
@@ -34374,7 +34374,7 @@
         <v>492</v>
       </c>
       <c r="B143" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
@@ -34382,31 +34382,31 @@
         <v>493</v>
       </c>
       <c r="B144" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B145" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B146" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B147" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
@@ -34414,31 +34414,31 @@
         <v>495</v>
       </c>
       <c r="B148" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B149" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B150" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B151" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
@@ -34446,31 +34446,31 @@
         <v>497</v>
       </c>
       <c r="B152" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B153" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B154" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B155" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
@@ -34478,7 +34478,7 @@
         <v>499</v>
       </c>
       <c r="B156" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
@@ -34486,7 +34486,7 @@
         <v>500</v>
       </c>
       <c r="B157" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
@@ -34502,7 +34502,7 @@
         <v>216</v>
       </c>
       <c r="B159" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
@@ -34510,7 +34510,7 @@
         <v>504</v>
       </c>
       <c r="B160" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
@@ -34686,7 +34686,7 @@
         <v>273</v>
       </c>
       <c r="B182" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
@@ -34694,7 +34694,7 @@
         <v>280</v>
       </c>
       <c r="B183" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
@@ -34702,7 +34702,7 @@
         <v>281</v>
       </c>
       <c r="B184" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
@@ -34710,7 +34710,7 @@
         <v>282</v>
       </c>
       <c r="B185" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
@@ -34718,15 +34718,15 @@
         <v>283</v>
       </c>
       <c r="B186" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
+        <v>881</v>
+      </c>
+      <c r="B187" t="s">
         <v>882</v>
-      </c>
-      <c r="B187" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
@@ -34734,7 +34734,7 @@
         <v>284</v>
       </c>
       <c r="B188" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
@@ -34742,7 +34742,7 @@
         <v>526</v>
       </c>
       <c r="B189" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
@@ -34782,7 +34782,7 @@
         <v>530</v>
       </c>
       <c r="B194" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
@@ -34819,10 +34819,10 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B199" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
@@ -34835,10 +34835,10 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B201" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.45">
@@ -34867,10 +34867,10 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B205" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
@@ -34878,7 +34878,7 @@
         <v>540</v>
       </c>
       <c r="B206" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
@@ -34891,7 +34891,7 @@
         <v>542</v>
       </c>
       <c r="B208" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.45">
@@ -34907,7 +34907,7 @@
         <v>290</v>
       </c>
       <c r="B210" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.45">
@@ -34939,7 +34939,7 @@
         <v>545</v>
       </c>
       <c r="B214" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.45">
@@ -34947,7 +34947,7 @@
         <v>294</v>
       </c>
       <c r="B215" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.45">
@@ -34955,7 +34955,7 @@
         <v>295</v>
       </c>
       <c r="B216" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.45">
@@ -34963,7 +34963,7 @@
         <v>296</v>
       </c>
       <c r="B217" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.45">
@@ -34979,7 +34979,7 @@
         <v>298</v>
       </c>
       <c r="B219" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.45">
@@ -34987,7 +34987,7 @@
         <v>548</v>
       </c>
       <c r="B220" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.45">
@@ -34995,7 +34995,7 @@
         <v>299</v>
       </c>
       <c r="B221" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.45">
@@ -35003,7 +35003,7 @@
         <v>300</v>
       </c>
       <c r="B222" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.45">
@@ -35034,199 +35034,199 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B4" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B7" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B8" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B9" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B10" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B11" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B12" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B13" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B14" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B15" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B16" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B17" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B18" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B20" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B21" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B22" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B23" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B24" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -35234,530 +35234,530 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B26" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B27" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B28" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B29" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B30" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B31" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B32" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B33" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B34" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B35" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B36" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B37" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B38" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B39" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B40" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B41" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B42" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B43" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B44" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B45" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B46" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B47" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B48" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B49" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B50" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B51" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B52" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B53" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B54" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B55" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B56" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B57" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B58" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B59" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B60" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B61" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B62" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B63" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B64" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B65" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B66" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B67" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B68" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B69" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B70" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B71" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B72" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B73" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B74" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B75" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B76" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B77" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B78" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B79" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B80" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B81" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B82" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B83" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B84" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B85" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B86" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B87" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B88" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B89" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B90" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B91" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -35765,102 +35765,102 @@
         <v>229</v>
       </c>
       <c r="B92" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
   </sheetData>

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10503B3B-2141-4587-962C-B0C15C889A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8496B933-BAC2-437B-BE5A-F102D87B54D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="487" windowWidth="15195" windowHeight="15450" activeTab="2" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="9225" yWindow="487" windowWidth="15195" windowHeight="15450" activeTab="3" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="1401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="1403">
   <si>
     <t>vars</t>
   </si>
@@ -4248,6 +4248,12 @@
   </si>
   <si>
     <t>part_visit_outdoor_event_over_100_int</t>
+  </si>
+  <si>
+    <t>part_attend_work_yesterday</t>
+  </si>
+  <si>
+    <t>part_attend_school_yesterday</t>
   </si>
 </sst>
 </file>
@@ -26749,8 +26755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1C5985-D720-4533-B6F5-A2816F80F2F5}">
   <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="B238" sqref="B238"/>
+    <sheetView topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="A309" sqref="A309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -29228,7 +29234,7 @@
         <v>451</v>
       </c>
       <c r="B309" t="s">
-        <v>835</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.45">
@@ -30116,8 +30122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6804872F-908E-4576-8C9F-D057085582A0}">
   <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -30967,7 +30973,7 @@
         <v>413</v>
       </c>
       <c r="B106" t="s">
-        <v>954</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
@@ -31263,7 +31269,7 @@
         <v>451</v>
       </c>
       <c r="B143" t="s">
-        <v>835</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8496B933-BAC2-437B-BE5A-F102D87B54D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8247CBC2-C618-43EB-BCE0-6796B898AB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="487" windowWidth="15195" windowHeight="15450" activeTab="3" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="1403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="1404">
   <si>
     <t>vars</t>
   </si>
@@ -2483,9 +2483,6 @@
     <t>part_face_mask_cycling_old</t>
   </si>
   <si>
-    <t>part_face_mask_public_transport _old</t>
-  </si>
-  <si>
     <t>part_face_mask_supermarkets_old</t>
   </si>
   <si>
@@ -4254,6 +4251,12 @@
   </si>
   <si>
     <t>part_attend_school_yesterday</t>
+  </si>
+  <si>
+    <t>North &amp; Yorkshire</t>
+  </si>
+  <si>
+    <t>part_face_mask_public_transport_old</t>
   </si>
 </sst>
 </file>
@@ -4621,12 +4624,12 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
   </sheetData>
@@ -9475,7 +9478,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -11549,7 +11552,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -11583,7 +11586,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -11685,7 +11688,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -11719,7 +11722,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -11753,7 +11756,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -11787,7 +11790,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -11821,7 +11824,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -11855,7 +11858,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -11889,7 +11892,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -11923,7 +11926,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -11957,7 +11960,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -11991,7 +11994,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -12059,7 +12062,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -12093,7 +12096,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -12127,7 +12130,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -12161,7 +12164,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -12195,7 +12198,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -12229,7 +12232,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -12467,7 +12470,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -12501,7 +12504,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -12535,7 +12538,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -12569,7 +12572,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -12875,7 +12878,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -12977,7 +12980,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -13725,7 +13728,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -14303,7 +14306,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -15629,7 +15632,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -15663,7 +15666,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -16173,7 +16176,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C340">
         <v>1</v>
@@ -16241,7 +16244,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C342">
         <v>1</v>
@@ -16275,7 +16278,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -16309,7 +16312,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -16343,7 +16346,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -16377,7 +16380,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -16411,7 +16414,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -16445,7 +16448,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -16479,7 +16482,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C349">
         <v>1</v>
@@ -16513,7 +16516,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -16921,7 +16924,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C362">
         <v>1</v>
@@ -16955,7 +16958,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -16989,7 +16992,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -17023,7 +17026,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -17057,7 +17060,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C366">
         <v>1</v>
@@ -17091,7 +17094,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -17125,7 +17128,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C368">
         <v>1</v>
@@ -17159,7 +17162,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C369">
         <v>1</v>
@@ -17193,7 +17196,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C370">
         <v>1</v>
@@ -17227,7 +17230,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C371">
         <v>1</v>
@@ -17261,7 +17264,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -17295,7 +17298,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C373">
         <v>1</v>
@@ -17329,7 +17332,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -17363,7 +17366,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -17397,7 +17400,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C376">
         <v>1</v>
@@ -17431,7 +17434,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -17465,7 +17468,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -17499,7 +17502,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C379">
         <v>1</v>
@@ -17533,7 +17536,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C380">
         <v>1</v>
@@ -17567,7 +17570,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -17601,7 +17604,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -17635,7 +17638,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -17669,7 +17672,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -17703,7 +17706,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -17907,7 +17910,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -18995,7 +18998,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -19029,7 +19032,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C424">
         <v>1</v>
@@ -19063,7 +19066,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -19097,7 +19100,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C426">
         <v>1</v>
@@ -19131,7 +19134,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -19165,7 +19168,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -19199,7 +19202,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -19233,7 +19236,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -19845,7 +19848,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C448">
         <v>1</v>
@@ -20661,7 +20664,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C472">
         <v>1</v>
@@ -20695,7 +20698,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C473">
         <v>1</v>
@@ -20729,7 +20732,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C474">
         <v>1</v>
@@ -20763,7 +20766,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C475">
         <v>1</v>
@@ -20797,7 +20800,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C476">
         <v>1</v>
@@ -20831,7 +20834,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C477">
         <v>1</v>
@@ -20865,7 +20868,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C478">
         <v>1</v>
@@ -20899,7 +20902,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C479">
         <v>1</v>
@@ -20933,7 +20936,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C480">
         <v>1</v>
@@ -20967,7 +20970,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C481">
         <v>1</v>
@@ -21001,7 +21004,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -21035,7 +21038,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C483">
         <v>1</v>
@@ -21069,7 +21072,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C484">
         <v>1</v>
@@ -21103,7 +21106,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C485">
         <v>1</v>
@@ -21137,7 +21140,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C486">
         <v>1</v>
@@ -21171,7 +21174,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C487">
         <v>1</v>
@@ -21205,7 +21208,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C488">
         <v>1</v>
@@ -21239,7 +21242,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C489">
         <v>1</v>
@@ -26755,8 +26758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1C5985-D720-4533-B6F5-A2816F80F2F5}">
   <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="A309" sqref="A309"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="B287" sqref="B287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26778,7 +26781,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -26794,7 +26797,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -26810,7 +26813,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -26826,7 +26829,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -26834,7 +26837,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -26842,7 +26845,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -26850,7 +26853,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -26858,7 +26861,7 @@
         <v>307</v>
       </c>
       <c r="B12" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -26930,7 +26933,7 @@
         <v>315</v>
       </c>
       <c r="B21" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -26946,7 +26949,7 @@
         <v>318</v>
       </c>
       <c r="B23" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -26962,7 +26965,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -26994,7 +26997,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -27002,7 +27005,7 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -27018,7 +27021,7 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -27042,7 +27045,7 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -27050,7 +27053,7 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -27090,7 +27093,7 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -27098,7 +27101,7 @@
         <v>332</v>
       </c>
       <c r="B42" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -27114,7 +27117,7 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -27122,7 +27125,7 @@
         <v>380</v>
       </c>
       <c r="B45" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -27130,7 +27133,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -27146,7 +27149,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -27154,7 +27157,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -27162,7 +27165,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -27170,7 +27173,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -27178,7 +27181,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -27186,7 +27189,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -27194,7 +27197,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -27202,7 +27205,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -27210,7 +27213,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -27218,7 +27221,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -27226,7 +27229,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -27234,7 +27237,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -27242,7 +27245,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -27250,7 +27253,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -27258,7 +27261,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -27266,7 +27269,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -27274,7 +27277,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -27335,10 +27338,10 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B72" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -27402,7 +27405,7 @@
         <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
@@ -27410,7 +27413,7 @@
         <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -27642,7 +27645,7 @@
         <v>402</v>
       </c>
       <c r="B110" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -27650,7 +27653,7 @@
         <v>102</v>
       </c>
       <c r="B111" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -27658,7 +27661,7 @@
         <v>103</v>
       </c>
       <c r="B112" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -27671,7 +27674,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B114" t="s">
         <v>643</v>
@@ -27679,7 +27682,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B115" t="s">
         <v>644</v>
@@ -27690,7 +27693,7 @@
         <v>104</v>
       </c>
       <c r="B116" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -27703,7 +27706,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B118" t="s">
         <v>646</v>
@@ -27711,7 +27714,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B119" t="s">
         <v>647</v>
@@ -27719,7 +27722,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B120" t="s">
         <v>648</v>
@@ -27727,7 +27730,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B121" t="s">
         <v>649</v>
@@ -27735,7 +27738,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B122" t="s">
         <v>650</v>
@@ -27743,7 +27746,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B123" t="s">
         <v>651</v>
@@ -27751,7 +27754,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B124" t="s">
         <v>652</v>
@@ -27759,7 +27762,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B125" t="s">
         <v>653</v>
@@ -27767,7 +27770,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B126" t="s">
         <v>654</v>
@@ -27775,7 +27778,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B127" t="s">
         <v>655</v>
@@ -27791,7 +27794,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B129" t="s">
         <v>657</v>
@@ -27799,7 +27802,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B130" t="s">
         <v>658</v>
@@ -27807,7 +27810,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B131" t="s">
         <v>659</v>
@@ -27815,7 +27818,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B132" t="s">
         <v>660</v>
@@ -27823,7 +27826,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B133" t="s">
         <v>661</v>
@@ -27831,7 +27834,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B134" t="s">
         <v>662</v>
@@ -27887,7 +27890,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B141" t="s">
         <v>664</v>
@@ -27895,7 +27898,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B142" t="s">
         <v>665</v>
@@ -27903,7 +27906,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B143" t="s">
         <v>666</v>
@@ -27911,7 +27914,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B144" t="s">
         <v>667</v>
@@ -27922,7 +27925,7 @@
         <v>407</v>
       </c>
       <c r="B145" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
@@ -27959,10 +27962,10 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B150" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
@@ -27983,10 +27986,10 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B153" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
@@ -28111,7 +28114,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B169" t="s">
         <v>706</v>
@@ -28650,84 +28653,84 @@
         <v>192</v>
       </c>
       <c r="B236" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B237" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B238" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B239" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B240" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B241" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B242" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B243" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B244" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B245" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B246" t="s">
         <v>774</v>
@@ -28735,7 +28738,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B247" t="s">
         <v>775</v>
@@ -28743,7 +28746,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B248" t="s">
         <v>776</v>
@@ -28751,7 +28754,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B249" t="s">
         <v>777</v>
@@ -28759,7 +28762,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B250" t="s">
         <v>778</v>
@@ -28767,7 +28770,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B251" t="s">
         <v>779</v>
@@ -28775,7 +28778,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B252" t="s">
         <v>780</v>
@@ -28783,7 +28786,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B253" t="s">
         <v>781</v>
@@ -28791,7 +28794,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B254" t="s">
         <v>782</v>
@@ -28799,7 +28802,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B255" t="s">
         <v>783</v>
@@ -28807,7 +28810,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B256" t="s">
         <v>784</v>
@@ -28815,7 +28818,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B257" t="s">
         <v>785</v>
@@ -28823,7 +28826,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B258" t="s">
         <v>786</v>
@@ -28831,7 +28834,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B259" t="s">
         <v>787</v>
@@ -28839,7 +28842,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B260" t="s">
         <v>788</v>
@@ -28847,7 +28850,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B261" t="s">
         <v>789</v>
@@ -28855,7 +28858,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B262" t="s">
         <v>790</v>
@@ -28863,7 +28866,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B263" t="s">
         <v>791</v>
@@ -28871,23 +28874,23 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B264" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B265" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B266" t="s">
         <v>792</v>
@@ -28895,7 +28898,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B267" t="s">
         <v>793</v>
@@ -28903,7 +28906,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B268" t="s">
         <v>794</v>
@@ -28911,7 +28914,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B269" t="s">
         <v>795</v>
@@ -28943,7 +28946,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B273" t="s">
         <v>799</v>
@@ -29050,7 +29053,7 @@
         <v>197</v>
       </c>
       <c r="B286" t="s">
-        <v>812</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.45">
@@ -29058,7 +29061,7 @@
         <v>198</v>
       </c>
       <c r="B287" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.45">
@@ -29066,7 +29069,7 @@
         <v>199</v>
       </c>
       <c r="B288" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.45">
@@ -29074,7 +29077,7 @@
         <v>200</v>
       </c>
       <c r="B289" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.45">
@@ -29082,7 +29085,7 @@
         <v>201</v>
       </c>
       <c r="B290" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.45">
@@ -29090,7 +29093,7 @@
         <v>202</v>
       </c>
       <c r="B291" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.45">
@@ -29098,7 +29101,7 @@
         <v>203</v>
       </c>
       <c r="B292" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.45">
@@ -29106,7 +29109,7 @@
         <v>443</v>
       </c>
       <c r="B293" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.45">
@@ -29114,7 +29117,7 @@
         <v>204</v>
       </c>
       <c r="B294" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.45">
@@ -29122,7 +29125,7 @@
         <v>205</v>
       </c>
       <c r="B295" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.45">
@@ -29130,7 +29133,7 @@
         <v>444</v>
       </c>
       <c r="B296" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.45">
@@ -29138,7 +29141,7 @@
         <v>445</v>
       </c>
       <c r="B297" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.45">
@@ -29146,7 +29149,7 @@
         <v>446</v>
       </c>
       <c r="B298" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.45">
@@ -29154,7 +29157,7 @@
         <v>447</v>
       </c>
       <c r="B299" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.45">
@@ -29162,71 +29165,71 @@
         <v>448</v>
       </c>
       <c r="B300" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B301" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B302" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B303" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B304" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B305" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B306" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B307" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B308" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.45">
@@ -29234,7 +29237,7 @@
         <v>451</v>
       </c>
       <c r="B309" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.45">
@@ -29242,7 +29245,7 @@
         <v>452</v>
       </c>
       <c r="B310" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.45">
@@ -29250,7 +29253,7 @@
         <v>207</v>
       </c>
       <c r="B311" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.45">
@@ -29258,7 +29261,7 @@
         <v>208</v>
       </c>
       <c r="B312" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.45">
@@ -29266,7 +29269,7 @@
         <v>455</v>
       </c>
       <c r="B313" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.45">
@@ -29274,7 +29277,7 @@
         <v>456</v>
       </c>
       <c r="B314" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.45">
@@ -29282,7 +29285,7 @@
         <v>457</v>
       </c>
       <c r="B315" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.45">
@@ -29290,7 +29293,7 @@
         <v>459</v>
       </c>
       <c r="B316" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.45">
@@ -29298,7 +29301,7 @@
         <v>460</v>
       </c>
       <c r="B317" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.45">
@@ -29306,7 +29309,7 @@
         <v>461</v>
       </c>
       <c r="B318" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.45">
@@ -29314,7 +29317,7 @@
         <v>462</v>
       </c>
       <c r="B319" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.45">
@@ -29322,15 +29325,15 @@
         <v>210</v>
       </c>
       <c r="B320" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B321" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.45">
@@ -29338,7 +29341,7 @@
         <v>463</v>
       </c>
       <c r="B322" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.45">
@@ -29346,7 +29349,7 @@
         <v>464</v>
       </c>
       <c r="B323" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.45">
@@ -29354,7 +29357,7 @@
         <v>465</v>
       </c>
       <c r="B324" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.45">
@@ -29362,7 +29365,7 @@
         <v>466</v>
       </c>
       <c r="B325" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.45">
@@ -29370,7 +29373,7 @@
         <v>211</v>
       </c>
       <c r="B326" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.45">
@@ -29378,7 +29381,7 @@
         <v>467</v>
       </c>
       <c r="B327" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.45">
@@ -29386,7 +29389,7 @@
         <v>468</v>
       </c>
       <c r="B328" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.45">
@@ -29394,7 +29397,7 @@
         <v>470</v>
       </c>
       <c r="B329" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.45">
@@ -29402,7 +29405,7 @@
         <v>471</v>
       </c>
       <c r="B330" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.45">
@@ -29410,7 +29413,7 @@
         <v>472</v>
       </c>
       <c r="B331" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.45">
@@ -29418,7 +29421,7 @@
         <v>473</v>
       </c>
       <c r="B332" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.45">
@@ -29426,7 +29429,7 @@
         <v>474</v>
       </c>
       <c r="B333" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.45">
@@ -29434,7 +29437,7 @@
         <v>475</v>
       </c>
       <c r="B334" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.45">
@@ -29442,7 +29445,7 @@
         <v>476</v>
       </c>
       <c r="B335" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.45">
@@ -29450,7 +29453,7 @@
         <v>477</v>
       </c>
       <c r="B336" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.45">
@@ -29458,7 +29461,7 @@
         <v>212</v>
       </c>
       <c r="B337" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.45">
@@ -29466,7 +29469,7 @@
         <v>213</v>
       </c>
       <c r="B338" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.45">
@@ -29474,7 +29477,7 @@
         <v>480</v>
       </c>
       <c r="B339" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.45">
@@ -29482,7 +29485,7 @@
         <v>481</v>
       </c>
       <c r="B340" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.45">
@@ -29490,151 +29493,151 @@
         <v>483</v>
       </c>
       <c r="B341" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
+        <v>882</v>
+      </c>
+      <c r="B342" t="s">
         <v>883</v>
-      </c>
-      <c r="B342" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
+        <v>884</v>
+      </c>
+      <c r="B343" t="s">
         <v>885</v>
-      </c>
-      <c r="B343" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
+        <v>886</v>
+      </c>
+      <c r="B344" t="s">
         <v>887</v>
-      </c>
-      <c r="B344" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
+        <v>888</v>
+      </c>
+      <c r="B345" t="s">
         <v>889</v>
-      </c>
-      <c r="B345" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
+        <v>890</v>
+      </c>
+      <c r="B346" t="s">
         <v>891</v>
-      </c>
-      <c r="B346" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
+        <v>892</v>
+      </c>
+      <c r="B347" t="s">
         <v>893</v>
-      </c>
-      <c r="B347" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
+        <v>894</v>
+      </c>
+      <c r="B348" t="s">
         <v>895</v>
-      </c>
-      <c r="B348" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
+        <v>896</v>
+      </c>
+      <c r="B349" t="s">
         <v>897</v>
-      </c>
-      <c r="B349" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
+        <v>898</v>
+      </c>
+      <c r="B350" t="s">
         <v>899</v>
-      </c>
-      <c r="B350" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
+        <v>900</v>
+      </c>
+      <c r="B351" t="s">
         <v>901</v>
-      </c>
-      <c r="B351" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
+        <v>902</v>
+      </c>
+      <c r="B352" t="s">
         <v>903</v>
-      </c>
-      <c r="B352" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
+        <v>904</v>
+      </c>
+      <c r="B353" t="s">
         <v>905</v>
-      </c>
-      <c r="B353" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
+        <v>906</v>
+      </c>
+      <c r="B354" t="s">
         <v>907</v>
-      </c>
-      <c r="B354" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
+        <v>908</v>
+      </c>
+      <c r="B355" t="s">
         <v>909</v>
-      </c>
-      <c r="B355" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
+        <v>910</v>
+      </c>
+      <c r="B356" t="s">
         <v>911</v>
-      </c>
-      <c r="B356" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
+        <v>912</v>
+      </c>
+      <c r="B357" t="s">
         <v>913</v>
-      </c>
-      <c r="B357" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
+        <v>914</v>
+      </c>
+      <c r="B358" t="s">
         <v>915</v>
-      </c>
-      <c r="B358" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
+        <v>916</v>
+      </c>
+      <c r="B359" t="s">
         <v>917</v>
-      </c>
-      <c r="B359" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.45">
@@ -29650,7 +29653,7 @@
         <v>214</v>
       </c>
       <c r="B361" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.45">
@@ -29658,7 +29661,7 @@
         <v>216</v>
       </c>
       <c r="B362" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.45">
@@ -29666,7 +29669,7 @@
         <v>217</v>
       </c>
       <c r="B363" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.45">
@@ -29674,7 +29677,7 @@
         <v>219</v>
       </c>
       <c r="B364" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.45">
@@ -29850,7 +29853,7 @@
         <v>270</v>
       </c>
       <c r="B386" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.45">
@@ -29858,7 +29861,7 @@
         <v>271</v>
       </c>
       <c r="B387" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.45">
@@ -29866,7 +29869,7 @@
         <v>272</v>
       </c>
       <c r="B388" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.45">
@@ -29874,7 +29877,7 @@
         <v>273</v>
       </c>
       <c r="B389" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.45">
@@ -29882,7 +29885,7 @@
         <v>274</v>
       </c>
       <c r="B390" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.45">
@@ -29890,7 +29893,7 @@
         <v>276</v>
       </c>
       <c r="B391" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.45">
@@ -29898,7 +29901,7 @@
         <v>278</v>
       </c>
       <c r="B392" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.45">
@@ -29906,7 +29909,7 @@
         <v>279</v>
       </c>
       <c r="B393" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.45">
@@ -29914,7 +29917,7 @@
         <v>280</v>
       </c>
       <c r="B394" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.45">
@@ -29922,7 +29925,7 @@
         <v>281</v>
       </c>
       <c r="B395" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.45">
@@ -29930,7 +29933,7 @@
         <v>282</v>
       </c>
       <c r="B396" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.45">
@@ -29938,7 +29941,7 @@
         <v>283</v>
       </c>
       <c r="B397" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.45">
@@ -29946,7 +29949,7 @@
         <v>284</v>
       </c>
       <c r="B398" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.45">
@@ -29954,7 +29957,7 @@
         <v>285</v>
       </c>
       <c r="B399" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.45">
@@ -29962,7 +29965,7 @@
         <v>287</v>
       </c>
       <c r="B400" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.45">
@@ -29970,7 +29973,7 @@
         <v>526</v>
       </c>
       <c r="B401" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.45">
@@ -30066,7 +30069,7 @@
         <v>545</v>
       </c>
       <c r="B413" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.45">
@@ -30082,7 +30085,7 @@
         <v>548</v>
       </c>
       <c r="B415" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.45">
@@ -30090,7 +30093,7 @@
         <v>301</v>
       </c>
       <c r="B416" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.45">
@@ -30106,7 +30109,7 @@
         <v>302</v>
       </c>
       <c r="B418" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
   </sheetData>
@@ -30122,8 +30125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6804872F-908E-4576-8C9F-D057085582A0}">
   <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -30144,7 +30147,7 @@
         <v>306</v>
       </c>
       <c r="B2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -30152,7 +30155,7 @@
         <v>307</v>
       </c>
       <c r="B3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -30208,7 +30211,7 @@
         <v>315</v>
       </c>
       <c r="B10" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -30216,7 +30219,7 @@
         <v>317</v>
       </c>
       <c r="B11" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -30224,7 +30227,7 @@
         <v>318</v>
       </c>
       <c r="B12" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -30240,7 +30243,7 @@
         <v>320</v>
       </c>
       <c r="B14" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -30248,12 +30251,12 @@
         <v>321</v>
       </c>
       <c r="B15" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -30261,7 +30264,7 @@
         <v>323</v>
       </c>
       <c r="B17" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -30269,7 +30272,7 @@
         <v>324</v>
       </c>
       <c r="B18" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -30285,7 +30288,7 @@
         <v>326</v>
       </c>
       <c r="B20" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -30293,7 +30296,7 @@
         <v>327</v>
       </c>
       <c r="B21" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -30317,7 +30320,7 @@
         <v>330</v>
       </c>
       <c r="B24" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -30325,7 +30328,7 @@
         <v>331</v>
       </c>
       <c r="B25" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -30333,7 +30336,7 @@
         <v>332</v>
       </c>
       <c r="B26" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -30341,7 +30344,7 @@
         <v>333</v>
       </c>
       <c r="B27" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -30349,7 +30352,7 @@
         <v>334</v>
       </c>
       <c r="B28" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -30357,7 +30360,7 @@
         <v>335</v>
       </c>
       <c r="B29" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -30365,7 +30368,7 @@
         <v>337</v>
       </c>
       <c r="B30" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -30373,7 +30376,7 @@
         <v>339</v>
       </c>
       <c r="B31" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -30381,7 +30384,7 @@
         <v>341</v>
       </c>
       <c r="B32" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -30389,7 +30392,7 @@
         <v>343</v>
       </c>
       <c r="B33" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -30397,7 +30400,7 @@
         <v>345</v>
       </c>
       <c r="B34" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -30405,7 +30408,7 @@
         <v>347</v>
       </c>
       <c r="B35" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -30413,7 +30416,7 @@
         <v>348</v>
       </c>
       <c r="B36" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -30421,7 +30424,7 @@
         <v>349</v>
       </c>
       <c r="B37" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -30429,7 +30432,7 @@
         <v>355</v>
       </c>
       <c r="B38" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -30437,7 +30440,7 @@
         <v>350</v>
       </c>
       <c r="B39" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -30445,7 +30448,7 @@
         <v>351</v>
       </c>
       <c r="B40" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -30453,7 +30456,7 @@
         <v>352</v>
       </c>
       <c r="B41" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -30461,7 +30464,7 @@
         <v>353</v>
       </c>
       <c r="B42" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -30469,7 +30472,7 @@
         <v>354</v>
       </c>
       <c r="B43" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -30477,7 +30480,7 @@
         <v>360</v>
       </c>
       <c r="B44" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -30485,7 +30488,7 @@
         <v>356</v>
       </c>
       <c r="B45" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -30493,7 +30496,7 @@
         <v>357</v>
       </c>
       <c r="B46" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -30501,7 +30504,7 @@
         <v>358</v>
       </c>
       <c r="B47" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -30509,7 +30512,7 @@
         <v>359</v>
       </c>
       <c r="B48" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -30517,7 +30520,7 @@
         <v>365</v>
       </c>
       <c r="B49" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -30525,7 +30528,7 @@
         <v>361</v>
       </c>
       <c r="B50" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -30533,7 +30536,7 @@
         <v>362</v>
       </c>
       <c r="B51" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -30541,7 +30544,7 @@
         <v>363</v>
       </c>
       <c r="B52" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -30549,7 +30552,7 @@
         <v>364</v>
       </c>
       <c r="B53" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -30557,7 +30560,7 @@
         <v>370</v>
       </c>
       <c r="B54" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -30565,7 +30568,7 @@
         <v>366</v>
       </c>
       <c r="B55" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -30573,7 +30576,7 @@
         <v>367</v>
       </c>
       <c r="B56" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -30581,7 +30584,7 @@
         <v>368</v>
       </c>
       <c r="B57" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -30589,7 +30592,7 @@
         <v>369</v>
       </c>
       <c r="B58" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -30597,7 +30600,7 @@
         <v>375</v>
       </c>
       <c r="B59" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -30605,7 +30608,7 @@
         <v>371</v>
       </c>
       <c r="B60" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -30613,7 +30616,7 @@
         <v>372</v>
       </c>
       <c r="B61" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -30621,7 +30624,7 @@
         <v>373</v>
       </c>
       <c r="B62" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -30629,7 +30632,7 @@
         <v>374</v>
       </c>
       <c r="B63" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -30637,7 +30640,7 @@
         <v>376</v>
       </c>
       <c r="B64" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -30645,7 +30648,7 @@
         <v>377</v>
       </c>
       <c r="B65" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -30653,7 +30656,7 @@
         <v>378</v>
       </c>
       <c r="B66" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -30661,7 +30664,7 @@
         <v>379</v>
       </c>
       <c r="B67" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -30669,7 +30672,7 @@
         <v>380</v>
       </c>
       <c r="B68" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -30741,7 +30744,7 @@
         <v>385</v>
       </c>
       <c r="B77" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -30749,7 +30752,7 @@
         <v>386</v>
       </c>
       <c r="B78" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -30773,7 +30776,7 @@
         <v>389</v>
       </c>
       <c r="B81" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -30789,7 +30792,7 @@
         <v>391</v>
       </c>
       <c r="B83" t="s">
-        <v>1086</v>
+        <v>616</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -30797,7 +30800,7 @@
         <v>392</v>
       </c>
       <c r="B84" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
@@ -30821,7 +30824,7 @@
         <v>395</v>
       </c>
       <c r="B87" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -30829,7 +30832,7 @@
         <v>396</v>
       </c>
       <c r="B88" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -30837,7 +30840,7 @@
         <v>397</v>
       </c>
       <c r="B89" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
@@ -30845,7 +30848,7 @@
         <v>398</v>
       </c>
       <c r="B90" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
@@ -30853,7 +30856,7 @@
         <v>399</v>
       </c>
       <c r="B91" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -30861,7 +30864,7 @@
         <v>400</v>
       </c>
       <c r="B92" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
@@ -30877,7 +30880,7 @@
         <v>402</v>
       </c>
       <c r="B94" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -30885,7 +30888,7 @@
         <v>403</v>
       </c>
       <c r="B95" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -30893,7 +30896,7 @@
         <v>405</v>
       </c>
       <c r="B96" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
@@ -30906,7 +30909,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B98" t="s">
         <v>643</v>
@@ -30914,7 +30917,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B99" t="s">
         <v>644</v>
@@ -30925,7 +30928,7 @@
         <v>407</v>
       </c>
       <c r="B100" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
@@ -30933,7 +30936,7 @@
         <v>408</v>
       </c>
       <c r="B101" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
@@ -30941,7 +30944,7 @@
         <v>409</v>
       </c>
       <c r="B102" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -30949,7 +30952,7 @@
         <v>410</v>
       </c>
       <c r="B103" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
@@ -30957,7 +30960,7 @@
         <v>411</v>
       </c>
       <c r="B104" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -30965,7 +30968,7 @@
         <v>412</v>
       </c>
       <c r="B105" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
@@ -30973,7 +30976,7 @@
         <v>413</v>
       </c>
       <c r="B106" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
@@ -30981,7 +30984,7 @@
         <v>414</v>
       </c>
       <c r="B107" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
@@ -30989,7 +30992,7 @@
         <v>415</v>
       </c>
       <c r="B108" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
@@ -30997,7 +31000,7 @@
         <v>416</v>
       </c>
       <c r="B109" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
@@ -31005,7 +31008,7 @@
         <v>417</v>
       </c>
       <c r="B110" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -31013,7 +31016,7 @@
         <v>418</v>
       </c>
       <c r="B111" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -31021,7 +31024,7 @@
         <v>419</v>
       </c>
       <c r="B112" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -31029,7 +31032,7 @@
         <v>420</v>
       </c>
       <c r="B113" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -31037,7 +31040,7 @@
         <v>421</v>
       </c>
       <c r="B114" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -31045,7 +31048,7 @@
         <v>422</v>
       </c>
       <c r="B115" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -31053,7 +31056,7 @@
         <v>423</v>
       </c>
       <c r="B116" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -31061,7 +31064,7 @@
         <v>424</v>
       </c>
       <c r="B117" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -31069,7 +31072,7 @@
         <v>425</v>
       </c>
       <c r="B118" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
@@ -31077,7 +31080,7 @@
         <v>426</v>
       </c>
       <c r="B119" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -31085,7 +31088,7 @@
         <v>427</v>
       </c>
       <c r="B120" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
@@ -31101,7 +31104,7 @@
         <v>429</v>
       </c>
       <c r="B122" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
@@ -31125,7 +31128,7 @@
         <v>433</v>
       </c>
       <c r="B125" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
@@ -31133,7 +31136,7 @@
         <v>434</v>
       </c>
       <c r="B126" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
@@ -31157,7 +31160,7 @@
         <v>437</v>
       </c>
       <c r="B129" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
@@ -31205,7 +31208,7 @@
         <v>443</v>
       </c>
       <c r="B135" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
@@ -31213,7 +31216,7 @@
         <v>444</v>
       </c>
       <c r="B136" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
@@ -31221,7 +31224,7 @@
         <v>445</v>
       </c>
       <c r="B137" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
@@ -31229,7 +31232,7 @@
         <v>446</v>
       </c>
       <c r="B138" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
@@ -31237,7 +31240,7 @@
         <v>447</v>
       </c>
       <c r="B139" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
@@ -31245,7 +31248,7 @@
         <v>448</v>
       </c>
       <c r="B140" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
@@ -31253,7 +31256,7 @@
         <v>449</v>
       </c>
       <c r="B141" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
@@ -31261,7 +31264,7 @@
         <v>450</v>
       </c>
       <c r="B142" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
@@ -31269,7 +31272,7 @@
         <v>451</v>
       </c>
       <c r="B143" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
@@ -31277,7 +31280,7 @@
         <v>452</v>
       </c>
       <c r="B144" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
@@ -31285,7 +31288,7 @@
         <v>453</v>
       </c>
       <c r="B145" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
@@ -31293,7 +31296,7 @@
         <v>454</v>
       </c>
       <c r="B146" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
@@ -31301,7 +31304,7 @@
         <v>455</v>
       </c>
       <c r="B147" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
@@ -31309,7 +31312,7 @@
         <v>456</v>
       </c>
       <c r="B148" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
@@ -31317,7 +31320,7 @@
         <v>457</v>
       </c>
       <c r="B149" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
@@ -31325,7 +31328,7 @@
         <v>458</v>
       </c>
       <c r="B150" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
@@ -31333,7 +31336,7 @@
         <v>459</v>
       </c>
       <c r="B151" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
@@ -31341,7 +31344,7 @@
         <v>460</v>
       </c>
       <c r="B152" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
@@ -31349,7 +31352,7 @@
         <v>461</v>
       </c>
       <c r="B153" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
@@ -31357,15 +31360,15 @@
         <v>462</v>
       </c>
       <c r="B154" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B155" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
@@ -31373,7 +31376,7 @@
         <v>463</v>
       </c>
       <c r="B156" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
@@ -31381,7 +31384,7 @@
         <v>464</v>
       </c>
       <c r="B157" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
@@ -31389,7 +31392,7 @@
         <v>465</v>
       </c>
       <c r="B158" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
@@ -31397,7 +31400,7 @@
         <v>466</v>
       </c>
       <c r="B159" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
@@ -31405,7 +31408,7 @@
         <v>467</v>
       </c>
       <c r="B160" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
@@ -31413,7 +31416,7 @@
         <v>468</v>
       </c>
       <c r="B161" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
@@ -31421,7 +31424,7 @@
         <v>469</v>
       </c>
       <c r="B162" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
@@ -31429,7 +31432,7 @@
         <v>470</v>
       </c>
       <c r="B163" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
@@ -31437,7 +31440,7 @@
         <v>471</v>
       </c>
       <c r="B164" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
@@ -31445,7 +31448,7 @@
         <v>472</v>
       </c>
       <c r="B165" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
@@ -31453,7 +31456,7 @@
         <v>473</v>
       </c>
       <c r="B166" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
@@ -31461,7 +31464,7 @@
         <v>474</v>
       </c>
       <c r="B167" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
@@ -31469,7 +31472,7 @@
         <v>475</v>
       </c>
       <c r="B168" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
@@ -31477,7 +31480,7 @@
         <v>476</v>
       </c>
       <c r="B169" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
@@ -31485,7 +31488,7 @@
         <v>477</v>
       </c>
       <c r="B170" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
@@ -31493,7 +31496,7 @@
         <v>479</v>
       </c>
       <c r="B171" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
@@ -31501,7 +31504,7 @@
         <v>480</v>
       </c>
       <c r="B172" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
@@ -31509,7 +31512,7 @@
         <v>481</v>
       </c>
       <c r="B173" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
@@ -31517,7 +31520,7 @@
         <v>482</v>
       </c>
       <c r="B174" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
@@ -31525,7 +31528,7 @@
         <v>483</v>
       </c>
       <c r="B175" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
@@ -31533,7 +31536,7 @@
         <v>484</v>
       </c>
       <c r="B176" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
@@ -31541,7 +31544,7 @@
         <v>485</v>
       </c>
       <c r="B177" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
@@ -31549,7 +31552,7 @@
         <v>486</v>
       </c>
       <c r="B178" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
@@ -31557,7 +31560,7 @@
         <v>487</v>
       </c>
       <c r="B179" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
@@ -31565,7 +31568,7 @@
         <v>488</v>
       </c>
       <c r="B180" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
@@ -31573,7 +31576,7 @@
         <v>489</v>
       </c>
       <c r="B181" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
@@ -31581,7 +31584,7 @@
         <v>490</v>
       </c>
       <c r="B182" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
@@ -31589,7 +31592,7 @@
         <v>491</v>
       </c>
       <c r="B183" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
@@ -31597,7 +31600,7 @@
         <v>492</v>
       </c>
       <c r="B184" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
@@ -31605,31 +31608,31 @@
         <v>493</v>
       </c>
       <c r="B185" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B186" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B187" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B188" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
@@ -31637,31 +31640,31 @@
         <v>495</v>
       </c>
       <c r="B189" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B190" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B191" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B192" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
@@ -31669,31 +31672,31 @@
         <v>497</v>
       </c>
       <c r="B193" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B194" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B195" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B196" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
@@ -31701,7 +31704,7 @@
         <v>499</v>
       </c>
       <c r="B197" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
@@ -31709,7 +31712,7 @@
         <v>500</v>
       </c>
       <c r="B198" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
@@ -31717,7 +31720,7 @@
         <v>501</v>
       </c>
       <c r="B199" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
@@ -31725,7 +31728,7 @@
         <v>502</v>
       </c>
       <c r="B200" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
@@ -31741,7 +31744,7 @@
         <v>504</v>
       </c>
       <c r="B202" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.45">
@@ -31909,7 +31912,7 @@
         <v>526</v>
       </c>
       <c r="B223" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.45">
@@ -31941,7 +31944,7 @@
         <v>530</v>
       </c>
       <c r="B227" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.45">
@@ -31997,7 +32000,7 @@
         <v>540</v>
       </c>
       <c r="B234" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.45">
@@ -32005,7 +32008,7 @@
         <v>542</v>
       </c>
       <c r="B235" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.45">
@@ -32013,7 +32016,7 @@
         <v>290</v>
       </c>
       <c r="B236" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.45">
@@ -32045,7 +32048,7 @@
         <v>545</v>
       </c>
       <c r="B240" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.45">
@@ -32053,7 +32056,7 @@
         <v>294</v>
       </c>
       <c r="B241" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.45">
@@ -32061,7 +32064,7 @@
         <v>295</v>
       </c>
       <c r="B242" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.45">
@@ -32069,7 +32072,7 @@
         <v>296</v>
       </c>
       <c r="B243" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.45">
@@ -32077,7 +32080,7 @@
         <v>297</v>
       </c>
       <c r="B244" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.45">
@@ -32093,7 +32096,7 @@
         <v>298</v>
       </c>
       <c r="B246" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.45">
@@ -32101,7 +32104,7 @@
         <v>548</v>
       </c>
       <c r="B247" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.45">
@@ -32109,7 +32112,7 @@
         <v>299</v>
       </c>
       <c r="B248" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.45">
@@ -32117,7 +32120,7 @@
         <v>300</v>
       </c>
       <c r="B249" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.45">
@@ -32125,7 +32128,7 @@
         <v>549</v>
       </c>
       <c r="B250" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.45">
@@ -32133,7 +32136,7 @@
         <v>550</v>
       </c>
       <c r="B251" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.45">
@@ -32141,7 +32144,7 @@
         <v>551</v>
       </c>
       <c r="B252" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.45">
@@ -32149,7 +32152,7 @@
         <v>552</v>
       </c>
       <c r="B253" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.45">
@@ -32157,7 +32160,7 @@
         <v>553</v>
       </c>
       <c r="B254" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.45">
@@ -32165,7 +32168,7 @@
         <v>554</v>
       </c>
       <c r="B255" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.45">
@@ -32186,8 +32189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6379954C-B519-4E67-8DE4-32A1851A1CD0}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56:D73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -32202,7 +32205,7 @@
         <v>308</v>
       </c>
       <c r="B1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C1" t="s">
         <v>556</v>
@@ -32213,167 +32216,167 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B2" t="s">
         <v>574</v>
       </c>
       <c r="C2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B3" t="s">
         <v>574</v>
       </c>
       <c r="C3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B4" t="s">
         <v>574</v>
       </c>
       <c r="C4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B5" t="s">
         <v>574</v>
       </c>
       <c r="C5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B6" t="s">
         <v>574</v>
       </c>
       <c r="C6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B7" t="s">
         <v>574</v>
       </c>
       <c r="C7" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D7" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B8" t="s">
         <v>574</v>
       </c>
       <c r="C8" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D8" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B9" t="s">
         <v>574</v>
       </c>
       <c r="C9" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D9" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B10" t="s">
         <v>574</v>
       </c>
       <c r="C10" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D10" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B11" t="s">
         <v>574</v>
       </c>
       <c r="C11" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D11" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B12" t="s">
         <v>574</v>
       </c>
       <c r="C12" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D12" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B13" t="s">
         <v>574</v>
       </c>
       <c r="C13" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D13" t="str">
         <f>C13</f>
@@ -32382,13 +32385,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B14" t="s">
         <v>574</v>
       </c>
       <c r="C14" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D14" t="str">
         <f>C14</f>
@@ -32397,13 +32400,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B15" t="s">
         <v>574</v>
       </c>
       <c r="C15" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D15" t="str">
         <f>C15</f>
@@ -32412,814 +32415,814 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B16" t="s">
         <v>574</v>
       </c>
       <c r="C16" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D16" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B17" t="s">
         <v>574</v>
       </c>
       <c r="C17" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D17" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B18" t="s">
         <v>574</v>
       </c>
       <c r="C18" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D18" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B19" t="s">
         <v>574</v>
       </c>
       <c r="C19" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D19" t="s">
-        <v>1163</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B20" t="s">
         <v>574</v>
       </c>
       <c r="C20" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D20" t="s">
-        <v>1163</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B21" t="s">
         <v>574</v>
       </c>
       <c r="C21" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D21" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B22" t="s">
         <v>574</v>
       </c>
       <c r="C22" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D22" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B23" t="s">
         <v>574</v>
       </c>
       <c r="C23" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D23" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B24" t="s">
         <v>574</v>
       </c>
       <c r="C24" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D24" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B25" t="s">
         <v>574</v>
       </c>
       <c r="C25" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D25" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B26" t="s">
         <v>574</v>
       </c>
       <c r="C26" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D26" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B27" t="s">
         <v>574</v>
       </c>
       <c r="C27" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D27" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B28" t="s">
         <v>574</v>
       </c>
       <c r="C28" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D28" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B29" t="s">
         <v>574</v>
       </c>
       <c r="C29" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D29" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B30" t="s">
         <v>576</v>
       </c>
       <c r="C30" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D30" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B31" t="s">
         <v>576</v>
       </c>
       <c r="C31" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D31" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B32" t="s">
         <v>576</v>
       </c>
       <c r="C32" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D32" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B33" t="s">
         <v>576</v>
       </c>
       <c r="C33" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D33" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B34" t="s">
         <v>576</v>
       </c>
       <c r="C34" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D34" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B35" t="s">
         <v>576</v>
       </c>
       <c r="C35" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D35" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B36" t="s">
         <v>576</v>
       </c>
       <c r="C36" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D36" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B37" t="s">
         <v>576</v>
       </c>
       <c r="C37" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D37" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B38" t="s">
         <v>576</v>
       </c>
       <c r="C38" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D38" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B39" t="s">
         <v>576</v>
       </c>
       <c r="C39" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D39" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B40" t="s">
         <v>576</v>
       </c>
       <c r="C40" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D40" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B41" t="s">
         <v>576</v>
       </c>
       <c r="C41" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D41" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B42" t="s">
         <v>576</v>
       </c>
       <c r="C42" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D42" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B43" t="s">
         <v>576</v>
       </c>
       <c r="C43" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D43" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B44" t="s">
         <v>576</v>
       </c>
       <c r="C44" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D44" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B45" t="s">
         <v>576</v>
       </c>
       <c r="C45" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D45" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B46" t="s">
         <v>576</v>
       </c>
       <c r="C46" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D46" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B47" t="s">
         <v>576</v>
       </c>
       <c r="C47" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D47" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B48" t="s">
         <v>576</v>
       </c>
       <c r="C48" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D48" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B49" t="s">
         <v>576</v>
       </c>
       <c r="C49" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D49" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B50" t="s">
         <v>576</v>
       </c>
       <c r="C50" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D50" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B51" t="s">
         <v>576</v>
       </c>
       <c r="C51" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D51" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B52" t="s">
         <v>576</v>
       </c>
       <c r="C52" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D52" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B53" t="s">
         <v>576</v>
       </c>
       <c r="C53" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D53" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B54" t="s">
         <v>576</v>
       </c>
       <c r="C54" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D54" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B55" t="s">
         <v>576</v>
       </c>
       <c r="C55" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D55" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B56" t="s">
         <v>576</v>
       </c>
       <c r="C56" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D56" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B57" t="s">
         <v>576</v>
       </c>
       <c r="C57" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D57" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B58" t="s">
         <v>576</v>
       </c>
       <c r="C58" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D58" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B59" t="s">
         <v>576</v>
       </c>
       <c r="C59" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D59" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B60" t="s">
         <v>576</v>
       </c>
       <c r="C60" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D60" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B61" t="s">
         <v>576</v>
       </c>
       <c r="C61" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D61" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B62" t="s">
         <v>576</v>
       </c>
       <c r="C62" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D62" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B63" t="s">
         <v>576</v>
       </c>
       <c r="C63" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D63" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B64" t="s">
         <v>576</v>
       </c>
       <c r="C64" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D64" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B65" t="s">
         <v>576</v>
       </c>
       <c r="C65" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D65" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B66" t="s">
         <v>576</v>
       </c>
       <c r="C66" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D66" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B67" t="s">
         <v>576</v>
       </c>
       <c r="C67" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D67" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B68" t="s">
         <v>576</v>
       </c>
       <c r="C68" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D68" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B69" t="s">
         <v>576</v>
       </c>
       <c r="C69" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D69" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B70" t="s">
         <v>576</v>
       </c>
       <c r="C70" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D70" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B71" t="s">
         <v>576</v>
       </c>
       <c r="C71" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D71" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B72" t="s">
         <v>576</v>
       </c>
       <c r="C72" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D72" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B73" t="s">
         <v>576</v>
       </c>
       <c r="C73" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D73" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
@@ -33252,10 +33255,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B2" t="s">
         <v>920</v>
-      </c>
-      <c r="B2" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -33308,26 +33311,26 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -33372,7 +33375,7 @@
         <v>333</v>
       </c>
       <c r="B17" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -33380,7 +33383,7 @@
         <v>334</v>
       </c>
       <c r="B18" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -33388,7 +33391,7 @@
         <v>335</v>
       </c>
       <c r="B19" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -33396,7 +33399,7 @@
         <v>337</v>
       </c>
       <c r="B20" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -33404,7 +33407,7 @@
         <v>339</v>
       </c>
       <c r="B21" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -33412,7 +33415,7 @@
         <v>341</v>
       </c>
       <c r="B22" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -33420,7 +33423,7 @@
         <v>343</v>
       </c>
       <c r="B23" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -33428,7 +33431,7 @@
         <v>345</v>
       </c>
       <c r="B24" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -33436,7 +33439,7 @@
         <v>347</v>
       </c>
       <c r="B25" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -33444,7 +33447,7 @@
         <v>348</v>
       </c>
       <c r="B26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -33452,15 +33455,15 @@
         <v>349</v>
       </c>
       <c r="B27" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
+        <v>934</v>
+      </c>
+      <c r="B28" t="s">
         <v>935</v>
-      </c>
-      <c r="B28" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -33532,7 +33535,7 @@
         <v>385</v>
       </c>
       <c r="B37" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -33540,7 +33543,7 @@
         <v>386</v>
       </c>
       <c r="B38" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -33564,7 +33567,7 @@
         <v>389</v>
       </c>
       <c r="B41" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -33580,7 +33583,7 @@
         <v>391</v>
       </c>
       <c r="B43" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -33588,7 +33591,7 @@
         <v>392</v>
       </c>
       <c r="B44" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -33612,7 +33615,7 @@
         <v>395</v>
       </c>
       <c r="B47" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -33620,7 +33623,7 @@
         <v>396</v>
       </c>
       <c r="B48" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -33628,7 +33631,7 @@
         <v>397</v>
       </c>
       <c r="B49" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -33636,7 +33639,7 @@
         <v>398</v>
       </c>
       <c r="B50" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -33644,7 +33647,7 @@
         <v>399</v>
       </c>
       <c r="B51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -33652,7 +33655,7 @@
         <v>400</v>
       </c>
       <c r="B52" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -33668,7 +33671,7 @@
         <v>402</v>
       </c>
       <c r="B54" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -33676,7 +33679,7 @@
         <v>403</v>
       </c>
       <c r="B55" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -33684,7 +33687,7 @@
         <v>405</v>
       </c>
       <c r="B56" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -33697,7 +33700,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B58" t="s">
         <v>643</v>
@@ -33705,7 +33708,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B59" t="s">
         <v>644</v>
@@ -33716,7 +33719,7 @@
         <v>407</v>
       </c>
       <c r="B60" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -33724,7 +33727,7 @@
         <v>408</v>
       </c>
       <c r="B61" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -33732,7 +33735,7 @@
         <v>409</v>
       </c>
       <c r="B62" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -33740,7 +33743,7 @@
         <v>410</v>
       </c>
       <c r="B63" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -33748,7 +33751,7 @@
         <v>411</v>
       </c>
       <c r="B64" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -33756,7 +33759,7 @@
         <v>412</v>
       </c>
       <c r="B65" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -33764,7 +33767,7 @@
         <v>413</v>
       </c>
       <c r="B66" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -33772,7 +33775,7 @@
         <v>414</v>
       </c>
       <c r="B67" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -33780,7 +33783,7 @@
         <v>415</v>
       </c>
       <c r="B68" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -33788,7 +33791,7 @@
         <v>416</v>
       </c>
       <c r="B69" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
@@ -33796,7 +33799,7 @@
         <v>417</v>
       </c>
       <c r="B70" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
@@ -33804,7 +33807,7 @@
         <v>418</v>
       </c>
       <c r="B71" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
@@ -33812,7 +33815,7 @@
         <v>419</v>
       </c>
       <c r="B72" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -33820,7 +33823,7 @@
         <v>420</v>
       </c>
       <c r="B73" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
@@ -33828,7 +33831,7 @@
         <v>421</v>
       </c>
       <c r="B74" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
@@ -33836,7 +33839,7 @@
         <v>422</v>
       </c>
       <c r="B75" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
@@ -33844,7 +33847,7 @@
         <v>423</v>
       </c>
       <c r="B76" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
@@ -33860,7 +33863,7 @@
         <v>425</v>
       </c>
       <c r="B78" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -33868,7 +33871,7 @@
         <v>426</v>
       </c>
       <c r="B79" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
@@ -33876,7 +33879,7 @@
         <v>427</v>
       </c>
       <c r="B80" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
@@ -33908,7 +33911,7 @@
         <v>433</v>
       </c>
       <c r="B84" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
@@ -33916,7 +33919,7 @@
         <v>434</v>
       </c>
       <c r="B85" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
@@ -33940,7 +33943,7 @@
         <v>437</v>
       </c>
       <c r="B88" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -33988,7 +33991,7 @@
         <v>443</v>
       </c>
       <c r="B94" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -33996,7 +33999,7 @@
         <v>444</v>
       </c>
       <c r="B95" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -34004,7 +34007,7 @@
         <v>445</v>
       </c>
       <c r="B96" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
@@ -34012,7 +34015,7 @@
         <v>446</v>
       </c>
       <c r="B97" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
@@ -34020,7 +34023,7 @@
         <v>447</v>
       </c>
       <c r="B98" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
@@ -34028,7 +34031,7 @@
         <v>448</v>
       </c>
       <c r="B99" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
@@ -34036,7 +34039,7 @@
         <v>449</v>
       </c>
       <c r="B100" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
@@ -34044,7 +34047,7 @@
         <v>451</v>
       </c>
       <c r="B101" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
@@ -34052,7 +34055,7 @@
         <v>452</v>
       </c>
       <c r="B102" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -34060,7 +34063,7 @@
         <v>455</v>
       </c>
       <c r="B103" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
@@ -34068,7 +34071,7 @@
         <v>456</v>
       </c>
       <c r="B104" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -34076,7 +34079,7 @@
         <v>457</v>
       </c>
       <c r="B105" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
@@ -34084,7 +34087,7 @@
         <v>459</v>
       </c>
       <c r="B106" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
@@ -34092,7 +34095,7 @@
         <v>460</v>
       </c>
       <c r="B107" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
@@ -34100,7 +34103,7 @@
         <v>461</v>
       </c>
       <c r="B108" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
@@ -34108,7 +34111,7 @@
         <v>462</v>
       </c>
       <c r="B109" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
@@ -34116,7 +34119,7 @@
         <v>210</v>
       </c>
       <c r="B110" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -34124,7 +34127,7 @@
         <v>463</v>
       </c>
       <c r="B111" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -34132,7 +34135,7 @@
         <v>464</v>
       </c>
       <c r="B112" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -34140,7 +34143,7 @@
         <v>465</v>
       </c>
       <c r="B113" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -34148,7 +34151,7 @@
         <v>466</v>
       </c>
       <c r="B114" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -34156,7 +34159,7 @@
         <v>211</v>
       </c>
       <c r="B115" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -34164,7 +34167,7 @@
         <v>467</v>
       </c>
       <c r="B116" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -34172,7 +34175,7 @@
         <v>468</v>
       </c>
       <c r="B117" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -34180,7 +34183,7 @@
         <v>469</v>
       </c>
       <c r="B118" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
@@ -34188,7 +34191,7 @@
         <v>470</v>
       </c>
       <c r="B119" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -34196,7 +34199,7 @@
         <v>471</v>
       </c>
       <c r="B120" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
@@ -34204,7 +34207,7 @@
         <v>472</v>
       </c>
       <c r="B121" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
@@ -34212,7 +34215,7 @@
         <v>473</v>
       </c>
       <c r="B122" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
@@ -34220,7 +34223,7 @@
         <v>474</v>
       </c>
       <c r="B123" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
@@ -34228,7 +34231,7 @@
         <v>475</v>
       </c>
       <c r="B124" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
@@ -34236,7 +34239,7 @@
         <v>476</v>
       </c>
       <c r="B125" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
@@ -34244,7 +34247,7 @@
         <v>477</v>
       </c>
       <c r="B126" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
@@ -34252,7 +34255,7 @@
         <v>478</v>
       </c>
       <c r="B127" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
@@ -34260,23 +34263,23 @@
         <v>479</v>
       </c>
       <c r="B128" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
+        <v>859</v>
+      </c>
+      <c r="B129" t="s">
         <v>860</v>
-      </c>
-      <c r="B129" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
+        <v>861</v>
+      </c>
+      <c r="B130" t="s">
         <v>862</v>
-      </c>
-      <c r="B130" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
@@ -34284,7 +34287,7 @@
         <v>480</v>
       </c>
       <c r="B131" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
@@ -34292,7 +34295,7 @@
         <v>481</v>
       </c>
       <c r="B132" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
@@ -34300,7 +34303,7 @@
         <v>482</v>
       </c>
       <c r="B133" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
@@ -34308,7 +34311,7 @@
         <v>483</v>
       </c>
       <c r="B134" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
@@ -34316,7 +34319,7 @@
         <v>484</v>
       </c>
       <c r="B135" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
@@ -34324,7 +34327,7 @@
         <v>485</v>
       </c>
       <c r="B136" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
@@ -34332,7 +34335,7 @@
         <v>486</v>
       </c>
       <c r="B137" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
@@ -34340,7 +34343,7 @@
         <v>487</v>
       </c>
       <c r="B138" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
@@ -34348,7 +34351,7 @@
         <v>488</v>
       </c>
       <c r="B139" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
@@ -34356,7 +34359,7 @@
         <v>489</v>
       </c>
       <c r="B140" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
@@ -34364,7 +34367,7 @@
         <v>490</v>
       </c>
       <c r="B141" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
@@ -34372,7 +34375,7 @@
         <v>491</v>
       </c>
       <c r="B142" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
@@ -34380,7 +34383,7 @@
         <v>492</v>
       </c>
       <c r="B143" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
@@ -34388,31 +34391,31 @@
         <v>493</v>
       </c>
       <c r="B144" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B145" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B146" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B147" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
@@ -34420,31 +34423,31 @@
         <v>495</v>
       </c>
       <c r="B148" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B149" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B150" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B151" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
@@ -34452,31 +34455,31 @@
         <v>497</v>
       </c>
       <c r="B152" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B153" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B154" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B155" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
@@ -34484,7 +34487,7 @@
         <v>499</v>
       </c>
       <c r="B156" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
@@ -34492,7 +34495,7 @@
         <v>500</v>
       </c>
       <c r="B157" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
@@ -34508,7 +34511,7 @@
         <v>216</v>
       </c>
       <c r="B159" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
@@ -34516,7 +34519,7 @@
         <v>504</v>
       </c>
       <c r="B160" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
@@ -34692,7 +34695,7 @@
         <v>273</v>
       </c>
       <c r="B182" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
@@ -34700,7 +34703,7 @@
         <v>280</v>
       </c>
       <c r="B183" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
@@ -34708,7 +34711,7 @@
         <v>281</v>
       </c>
       <c r="B184" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
@@ -34716,7 +34719,7 @@
         <v>282</v>
       </c>
       <c r="B185" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
@@ -34724,15 +34727,15 @@
         <v>283</v>
       </c>
       <c r="B186" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
+        <v>880</v>
+      </c>
+      <c r="B187" t="s">
         <v>881</v>
-      </c>
-      <c r="B187" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
@@ -34740,7 +34743,7 @@
         <v>284</v>
       </c>
       <c r="B188" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
@@ -34748,7 +34751,7 @@
         <v>526</v>
       </c>
       <c r="B189" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
@@ -34788,7 +34791,7 @@
         <v>530</v>
       </c>
       <c r="B194" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
@@ -34825,10 +34828,10 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B199" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
@@ -34841,10 +34844,10 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B201" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.45">
@@ -34873,10 +34876,10 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B205" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
@@ -34884,7 +34887,7 @@
         <v>540</v>
       </c>
       <c r="B206" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
@@ -34897,7 +34900,7 @@
         <v>542</v>
       </c>
       <c r="B208" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.45">
@@ -34913,7 +34916,7 @@
         <v>290</v>
       </c>
       <c r="B210" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.45">
@@ -34945,7 +34948,7 @@
         <v>545</v>
       </c>
       <c r="B214" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.45">
@@ -34953,7 +34956,7 @@
         <v>294</v>
       </c>
       <c r="B215" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.45">
@@ -34961,7 +34964,7 @@
         <v>295</v>
       </c>
       <c r="B216" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.45">
@@ -34969,7 +34972,7 @@
         <v>296</v>
       </c>
       <c r="B217" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.45">
@@ -34985,7 +34988,7 @@
         <v>298</v>
       </c>
       <c r="B219" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.45">
@@ -34993,7 +34996,7 @@
         <v>548</v>
       </c>
       <c r="B220" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.45">
@@ -35001,7 +35004,7 @@
         <v>299</v>
       </c>
       <c r="B221" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.45">
@@ -35009,7 +35012,7 @@
         <v>300</v>
       </c>
       <c r="B222" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.45">
@@ -35040,199 +35043,199 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B4" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B5" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B6" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B7" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B8" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B9" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B10" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B11" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B12" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B13" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B14" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B15" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B16" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B17" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B18" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B19" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B20" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B21" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B22" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B23" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B24" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -35240,530 +35243,530 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B26" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B27" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B28" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B29" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B30" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B31" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B32" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B33" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B34" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B35" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B36" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B37" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B38" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B39" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B40" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B41" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B42" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B43" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B44" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B45" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B46" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B47" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B48" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B49" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B50" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B51" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B52" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B53" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B54" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B55" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B56" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B57" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B58" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B59" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B60" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B61" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B62" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B63" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B64" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B65" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B66" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B67" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B68" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B69" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B70" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B71" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B72" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B73" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B74" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B75" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B76" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B77" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B78" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B79" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B80" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B81" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B82" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B83" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B84" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B85" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B86" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B87" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B88" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B89" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B90" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B91" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -35771,102 +35774,102 @@
         <v>229</v>
       </c>
       <c r="B92" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
   </sheetData>

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8247CBC2-C618-43EB-BCE0-6796B898AB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832EA055-D935-45ED-A29A-14CDDB73933E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="1404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="1405">
   <si>
     <t>vars</t>
   </si>
@@ -4257,6 +4257,9 @@
   </si>
   <si>
     <t>part_face_mask_public_transport_old</t>
+  </si>
+  <si>
+    <t>cnt_bar_rest</t>
   </si>
 </sst>
 </file>
@@ -26758,8 +26761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1C5985-D720-4533-B6F5-A2816F80F2F5}">
   <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="B287" sqref="B287"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="B336" sqref="B336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -29453,7 +29456,7 @@
         <v>477</v>
       </c>
       <c r="B336" t="s">
-        <v>855</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.45">
@@ -30125,8 +30128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6804872F-908E-4576-8C9F-D057085582A0}">
   <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31488,7 +31491,7 @@
         <v>477</v>
       </c>
       <c r="B170" t="s">
-        <v>855</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832EA055-D935-45ED-A29A-14CDDB73933E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8530E2A-C1F3-4E97-B0DD-BD0CBF576B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="6" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="1405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="1323">
   <si>
     <t>vars</t>
   </si>
@@ -3569,84 +3569,18 @@
     <t xml:space="preserve">privacypolicy_insert </t>
   </si>
   <si>
-    <t xml:space="preserve">area_5_name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_pop_dens_1_code </t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_pop_dens_1_label </t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_pop_dens_2_code </t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_pop_dens_2_label </t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_rural_urban_code </t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_rural_urban_label </t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_1_code </t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_town_label </t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_town_code </t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_town_pop_code </t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_1_name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_2_code </t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_2_name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_tv_station </t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_3_code </t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_3_name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_4_code </t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_4_name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_5_code </t>
-  </si>
-  <si>
     <t xml:space="preserve">sniffer_device_type_final </t>
   </si>
   <si>
     <t xml:space="preserve">sniffer_device_type_initial </t>
   </si>
   <si>
-    <t xml:space="preserve">higher_earner_occupation </t>
-  </si>
-  <si>
     <t xml:space="preserve">uksg_version </t>
   </si>
   <si>
     <t xml:space="preserve">q48a </t>
   </si>
   <si>
-    <t xml:space="preserve">q21_scale_1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">q49_l0 </t>
   </si>
   <si>
@@ -3659,69 +3593,12 @@
     <t xml:space="preserve">ukstdregion </t>
   </si>
   <si>
-    <t xml:space="preserve">area_town_pop_label </t>
-  </si>
-  <si>
     <t xml:space="preserve">qsample </t>
   </si>
   <si>
-    <t xml:space="preserve">q51 </t>
-  </si>
-  <si>
     <t xml:space="preserve">q20b </t>
   </si>
   <si>
-    <t xml:space="preserve">q23_quota_1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23_quota_10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23_quota_11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23_quota_12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23_quota_13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23_quota_14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23_quota_15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23_quota_16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23_quota_17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23_quota_2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23_quota_3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23_quota_4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23_quota_5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23_quota_6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23_quota_7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23_quota_8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q23_quota_9 </t>
-  </si>
-  <si>
     <t xml:space="preserve">q61a_insert </t>
   </si>
   <si>
@@ -3740,9 +3617,6 @@
     <t xml:space="preserve">q20_original </t>
   </si>
   <si>
-    <t xml:space="preserve">q21_scale_1_original </t>
-  </si>
-  <si>
     <t xml:space="preserve">q20 </t>
   </si>
   <si>
@@ -3758,9 +3632,6 @@
     <t xml:space="preserve">q53a_choosen </t>
   </si>
   <si>
-    <t xml:space="preserve">q59_7 </t>
-  </si>
-  <si>
     <t xml:space="preserve">q61b_codes_98 </t>
   </si>
   <si>
@@ -3782,90 +3653,15 @@
     <t xml:space="preserve">ukmunicipality </t>
   </si>
   <si>
-    <t xml:space="preserve">uk_region1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">uk_region2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">uk_region3 </t>
-  </si>
-  <si>
     <t xml:space="preserve">uk_region3_label </t>
   </si>
   <si>
     <t xml:space="preserve">ukruralurban </t>
   </si>
   <si>
-    <t xml:space="preserve">uk_stdmktsize </t>
-  </si>
-  <si>
-    <t xml:space="preserve">uk_stdregion </t>
-  </si>
-  <si>
-    <t xml:space="preserve">uk_towncode </t>
-  </si>
-  <si>
-    <t xml:space="preserve">uk_townname </t>
-  </si>
-  <si>
     <t xml:space="preserve">q20_import </t>
   </si>
   <si>
-    <t xml:space="preserve">q21_1_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_2_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_3_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_4_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_5_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_6_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_7_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_8_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_10_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_12_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_13_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_14_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_9_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_15_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_22_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_23_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_24_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_25_original </t>
-  </si>
-  <si>
     <t xml:space="preserve">q63validate </t>
   </si>
   <si>
@@ -3887,63 +3683,15 @@
     <t xml:space="preserve">nameagesex_scale_1 </t>
   </si>
   <si>
-    <t xml:space="preserve">q21_32_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_33_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_34_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_35_original </t>
-  </si>
-  <si>
     <t xml:space="preserve">w4_namesexage </t>
   </si>
   <si>
-    <t xml:space="preserve">q21_42_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_43_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_44_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_45_original </t>
-  </si>
-  <si>
     <t xml:space="preserve">w5_namesexage </t>
   </si>
   <si>
-    <t xml:space="preserve">q21_52_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_53_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_54_original </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21_55_original </t>
-  </si>
-  <si>
     <t xml:space="preserve">w6_namesexage </t>
   </si>
   <si>
-    <t xml:space="preserve">higher_earner_education </t>
-  </si>
-  <si>
-    <t xml:space="preserve">higher_earner_occupation_prev </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q51_help_3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q50_help_3 </t>
-  </si>
-  <si>
     <t xml:space="preserve">q41 </t>
   </si>
   <si>
@@ -3953,9 +3701,6 @@
     <t xml:space="preserve">q39 </t>
   </si>
   <si>
-    <t xml:space="preserve">q26_filter_8 </t>
-  </si>
-  <si>
     <t xml:space="preserve">q_panel </t>
   </si>
   <si>
@@ -4004,9 +3749,6 @@
     <t xml:space="preserve">qrorigin_rec </t>
   </si>
   <si>
-    <t>check_to_remove</t>
-  </si>
-  <si>
     <t xml:space="preserve">qmktsize_refused_to_answer </t>
   </si>
   <si>
@@ -4260,6 +4002,18 @@
   </si>
   <si>
     <t>cnt_bar_rest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uk_nations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uk02inc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">w7_namesexage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">w8_namesexage </t>
   </si>
 </sst>
 </file>
@@ -4627,12 +4381,12 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1372</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1373</v>
+        <v>1287</v>
       </c>
     </row>
   </sheetData>
@@ -26761,7 +26515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1C5985-D720-4533-B6F5-A2816F80F2F5}">
   <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+    <sheetView topLeftCell="A294" workbookViewId="0">
       <selection activeCell="B336" sqref="B336"/>
     </sheetView>
   </sheetViews>
@@ -27648,7 +27402,7 @@
         <v>402</v>
       </c>
       <c r="B110" t="s">
-        <v>1374</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -27656,7 +27410,7 @@
         <v>102</v>
       </c>
       <c r="B111" t="s">
-        <v>1375</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -27664,7 +27418,7 @@
         <v>103</v>
       </c>
       <c r="B112" t="s">
-        <v>1376</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -28656,7 +28410,7 @@
         <v>192</v>
       </c>
       <c r="B236" t="s">
-        <v>1379</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.45">
@@ -28664,7 +28418,7 @@
         <v>1018</v>
       </c>
       <c r="B237" t="s">
-        <v>1399</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.45">
@@ -28672,7 +28426,7 @@
         <v>1019</v>
       </c>
       <c r="B238" t="s">
-        <v>1380</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.45">
@@ -28680,7 +28434,7 @@
         <v>1020</v>
       </c>
       <c r="B239" t="s">
-        <v>1381</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.45">
@@ -28688,7 +28442,7 @@
         <v>1021</v>
       </c>
       <c r="B240" t="s">
-        <v>1382</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.45">
@@ -28696,7 +28450,7 @@
         <v>1022</v>
       </c>
       <c r="B241" t="s">
-        <v>1383</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.45">
@@ -28704,7 +28458,7 @@
         <v>1023</v>
       </c>
       <c r="B242" t="s">
-        <v>1384</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.45">
@@ -28712,7 +28466,7 @@
         <v>1024</v>
       </c>
       <c r="B243" t="s">
-        <v>1385</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.45">
@@ -28720,7 +28474,7 @@
         <v>1025</v>
       </c>
       <c r="B244" t="s">
-        <v>1386</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.45">
@@ -28728,7 +28482,7 @@
         <v>1026</v>
       </c>
       <c r="B245" t="s">
-        <v>1387</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.45">
@@ -28880,7 +28634,7 @@
         <v>1046</v>
       </c>
       <c r="B264" t="s">
-        <v>1377</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.45">
@@ -28888,7 +28642,7 @@
         <v>1047</v>
       </c>
       <c r="B265" t="s">
-        <v>1378</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.45">
@@ -29056,7 +28810,7 @@
         <v>197</v>
       </c>
       <c r="B286" t="s">
-        <v>1403</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.45">
@@ -29240,7 +28994,7 @@
         <v>451</v>
       </c>
       <c r="B309" t="s">
-        <v>1401</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.45">
@@ -29272,7 +29026,7 @@
         <v>455</v>
       </c>
       <c r="B313" t="s">
-        <v>1389</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.45">
@@ -29368,7 +29122,7 @@
         <v>466</v>
       </c>
       <c r="B325" t="s">
-        <v>1388</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.45">
@@ -29456,7 +29210,7 @@
         <v>477</v>
       </c>
       <c r="B336" t="s">
-        <v>1404</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.45">
@@ -30979,7 +30733,7 @@
         <v>413</v>
       </c>
       <c r="B106" t="s">
-        <v>1400</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
@@ -31011,7 +30765,7 @@
         <v>417</v>
       </c>
       <c r="B110" t="s">
-        <v>1390</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -31019,7 +30773,7 @@
         <v>418</v>
       </c>
       <c r="B111" t="s">
-        <v>1391</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -31027,7 +30781,7 @@
         <v>419</v>
       </c>
       <c r="B112" t="s">
-        <v>1392</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -31035,7 +30789,7 @@
         <v>420</v>
       </c>
       <c r="B113" t="s">
-        <v>1386</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -31043,7 +30797,7 @@
         <v>421</v>
       </c>
       <c r="B114" t="s">
-        <v>1393</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -31051,7 +30805,7 @@
         <v>422</v>
       </c>
       <c r="B115" t="s">
-        <v>1394</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -31059,7 +30813,7 @@
         <v>423</v>
       </c>
       <c r="B116" t="s">
-        <v>1395</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -31067,7 +30821,7 @@
         <v>424</v>
       </c>
       <c r="B117" t="s">
-        <v>1380</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -31075,7 +30829,7 @@
         <v>425</v>
       </c>
       <c r="B118" t="s">
-        <v>1396</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
@@ -31083,7 +30837,7 @@
         <v>426</v>
       </c>
       <c r="B119" t="s">
-        <v>1397</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -31091,7 +30845,7 @@
         <v>427</v>
       </c>
       <c r="B120" t="s">
-        <v>1398</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
@@ -31275,7 +31029,7 @@
         <v>451</v>
       </c>
       <c r="B143" t="s">
-        <v>1401</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
@@ -31307,7 +31061,7 @@
         <v>455</v>
       </c>
       <c r="B147" t="s">
-        <v>1389</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
@@ -31403,7 +31157,7 @@
         <v>466</v>
       </c>
       <c r="B159" t="s">
-        <v>1388</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
@@ -31491,7 +31245,7 @@
         <v>477</v>
       </c>
       <c r="B170" t="s">
-        <v>1404</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
@@ -32469,7 +32223,7 @@
         <v>1169</v>
       </c>
       <c r="D19" t="s">
-        <v>1402</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -32483,7 +32237,7 @@
         <v>1162</v>
       </c>
       <c r="D20" t="s">
-        <v>1402</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -35033,10 +34787,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB4B1FA-6628-4BA2-9F29-B27CBB154F46}">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:A120"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -35044,840 +34798,609 @@
     <col min="1" max="1" width="36.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1171</v>
       </c>
-      <c r="B3" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>1172</v>
       </c>
-      <c r="B7" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>1173</v>
       </c>
-      <c r="B11" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
         <v>1274</v>
       </c>
-      <c r="B14" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
         <v>1275</v>
       </c>
-      <c r="B15" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
         <v>1276</v>
       </c>
-      <c r="B35" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
         <v>1277</v>
       </c>
-      <c r="B36" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
         <v>1278</v>
       </c>
-      <c r="B37" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
         <v>1284</v>
       </c>
-      <c r="B38" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>1334</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>229</v>
       </c>
-      <c r="B92" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B93" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B94" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B95" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B96" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B97" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B98" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B99" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B100" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B101" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B102" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B103" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B104" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B105" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B106" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B107" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B108" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B109" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B110" t="s">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B111" t="s">
-        <v>1296</v>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>1322</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A484">
-    <sortCondition ref="A2:A484"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A481">
+    <sortCondition ref="A2:A481"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB67827-4EC8-4D13-8FB6-4030E13FE351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA60583-4088-470E-8BCD-B761A1D7456A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="3" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="1851" yWindow="1851" windowWidth="24686" windowHeight="13149" activeTab="1" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
-    <sheet name="All_vars" sheetId="1" r:id="rId2"/>
-    <sheet name="survey_1" sheetId="2" r:id="rId3"/>
-    <sheet name="survey_2" sheetId="3" r:id="rId4"/>
+    <sheet name="survey_2" sheetId="3" r:id="rId2"/>
+    <sheet name="All_vars" sheetId="1" r:id="rId3"/>
+    <sheet name="survey_1" sheetId="2" r:id="rId4"/>
     <sheet name="locations" sheetId="5" r:id="rId5"/>
     <sheet name="oldsheet_v2" sheetId="4" r:id="rId6"/>
     <sheet name="remove_vars" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">All_vars!$A$1:$K$650</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">survey_1!$A$1:$G$423</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">survey_2!$A$1:$B$262</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_vars!$A$1:$K$650</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">survey_1!$A$1:$G$423</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey_2!$A$1:$B$258</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="1372">
   <si>
     <t>vars</t>
   </si>
@@ -4017,6 +4017,150 @@
   </si>
   <si>
     <t>part_covid_test_recent</t>
+  </si>
+  <si>
+    <t>qxx1</t>
+  </si>
+  <si>
+    <t>qxx2</t>
+  </si>
+  <si>
+    <t>qzz1</t>
+  </si>
+  <si>
+    <t>qzz2</t>
+  </si>
+  <si>
+    <t>qxx3_scale_1_codes</t>
+  </si>
+  <si>
+    <t>qxx3_scale_2_codes</t>
+  </si>
+  <si>
+    <t>qxx3_scale_3_codes</t>
+  </si>
+  <si>
+    <t>qxx3_scale_4_codes</t>
+  </si>
+  <si>
+    <t>qxx3_scale_1</t>
+  </si>
+  <si>
+    <t>qxx3_scale_2</t>
+  </si>
+  <si>
+    <t>qxx3_scale_3</t>
+  </si>
+  <si>
+    <t>qxx3_scale_4</t>
+  </si>
+  <si>
+    <t>part_vacc</t>
+  </si>
+  <si>
+    <t>part_vacc_doses</t>
+  </si>
+  <si>
+    <t>part_vacc_dose1_date</t>
+  </si>
+  <si>
+    <t>part_vacc_dose2_date</t>
+  </si>
+  <si>
+    <t>part_vacc_dose3_date</t>
+  </si>
+  <si>
+    <t>part_vacc_dose4_date</t>
+  </si>
+  <si>
+    <t>qxx3_scale_5_codes</t>
+  </si>
+  <si>
+    <t>part_vacc_dose5_date</t>
+  </si>
+  <si>
+    <t>qxx3_scale_5</t>
+  </si>
+  <si>
+    <t>part_vacc_dose1_date_dk</t>
+  </si>
+  <si>
+    <t>part_vacc_dose2_date_dk</t>
+  </si>
+  <si>
+    <t>part_vacc_dose3_date_dk</t>
+  </si>
+  <si>
+    <t>part_vacc_dose4_date_dk</t>
+  </si>
+  <si>
+    <t>part_vacc_dose5_date_dk</t>
+  </si>
+  <si>
+    <t>part_vacc_newdose</t>
+  </si>
+  <si>
+    <t>part_vacc_newdose_doses</t>
+  </si>
+  <si>
+    <t>qzz3_scale_1</t>
+  </si>
+  <si>
+    <t>qzz3_scale_2</t>
+  </si>
+  <si>
+    <t>qzz3_scale_3</t>
+  </si>
+  <si>
+    <t>qzz3_scale_4</t>
+  </si>
+  <si>
+    <t>qzz3_scale_5</t>
+  </si>
+  <si>
+    <t>qzz3_scale_1_codes</t>
+  </si>
+  <si>
+    <t>qzz3_scale_2_codes</t>
+  </si>
+  <si>
+    <t>qzz3_scale_3_codes</t>
+  </si>
+  <si>
+    <t>qzz3_scale_4_codes</t>
+  </si>
+  <si>
+    <t>qzz3_scale_5_codes</t>
+  </si>
+  <si>
+    <t>part_vacc_newdose_dose1_date</t>
+  </si>
+  <si>
+    <t>part_vacc_newdose_dose2_date</t>
+  </si>
+  <si>
+    <t>part_vacc_newdose_dose3_date</t>
+  </si>
+  <si>
+    <t>part_vacc_newdose_dose4_date</t>
+  </si>
+  <si>
+    <t>part_vacc_newdose_dose5_date</t>
+  </si>
+  <si>
+    <t>part_vacc_newdose_dose1_date_dk</t>
+  </si>
+  <si>
+    <t>part_vacc_newdose_dose2_date_dk</t>
+  </si>
+  <si>
+    <t>part_vacc_newdose_dose3_date_dk</t>
+  </si>
+  <si>
+    <t>part_vacc_newdose_dose4_date_dk</t>
+  </si>
+  <si>
+    <t>part_vacc_newdose_dose5_date_dk</t>
   </si>
 </sst>
 </file>
@@ -4398,6 +4542,2263 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6804872F-908E-4576-8C9F-D057085582A0}">
+  <dimension ref="A1:B280"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="A271" sqref="A271:C280"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="21.69140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>323</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>325</v>
+      </c>
+      <c r="B19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>327</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>328</v>
+      </c>
+      <c r="B22" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>329</v>
+      </c>
+      <c r="B23" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>330</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>331</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>332</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>333</v>
+      </c>
+      <c r="B27" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>334</v>
+      </c>
+      <c r="B28" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>335</v>
+      </c>
+      <c r="B29" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>337</v>
+      </c>
+      <c r="B30" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>339</v>
+      </c>
+      <c r="B31" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>341</v>
+      </c>
+      <c r="B32" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B33" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>345</v>
+      </c>
+      <c r="B34" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>347</v>
+      </c>
+      <c r="B35" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>348</v>
+      </c>
+      <c r="B36" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>349</v>
+      </c>
+      <c r="B37" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>355</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>350</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>351</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>352</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>353</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>354</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>360</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>356</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>357</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>358</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>359</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>365</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>361</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>362</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>363</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>364</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>370</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>366</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>367</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>368</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>369</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>375</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>371</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>372</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>373</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>374</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>376</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>377</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>378</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>379</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>380</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>381</v>
+      </c>
+      <c r="B69" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>382</v>
+      </c>
+      <c r="B70" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>383</v>
+      </c>
+      <c r="B71" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>384</v>
+      </c>
+      <c r="B72" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>599</v>
+      </c>
+      <c r="B73" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>601</v>
+      </c>
+      <c r="B74" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>603</v>
+      </c>
+      <c r="B75" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>605</v>
+      </c>
+      <c r="B76" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>385</v>
+      </c>
+      <c r="B77" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>386</v>
+      </c>
+      <c r="B78" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>387</v>
+      </c>
+      <c r="B79" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>388</v>
+      </c>
+      <c r="B80" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>389</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>390</v>
+      </c>
+      <c r="B82" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>391</v>
+      </c>
+      <c r="B83" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>392</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>393</v>
+      </c>
+      <c r="B85" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>394</v>
+      </c>
+      <c r="B86" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>395</v>
+      </c>
+      <c r="B87" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>396</v>
+      </c>
+      <c r="B88" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>397</v>
+      </c>
+      <c r="B89" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>398</v>
+      </c>
+      <c r="B90" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>399</v>
+      </c>
+      <c r="B91" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>400</v>
+      </c>
+      <c r="B92" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>401</v>
+      </c>
+      <c r="B93" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>402</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>403</v>
+      </c>
+      <c r="B95" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>405</v>
+      </c>
+      <c r="B96" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>406</v>
+      </c>
+      <c r="B97" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B98" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B99" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>407</v>
+      </c>
+      <c r="B100" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>408</v>
+      </c>
+      <c r="B101" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>409</v>
+      </c>
+      <c r="B102" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>410</v>
+      </c>
+      <c r="B103" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>411</v>
+      </c>
+      <c r="B104" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>412</v>
+      </c>
+      <c r="B105" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>413</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>414</v>
+      </c>
+      <c r="B107" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>415</v>
+      </c>
+      <c r="B108" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>416</v>
+      </c>
+      <c r="B109" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>417</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>418</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>419</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>420</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>421</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>422</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>423</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>424</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>425</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>426</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>427</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>428</v>
+      </c>
+      <c r="B121" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>429</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>431</v>
+      </c>
+      <c r="B123" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>432</v>
+      </c>
+      <c r="B124" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>433</v>
+      </c>
+      <c r="B125" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>434</v>
+      </c>
+      <c r="B126" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>435</v>
+      </c>
+      <c r="B127" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>436</v>
+      </c>
+      <c r="B128" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>437</v>
+      </c>
+      <c r="B129" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>438</v>
+      </c>
+      <c r="B130" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>439</v>
+      </c>
+      <c r="B131" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>440</v>
+      </c>
+      <c r="B132" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>441</v>
+      </c>
+      <c r="B133" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>442</v>
+      </c>
+      <c r="B134" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>443</v>
+      </c>
+      <c r="B135" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>444</v>
+      </c>
+      <c r="B136" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>445</v>
+      </c>
+      <c r="B137" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>446</v>
+      </c>
+      <c r="B138" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>447</v>
+      </c>
+      <c r="B139" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>448</v>
+      </c>
+      <c r="B140" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>449</v>
+      </c>
+      <c r="B141" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>450</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>451</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>452</v>
+      </c>
+      <c r="B144" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>453</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>454</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>455</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>456</v>
+      </c>
+      <c r="B148" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>457</v>
+      </c>
+      <c r="B149" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>458</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>459</v>
+      </c>
+      <c r="B151" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>460</v>
+      </c>
+      <c r="B152" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>461</v>
+      </c>
+      <c r="B153" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>462</v>
+      </c>
+      <c r="B154" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B155" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
+        <v>463</v>
+      </c>
+      <c r="B156" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>464</v>
+      </c>
+      <c r="B157" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>465</v>
+      </c>
+      <c r="B158" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
+        <v>466</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>467</v>
+      </c>
+      <c r="B160" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>468</v>
+      </c>
+      <c r="B161" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>469</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
+        <v>470</v>
+      </c>
+      <c r="B163" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>471</v>
+      </c>
+      <c r="B164" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>472</v>
+      </c>
+      <c r="B165" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>473</v>
+      </c>
+      <c r="B166" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>474</v>
+      </c>
+      <c r="B167" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
+        <v>475</v>
+      </c>
+      <c r="B168" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
+        <v>476</v>
+      </c>
+      <c r="B169" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
+        <v>477</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
+        <v>479</v>
+      </c>
+      <c r="B171" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>480</v>
+      </c>
+      <c r="B172" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173" t="s">
+        <v>481</v>
+      </c>
+      <c r="B173" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>482</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>483</v>
+      </c>
+      <c r="B175" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>484</v>
+      </c>
+      <c r="B176" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
+        <v>485</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
+        <v>486</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179" t="s">
+        <v>487</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
+        <v>488</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
+        <v>489</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
+        <v>490</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A183" t="s">
+        <v>491</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A184" t="s">
+        <v>492</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>493</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A186" t="s">
+        <v>982</v>
+      </c>
+      <c r="B186" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
+        <v>983</v>
+      </c>
+      <c r="B187" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
+        <v>984</v>
+      </c>
+      <c r="B188" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A189" t="s">
+        <v>495</v>
+      </c>
+      <c r="B189" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A190" t="s">
+        <v>986</v>
+      </c>
+      <c r="B190" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A191" t="s">
+        <v>987</v>
+      </c>
+      <c r="B191" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A192" t="s">
+        <v>988</v>
+      </c>
+      <c r="B192" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A193" t="s">
+        <v>497</v>
+      </c>
+      <c r="B193" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A194" t="s">
+        <v>990</v>
+      </c>
+      <c r="B194" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A195" t="s">
+        <v>991</v>
+      </c>
+      <c r="B195" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A196" t="s">
+        <v>992</v>
+      </c>
+      <c r="B196" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A197" t="s">
+        <v>499</v>
+      </c>
+      <c r="B197" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A198" t="s">
+        <v>500</v>
+      </c>
+      <c r="B198" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A199" t="s">
+        <v>501</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A200" t="s">
+        <v>502</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A201" t="s">
+        <v>503</v>
+      </c>
+      <c r="B201" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A202" t="s">
+        <v>504</v>
+      </c>
+      <c r="B202" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A203" t="s">
+        <v>512</v>
+      </c>
+      <c r="B203" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A204" t="s">
+        <v>505</v>
+      </c>
+      <c r="B204" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A205" t="s">
+        <v>506</v>
+      </c>
+      <c r="B205" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A206" t="s">
+        <v>507</v>
+      </c>
+      <c r="B206" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A207" t="s">
+        <v>508</v>
+      </c>
+      <c r="B207" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A208" t="s">
+        <v>509</v>
+      </c>
+      <c r="B208" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A209" t="s">
+        <v>510</v>
+      </c>
+      <c r="B209" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A210" t="s">
+        <v>511</v>
+      </c>
+      <c r="B210" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A211" t="s">
+        <v>517</v>
+      </c>
+      <c r="B211" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A212" t="s">
+        <v>513</v>
+      </c>
+      <c r="B212" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A213" t="s">
+        <v>514</v>
+      </c>
+      <c r="B213" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A214" t="s">
+        <v>515</v>
+      </c>
+      <c r="B214" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A215" t="s">
+        <v>518</v>
+      </c>
+      <c r="B215" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A216" t="s">
+        <v>519</v>
+      </c>
+      <c r="B216" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A217" t="s">
+        <v>521</v>
+      </c>
+      <c r="B217" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A218" t="s">
+        <v>520</v>
+      </c>
+      <c r="B218" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A219" t="s">
+        <v>522</v>
+      </c>
+      <c r="B219" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A220" t="s">
+        <v>523</v>
+      </c>
+      <c r="B220" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A221" t="s">
+        <v>524</v>
+      </c>
+      <c r="B221" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A222" t="s">
+        <v>525</v>
+      </c>
+      <c r="B222" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A223" t="s">
+        <v>526</v>
+      </c>
+      <c r="B223" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A224" t="s">
+        <v>527</v>
+      </c>
+      <c r="B224" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A225" t="s">
+        <v>528</v>
+      </c>
+      <c r="B225" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A226" t="s">
+        <v>529</v>
+      </c>
+      <c r="B226" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A227" t="s">
+        <v>530</v>
+      </c>
+      <c r="B227" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A228" t="s">
+        <v>531</v>
+      </c>
+      <c r="B228" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A229" t="s">
+        <v>532</v>
+      </c>
+      <c r="B229" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A230" t="s">
+        <v>533</v>
+      </c>
+      <c r="B230" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A231" t="s">
+        <v>534</v>
+      </c>
+      <c r="B231" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A232" t="s">
+        <v>536</v>
+      </c>
+      <c r="B232" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A233" t="s">
+        <v>538</v>
+      </c>
+      <c r="B233" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A234" t="s">
+        <v>540</v>
+      </c>
+      <c r="B234" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A235" t="s">
+        <v>542</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A236" t="s">
+        <v>290</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A237" t="s">
+        <v>291</v>
+      </c>
+      <c r="B237" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A238" t="s">
+        <v>292</v>
+      </c>
+      <c r="B238" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A239" t="s">
+        <v>293</v>
+      </c>
+      <c r="B239" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A240" t="s">
+        <v>545</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A241" t="s">
+        <v>294</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A242" t="s">
+        <v>295</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A243" t="s">
+        <v>296</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A244" t="s">
+        <v>297</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A245" t="s">
+        <v>547</v>
+      </c>
+      <c r="B245" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A246" t="s">
+        <v>298</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A247" t="s">
+        <v>548</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A248" t="s">
+        <v>299</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A249" t="s">
+        <v>300</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A250" t="s">
+        <v>549</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A251" t="s">
+        <v>550</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A252" t="s">
+        <v>551</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A253" t="s">
+        <v>552</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A254" t="s">
+        <v>553</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A255" t="s">
+        <v>554</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A256" t="s">
+        <v>555</v>
+      </c>
+      <c r="B256" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A257" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A258" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A259" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A260" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A261" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A262" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A263" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A264" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A265" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A266" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A267" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A268" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A269" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A270" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A271" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A272" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A273" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A274" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A275" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A276" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A277" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A278" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A279" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A280" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DB8823-33FC-4C68-8AB1-65768017318F}">
   <dimension ref="A1:K650"/>
   <sheetViews>
@@ -26514,11 +28915,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1C5985-D720-4533-B6F5-A2816F80F2F5}">
   <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView topLeftCell="A294" workbookViewId="0">
+    <sheetView topLeftCell="A385" workbookViewId="0">
       <selection activeCell="B336" sqref="B336"/>
     </sheetView>
   </sheetViews>
@@ -29878,2071 +32279,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6804872F-908E-4576-8C9F-D057085582A0}">
-  <dimension ref="A1:B256"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="21.69140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>312</v>
-      </c>
-      <c r="B8" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>314</v>
-      </c>
-      <c r="B9" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>315</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>319</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>320</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>321</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>323</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>324</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>325</v>
-      </c>
-      <c r="B19" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>326</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>327</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>328</v>
-      </c>
-      <c r="B22" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>329</v>
-      </c>
-      <c r="B23" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>330</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>331</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>332</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>333</v>
-      </c>
-      <c r="B27" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>334</v>
-      </c>
-      <c r="B28" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>335</v>
-      </c>
-      <c r="B29" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>337</v>
-      </c>
-      <c r="B30" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>339</v>
-      </c>
-      <c r="B31" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>341</v>
-      </c>
-      <c r="B32" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>343</v>
-      </c>
-      <c r="B33" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>345</v>
-      </c>
-      <c r="B34" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>347</v>
-      </c>
-      <c r="B35" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>348</v>
-      </c>
-      <c r="B36" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>349</v>
-      </c>
-      <c r="B37" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>355</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>350</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>351</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>352</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>353</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>354</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>360</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>356</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>357</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>358</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>359</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>365</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>361</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>362</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>363</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>364</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>370</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>366</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>367</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>368</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>369</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>375</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>371</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>372</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>373</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>374</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>376</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>377</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>378</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>379</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>380</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>381</v>
-      </c>
-      <c r="B69" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>382</v>
-      </c>
-      <c r="B70" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>383</v>
-      </c>
-      <c r="B71" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>384</v>
-      </c>
-      <c r="B72" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>599</v>
-      </c>
-      <c r="B73" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>601</v>
-      </c>
-      <c r="B74" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>603</v>
-      </c>
-      <c r="B75" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
-        <v>605</v>
-      </c>
-      <c r="B76" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>385</v>
-      </c>
-      <c r="B77" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
-        <v>386</v>
-      </c>
-      <c r="B78" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>387</v>
-      </c>
-      <c r="B79" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
-        <v>388</v>
-      </c>
-      <c r="B80" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
-        <v>389</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>390</v>
-      </c>
-      <c r="B82" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
-        <v>391</v>
-      </c>
-      <c r="B83" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
-        <v>392</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
-        <v>393</v>
-      </c>
-      <c r="B85" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>394</v>
-      </c>
-      <c r="B86" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
-        <v>395</v>
-      </c>
-      <c r="B87" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>396</v>
-      </c>
-      <c r="B88" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>397</v>
-      </c>
-      <c r="B89" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>398</v>
-      </c>
-      <c r="B90" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>399</v>
-      </c>
-      <c r="B91" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
-        <v>400</v>
-      </c>
-      <c r="B92" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
-        <v>401</v>
-      </c>
-      <c r="B93" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
-        <v>402</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
-        <v>403</v>
-      </c>
-      <c r="B95" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>405</v>
-      </c>
-      <c r="B96" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
-        <v>406</v>
-      </c>
-      <c r="B97" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B98" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B99" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>407</v>
-      </c>
-      <c r="B100" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>408</v>
-      </c>
-      <c r="B101" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>409</v>
-      </c>
-      <c r="B102" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
-        <v>410</v>
-      </c>
-      <c r="B103" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
-        <v>411</v>
-      </c>
-      <c r="B104" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
-        <v>412</v>
-      </c>
-      <c r="B105" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
-        <v>413</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
-        <v>414</v>
-      </c>
-      <c r="B107" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
-        <v>415</v>
-      </c>
-      <c r="B108" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
-        <v>416</v>
-      </c>
-      <c r="B109" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
-        <v>417</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
-        <v>418</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
-        <v>419</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
-        <v>420</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
-        <v>421</v>
-      </c>
-      <c r="B114" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
-        <v>422</v>
-      </c>
-      <c r="B115" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
-        <v>423</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
-        <v>424</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A118" t="s">
-        <v>425</v>
-      </c>
-      <c r="B118" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
-        <v>426</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
-        <v>427</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
-        <v>428</v>
-      </c>
-      <c r="B121" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
-        <v>429</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
-        <v>431</v>
-      </c>
-      <c r="B123" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
-        <v>432</v>
-      </c>
-      <c r="B124" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
-        <v>433</v>
-      </c>
-      <c r="B125" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
-        <v>434</v>
-      </c>
-      <c r="B126" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
-        <v>435</v>
-      </c>
-      <c r="B127" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A128" t="s">
-        <v>436</v>
-      </c>
-      <c r="B128" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
-        <v>437</v>
-      </c>
-      <c r="B129" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
-        <v>438</v>
-      </c>
-      <c r="B130" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
-        <v>439</v>
-      </c>
-      <c r="B131" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
-        <v>440</v>
-      </c>
-      <c r="B132" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
-        <v>441</v>
-      </c>
-      <c r="B133" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
-        <v>442</v>
-      </c>
-      <c r="B134" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
-        <v>443</v>
-      </c>
-      <c r="B135" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A136" t="s">
-        <v>444</v>
-      </c>
-      <c r="B136" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
-        <v>445</v>
-      </c>
-      <c r="B137" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
-        <v>446</v>
-      </c>
-      <c r="B138" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
-        <v>447</v>
-      </c>
-      <c r="B139" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A140" t="s">
-        <v>448</v>
-      </c>
-      <c r="B140" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A141" t="s">
-        <v>449</v>
-      </c>
-      <c r="B141" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A142" t="s">
-        <v>450</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
-        <v>451</v>
-      </c>
-      <c r="B143" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A144" t="s">
-        <v>452</v>
-      </c>
-      <c r="B144" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
-        <v>453</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
-        <v>454</v>
-      </c>
-      <c r="B146" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A147" t="s">
-        <v>455</v>
-      </c>
-      <c r="B147" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A148" t="s">
-        <v>456</v>
-      </c>
-      <c r="B148" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A149" t="s">
-        <v>457</v>
-      </c>
-      <c r="B149" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A150" t="s">
-        <v>458</v>
-      </c>
-      <c r="B150" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A151" t="s">
-        <v>459</v>
-      </c>
-      <c r="B151" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A152" t="s">
-        <v>460</v>
-      </c>
-      <c r="B152" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A153" t="s">
-        <v>461</v>
-      </c>
-      <c r="B153" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A154" t="s">
-        <v>462</v>
-      </c>
-      <c r="B154" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A155" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B155" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A156" t="s">
-        <v>463</v>
-      </c>
-      <c r="B156" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A157" t="s">
-        <v>464</v>
-      </c>
-      <c r="B157" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A158" t="s">
-        <v>465</v>
-      </c>
-      <c r="B158" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A159" t="s">
-        <v>466</v>
-      </c>
-      <c r="B159" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A160" t="s">
-        <v>467</v>
-      </c>
-      <c r="B160" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A161" t="s">
-        <v>468</v>
-      </c>
-      <c r="B161" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A162" t="s">
-        <v>469</v>
-      </c>
-      <c r="B162" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A163" t="s">
-        <v>470</v>
-      </c>
-      <c r="B163" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A164" t="s">
-        <v>471</v>
-      </c>
-      <c r="B164" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A165" t="s">
-        <v>472</v>
-      </c>
-      <c r="B165" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A166" t="s">
-        <v>473</v>
-      </c>
-      <c r="B166" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A167" t="s">
-        <v>474</v>
-      </c>
-      <c r="B167" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A168" t="s">
-        <v>475</v>
-      </c>
-      <c r="B168" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A169" t="s">
-        <v>476</v>
-      </c>
-      <c r="B169" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A170" t="s">
-        <v>477</v>
-      </c>
-      <c r="B170" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A171" t="s">
-        <v>479</v>
-      </c>
-      <c r="B171" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A172" t="s">
-        <v>480</v>
-      </c>
-      <c r="B172" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A173" t="s">
-        <v>481</v>
-      </c>
-      <c r="B173" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A174" t="s">
-        <v>482</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A175" t="s">
-        <v>483</v>
-      </c>
-      <c r="B175" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A176" t="s">
-        <v>484</v>
-      </c>
-      <c r="B176" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A177" t="s">
-        <v>485</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A178" t="s">
-        <v>486</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A179" t="s">
-        <v>487</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A180" t="s">
-        <v>488</v>
-      </c>
-      <c r="B180" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A181" t="s">
-        <v>489</v>
-      </c>
-      <c r="B181" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A182" t="s">
-        <v>490</v>
-      </c>
-      <c r="B182" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A183" t="s">
-        <v>491</v>
-      </c>
-      <c r="B183" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A184" t="s">
-        <v>492</v>
-      </c>
-      <c r="B184" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A185" t="s">
-        <v>493</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A186" t="s">
-        <v>982</v>
-      </c>
-      <c r="B186" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A187" t="s">
-        <v>983</v>
-      </c>
-      <c r="B187" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A188" t="s">
-        <v>984</v>
-      </c>
-      <c r="B188" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A189" t="s">
-        <v>495</v>
-      </c>
-      <c r="B189" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A190" t="s">
-        <v>986</v>
-      </c>
-      <c r="B190" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A191" t="s">
-        <v>987</v>
-      </c>
-      <c r="B191" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A192" t="s">
-        <v>988</v>
-      </c>
-      <c r="B192" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A193" t="s">
-        <v>497</v>
-      </c>
-      <c r="B193" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A194" t="s">
-        <v>990</v>
-      </c>
-      <c r="B194" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A195" t="s">
-        <v>991</v>
-      </c>
-      <c r="B195" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A196" t="s">
-        <v>992</v>
-      </c>
-      <c r="B196" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A197" t="s">
-        <v>499</v>
-      </c>
-      <c r="B197" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A198" t="s">
-        <v>500</v>
-      </c>
-      <c r="B198" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A199" t="s">
-        <v>501</v>
-      </c>
-      <c r="B199" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A200" t="s">
-        <v>502</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A201" t="s">
-        <v>503</v>
-      </c>
-      <c r="B201" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A202" t="s">
-        <v>504</v>
-      </c>
-      <c r="B202" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A203" t="s">
-        <v>512</v>
-      </c>
-      <c r="B203" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A204" t="s">
-        <v>505</v>
-      </c>
-      <c r="B204" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A205" t="s">
-        <v>506</v>
-      </c>
-      <c r="B205" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A206" t="s">
-        <v>507</v>
-      </c>
-      <c r="B206" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A207" t="s">
-        <v>508</v>
-      </c>
-      <c r="B207" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A208" t="s">
-        <v>509</v>
-      </c>
-      <c r="B208" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A209" t="s">
-        <v>510</v>
-      </c>
-      <c r="B209" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A210" t="s">
-        <v>511</v>
-      </c>
-      <c r="B210" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A211" t="s">
-        <v>517</v>
-      </c>
-      <c r="B211" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A212" t="s">
-        <v>513</v>
-      </c>
-      <c r="B212" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A213" t="s">
-        <v>514</v>
-      </c>
-      <c r="B213" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A214" t="s">
-        <v>515</v>
-      </c>
-      <c r="B214" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A215" t="s">
-        <v>518</v>
-      </c>
-      <c r="B215" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A216" t="s">
-        <v>519</v>
-      </c>
-      <c r="B216" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A217" t="s">
-        <v>521</v>
-      </c>
-      <c r="B217" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A218" t="s">
-        <v>520</v>
-      </c>
-      <c r="B218" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A219" t="s">
-        <v>522</v>
-      </c>
-      <c r="B219" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A220" t="s">
-        <v>523</v>
-      </c>
-      <c r="B220" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A221" t="s">
-        <v>524</v>
-      </c>
-      <c r="B221" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A222" t="s">
-        <v>525</v>
-      </c>
-      <c r="B222" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A223" t="s">
-        <v>526</v>
-      </c>
-      <c r="B223" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A224" t="s">
-        <v>527</v>
-      </c>
-      <c r="B224" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A225" t="s">
-        <v>528</v>
-      </c>
-      <c r="B225" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A226" t="s">
-        <v>529</v>
-      </c>
-      <c r="B226" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A227" t="s">
-        <v>530</v>
-      </c>
-      <c r="B227" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A228" t="s">
-        <v>531</v>
-      </c>
-      <c r="B228" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A229" t="s">
-        <v>532</v>
-      </c>
-      <c r="B229" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A230" t="s">
-        <v>533</v>
-      </c>
-      <c r="B230" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A231" t="s">
-        <v>534</v>
-      </c>
-      <c r="B231" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A232" t="s">
-        <v>536</v>
-      </c>
-      <c r="B232" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A233" t="s">
-        <v>538</v>
-      </c>
-      <c r="B233" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A234" t="s">
-        <v>540</v>
-      </c>
-      <c r="B234" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A235" t="s">
-        <v>542</v>
-      </c>
-      <c r="B235" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A236" t="s">
-        <v>290</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A237" t="s">
-        <v>291</v>
-      </c>
-      <c r="B237" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A238" t="s">
-        <v>292</v>
-      </c>
-      <c r="B238" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A239" t="s">
-        <v>293</v>
-      </c>
-      <c r="B239" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A240" t="s">
-        <v>545</v>
-      </c>
-      <c r="B240" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A241" t="s">
-        <v>294</v>
-      </c>
-      <c r="B241" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A242" t="s">
-        <v>295</v>
-      </c>
-      <c r="B242" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A243" t="s">
-        <v>296</v>
-      </c>
-      <c r="B243" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A244" t="s">
-        <v>297</v>
-      </c>
-      <c r="B244" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A245" t="s">
-        <v>547</v>
-      </c>
-      <c r="B245" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A246" t="s">
-        <v>298</v>
-      </c>
-      <c r="B246" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A247" t="s">
-        <v>548</v>
-      </c>
-      <c r="B247" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A248" t="s">
-        <v>299</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A249" t="s">
-        <v>300</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A250" t="s">
-        <v>549</v>
-      </c>
-      <c r="B250" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A251" t="s">
-        <v>550</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A252" t="s">
-        <v>551</v>
-      </c>
-      <c r="B252" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A253" t="s">
-        <v>552</v>
-      </c>
-      <c r="B253" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A254" t="s">
-        <v>553</v>
-      </c>
-      <c r="B254" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A255" t="s">
-        <v>554</v>
-      </c>
-      <c r="B255" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A256" t="s">
-        <v>555</v>
-      </c>
-      <c r="B256" t="s">
-        <v>555</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98259637-6C07-48EC-A7BC-1B10B6B556B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE27C3D-4E53-4D93-9663-F7296DEA74E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="4" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="5" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3714" uniqueCount="1344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="1344">
   <si>
     <t>be01edu_me</t>
   </si>
@@ -4125,10 +4125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -13526,2331 +13525,2329 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837411D0-7592-4667-8DD0-A212016903E8}">
   <dimension ref="A1:B298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B298"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="3" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="3" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="3" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="3" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="3" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="3" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="3" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="3" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="3" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="3" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="3" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="3" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="3" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="3" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="3" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="3" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="3" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="3" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="3" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="3" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="3" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="3" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="3" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="3" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="3" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="3" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="3" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="3" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="3" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="3" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="3" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="3" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="3" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="3" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="3" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="3" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="3" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="3" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="3" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="3" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="3" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="3" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="3" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="3" t="s">
         <v>1154</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="3" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="3" t="s">
         <v>1156</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="3" t="s">
         <v>1150</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="3" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="3" t="s">
         <v>1158</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="3" t="s">
         <v>1159</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="3" t="s">
         <v>1144</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="3" t="s">
         <v>1160</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="3" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="3" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="3" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="3" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="3" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="3" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="3" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="3" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="3" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="3" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="3" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="3" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="3" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="3" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="3" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="3" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="3" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="3" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="3" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="3" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="3" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="3" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="3" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="3" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="3" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A110" s="6" t="s">
+      <c r="A110" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B110" s="6"/>
+      <c r="B110" s="3"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="3" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="3" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B113" s="6"/>
+      <c r="B113" s="3"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B114" s="6"/>
+      <c r="B114" s="3"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="3" t="s">
         <v>1153</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="3" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="3" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B118" s="6"/>
+      <c r="B118" s="3"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="3" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="3" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="3" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A122" s="6" t="s">
+      <c r="A122" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="3" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="3" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A124" s="6" t="s">
+      <c r="A124" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="3" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="3" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A126" s="6" t="s">
+      <c r="A126" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="3" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A127" s="6" t="s">
+      <c r="A127" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="3" t="s">
         <v>1152</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A128" s="6" t="s">
+      <c r="A128" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="3" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="3" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A130" s="6" t="s">
+      <c r="A130" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="3" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A131" s="6" t="s">
+      <c r="A131" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="3" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="3" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="3" t="s">
         <v>1236</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="3" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="3" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="3" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="3" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="3" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="3" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="3" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="3" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="3" t="s">
         <v>1168</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="3" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A143" s="6" t="s">
+      <c r="A143" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="3" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A144" s="6" t="s">
+      <c r="A144" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="3" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="3" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="3" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A147" s="6" t="s">
+      <c r="A147" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="3" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A148" s="6" t="s">
+      <c r="A148" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="3" t="s">
         <v>1240</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A149" s="6" t="s">
+      <c r="A149" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B149" s="6"/>
+      <c r="B149" s="3"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A150" s="6" t="s">
+      <c r="A150" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="3" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A151" s="6" t="s">
+      <c r="A151" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="3" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A152" s="6" t="s">
+      <c r="A152" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="3" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="3" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A154" s="6" t="s">
+      <c r="A154" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="3" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="3" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A156" s="6" t="s">
+      <c r="A156" s="3" t="s">
         <v>1244</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="3" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A157" s="6" t="s">
+      <c r="A157" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="2" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A158" s="6" t="s">
+      <c r="A158" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="2" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A159" s="6" t="s">
+      <c r="A159" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="3" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A160" s="6" t="s">
+      <c r="A160" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="3" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="3" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="3" t="s">
         <v>1253</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="3" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A163" s="6" t="s">
+      <c r="A163" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="2" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A164" s="6" t="s">
+      <c r="A164" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="2" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="3" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="3" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A167" s="6" t="s">
+      <c r="A167" s="3" t="s">
         <v>1260</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="3" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A168" s="6" t="s">
+      <c r="A168" s="3" t="s">
         <v>1262</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="3" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A169" s="6" t="s">
+      <c r="A169" s="3" t="s">
         <v>1264</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="2" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A170" s="6" t="s">
+      <c r="A170" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="2" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A171" s="6" t="s">
+      <c r="A171" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="3" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A172" s="6" t="s">
+      <c r="A172" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="3" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A173" s="6" t="s">
+      <c r="A173" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="3" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A174" s="6" t="s">
+      <c r="A174" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B174" s="6"/>
+      <c r="B174" s="3"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A175" s="6" t="s">
+      <c r="A175" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B175" s="6"/>
+      <c r="B175" s="3"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A176" s="6" t="s">
+      <c r="A176" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="3" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A177" s="6" t="s">
+      <c r="A177" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="3" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A178" s="6" t="s">
+      <c r="A178" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="3" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A179" s="6" t="s">
+      <c r="A179" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="3" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A180" s="6" t="s">
+      <c r="A180" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" s="3" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A181" s="6" t="s">
+      <c r="A181" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" s="3" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A182" s="6" t="s">
+      <c r="A182" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" s="3" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A183" s="6" t="s">
+      <c r="A183" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B183" s="3" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A184" s="6" t="s">
+      <c r="A184" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" s="3" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A185" s="6" t="s">
+      <c r="A185" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" s="3" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A186" s="6" t="s">
+      <c r="A186" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" s="3" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A187" s="6" t="s">
+      <c r="A187" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" s="3" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A188" s="6" t="s">
+      <c r="A188" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="3" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A189" s="6" t="s">
+      <c r="A189" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="3" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A190" s="6" t="s">
+      <c r="A190" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="3" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A191" s="6" t="s">
+      <c r="A191" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" s="3" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A192" s="6" t="s">
+      <c r="A192" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" s="3" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A193" s="6" t="s">
+      <c r="A193" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B193" s="3" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A194" s="6" t="s">
+      <c r="A194" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B194" s="3" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A195" s="6" t="s">
+      <c r="A195" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B195" s="3" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A196" s="6" t="s">
+      <c r="A196" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B196" s="3" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A197" s="6" t="s">
+      <c r="A197" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B197" s="3" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A198" s="6" t="s">
+      <c r="A198" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B198" s="3" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A199" s="6" t="s">
+      <c r="A199" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="3" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A200" s="6" t="s">
+      <c r="A200" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="3" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A201" s="6" t="s">
+      <c r="A201" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" s="3" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A202" s="6" t="s">
+      <c r="A202" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" s="3" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A203" s="6" t="s">
+      <c r="A203" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B203" s="3" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A204" s="6" t="s">
+      <c r="A204" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B204" s="3" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A205" s="6" t="s">
+      <c r="A205" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B205" s="3" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A206" s="6" t="s">
+      <c r="A206" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B206" s="3" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A207" s="6" t="s">
+      <c r="A207" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B207" s="3" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A208" s="6" t="s">
+      <c r="A208" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="B208" s="3" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A209" s="6" t="s">
+      <c r="A209" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B209" s="3" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A210" s="6" t="s">
+      <c r="A210" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B210" s="6" t="s">
+      <c r="B210" s="3" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A211" s="6" t="s">
+      <c r="A211" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B211" s="3" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A212" s="6" t="s">
+      <c r="A212" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B212" s="6" t="s">
+      <c r="B212" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A213" s="6" t="s">
+      <c r="A213" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B213" s="3" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A214" s="6" t="s">
+      <c r="A214" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="B214" s="3" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A215" s="6" t="s">
+      <c r="A215" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B215" s="6"/>
+      <c r="B215" s="3"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A216" s="6" t="s">
+      <c r="A216" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B216" s="6"/>
+      <c r="B216" s="3"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A217" s="6" t="s">
+      <c r="A217" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B217" s="6"/>
+      <c r="B217" s="3"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A218" s="6" t="s">
+      <c r="A218" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B218" s="6"/>
+      <c r="B218" s="3"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A219" s="6" t="s">
+      <c r="A219" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="B219" s="6"/>
+      <c r="B219" s="3"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A220" s="6" t="s">
+      <c r="A220" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B220" s="6"/>
+      <c r="B220" s="3"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A221" s="6" t="s">
+      <c r="A221" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="B221" s="3" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A222" s="6" t="s">
+      <c r="A222" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B222" s="3" t="s">
         <v>1186</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A223" s="6" t="s">
+      <c r="A223" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="B223" s="3" t="s">
         <v>1187</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A224" s="6" t="s">
+      <c r="A224" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="B224" s="6" t="s">
+      <c r="B224" s="3" t="s">
         <v>1188</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A225" s="6" t="s">
+      <c r="A225" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="B225" s="3" t="s">
         <v>1189</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A226" s="6" t="s">
+      <c r="A226" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="B226" s="3" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A227" s="6" t="s">
+      <c r="A227" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="B227" s="3" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A228" s="6" t="s">
+      <c r="A228" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B228" s="3" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A229" s="6" t="s">
+      <c r="A229" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="B229" s="3" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A230" s="6" t="s">
+      <c r="A230" s="3" t="s">
         <v>1179</v>
       </c>
-      <c r="B230" s="6" t="s">
+      <c r="B230" s="3" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A231" s="6" t="s">
+      <c r="A231" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B231" s="3" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A232" s="6" t="s">
+      <c r="A232" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="B232" s="6" t="s">
+      <c r="B232" s="3" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A233" s="6" t="s">
+      <c r="A233" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="B233" s="3" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A234" s="6" t="s">
+      <c r="A234" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B234" s="3" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A235" s="6" t="s">
+      <c r="A235" s="3" t="s">
         <v>1177</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="B235" s="3" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A236" s="6" t="s">
+      <c r="A236" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="B236" s="6" t="s">
+      <c r="B236" s="3" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A237" s="6" t="s">
+      <c r="A237" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="B237" s="6" t="s">
+      <c r="B237" s="3" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A238" s="6" t="s">
+      <c r="A238" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="B238" s="3" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A239" s="6" t="s">
+      <c r="A239" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="B239" s="6" t="s">
+      <c r="B239" s="3" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A240" s="6" t="s">
+      <c r="A240" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B240" s="3" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A241" s="6" t="s">
+      <c r="A241" s="3" t="s">
         <v>1207</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="B241" s="3" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A242" s="6" t="s">
+      <c r="A242" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B242" s="3" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A243" s="6" t="s">
+      <c r="A243" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="B243" s="3" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A244" s="6" t="s">
+      <c r="A244" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="B244" s="3" t="s">
         <v>1220</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A245" s="6" t="s">
+      <c r="A245" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="B245" s="3" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A246" s="6" t="s">
+      <c r="A246" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="B246" s="3" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A247" s="5" t="s">
+      <c r="A247" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B247" s="6" t="s">
+      <c r="B247" s="3" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A248" s="5" t="s">
+      <c r="A248" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="B248" s="3" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A249" s="5" t="s">
+      <c r="A249" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B249" s="6" t="s">
+      <c r="B249" s="3" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A250" s="5" t="s">
+      <c r="A250" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="B250" s="3" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A251" s="5" t="s">
+      <c r="A251" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B251" s="6" t="s">
+      <c r="B251" s="3" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A252" s="5" t="s">
+      <c r="A252" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B252" s="6" t="s">
+      <c r="B252" s="3" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A253" s="5" t="s">
+      <c r="A253" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B253" s="6" t="s">
+      <c r="B253" s="3" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A254" s="5" t="s">
+      <c r="A254" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B254" s="6" t="s">
+      <c r="B254" s="3" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A255" s="5" t="s">
+      <c r="A255" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B255" s="6" t="s">
+      <c r="B255" s="3" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A256" s="5" t="s">
+      <c r="A256" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B256" s="6" t="s">
+      <c r="B256" s="3" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A257" s="5" t="s">
+      <c r="A257" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B257" s="6" t="s">
+      <c r="B257" s="3" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A258" s="5" t="s">
+      <c r="A258" s="2" t="s">
         <v>1277</v>
       </c>
-      <c r="B258" s="5" t="s">
+      <c r="B258" s="2" t="s">
         <v>1143</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A259" s="5" t="s">
+      <c r="A259" s="2" t="s">
         <v>1278</v>
       </c>
-      <c r="B259" s="5" t="s">
+      <c r="B259" s="2" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A260" s="5" t="s">
+      <c r="A260" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="B260" s="6" t="s">
+      <c r="B260" s="3" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A261" s="5" t="s">
+      <c r="A261" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="B261" s="3" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A262" s="5" t="s">
+      <c r="A262" s="2" t="s">
         <v>1282</v>
       </c>
-      <c r="B262" s="6" t="s">
+      <c r="B262" s="3" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A263" s="5" t="s">
+      <c r="A263" s="2" t="s">
         <v>1284</v>
       </c>
-      <c r="B263" s="5" t="s">
+      <c r="B263" s="2" t="s">
         <v>1144</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A264" s="5" t="s">
+      <c r="A264" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="B264" s="5" t="s">
+      <c r="B264" s="2" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A265" s="5" t="s">
+      <c r="A265" s="2" t="s">
         <v>1286</v>
       </c>
-      <c r="B265" s="5" t="s">
+      <c r="B265" s="2" t="s">
         <v>1146</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A266" s="5" t="s">
+      <c r="A266" s="2" t="s">
         <v>1287</v>
       </c>
-      <c r="B266" s="5" t="s">
+      <c r="B266" s="2" t="s">
         <v>1147</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A267" s="5" t="s">
+      <c r="A267" s="2" t="s">
         <v>1288</v>
       </c>
-      <c r="B267" s="5" t="s">
+      <c r="B267" s="2" t="s">
         <v>1148</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A268" s="5" t="s">
+      <c r="A268" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="B268" s="5" t="s">
+      <c r="B268" s="2" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A269" s="5" t="s">
+      <c r="A269" s="2" t="s">
         <v>1290</v>
       </c>
-      <c r="B269" s="5" t="s">
+      <c r="B269" s="2" t="s">
         <v>1150</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A270" s="5" t="s">
+      <c r="A270" s="2" t="s">
         <v>1291</v>
       </c>
-      <c r="B270" s="5" t="s">
+      <c r="B270" s="2" t="s">
         <v>1151</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A272" s="5" t="s">
+      <c r="A272" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B272" s="5" t="s">
+      <c r="B272" s="2" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A273" s="5" t="s">
+      <c r="A273" s="2" t="s">
         <v>1293</v>
       </c>
-      <c r="B273" s="5" t="s">
+      <c r="B273" s="2" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A274" s="5" t="s">
+      <c r="A274" s="2" t="s">
         <v>1295</v>
       </c>
-      <c r="B274" s="5" t="s">
+      <c r="B274" s="2" t="s">
         <v>1296</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A275" s="5" t="s">
+      <c r="A275" s="2" t="s">
         <v>1297</v>
       </c>
-      <c r="B275" s="5" t="s">
+      <c r="B275" s="2" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A276" s="5" t="s">
+      <c r="A276" s="2" t="s">
         <v>1299</v>
       </c>
-      <c r="B276" s="5" t="s">
+      <c r="B276" s="2" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A277" s="5" t="s">
+      <c r="A277" s="2" t="s">
         <v>1301</v>
       </c>
-      <c r="B277" s="5" t="s">
+      <c r="B277" s="2" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A278" s="5" t="s">
+      <c r="A278" s="2" t="s">
         <v>1303</v>
       </c>
-      <c r="B278" s="5" t="s">
+      <c r="B278" s="2" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A279" s="5" t="s">
+      <c r="A279" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="B279" s="5" t="s">
+      <c r="B279" s="2" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A280" s="5" t="s">
+      <c r="A280" s="2" t="s">
         <v>1307</v>
       </c>
-      <c r="B280" s="5" t="s">
+      <c r="B280" s="2" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A281" s="5" t="s">
+      <c r="A281" s="2" t="s">
         <v>1309</v>
       </c>
-      <c r="B281" s="5" t="s">
+      <c r="B281" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A282" s="5" t="s">
+      <c r="A282" s="2" t="s">
         <v>1311</v>
       </c>
-      <c r="B282" s="5" t="s">
+      <c r="B282" s="2" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A283" s="5" t="s">
+      <c r="A283" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B283" s="5" t="s">
+      <c r="B283" s="2" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A284" s="5" t="s">
+      <c r="A284" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B284" s="5" t="s">
+      <c r="B284" s="2" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A285" s="5" t="s">
+      <c r="A285" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B285" s="5" t="s">
+      <c r="B285" s="2" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A286" s="5" t="s">
+      <c r="A286" s="2" t="s">
         <v>1313</v>
       </c>
-      <c r="B286" s="5" t="s">
+      <c r="B286" s="2" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A287" s="5" t="s">
+      <c r="A287" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B287" s="5" t="s">
+      <c r="B287" s="2" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A288" s="5" t="s">
+      <c r="A288" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B288" s="5" t="s">
+      <c r="B288" s="2" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A289" s="5" t="s">
+      <c r="A289" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B289" s="5" t="s">
+      <c r="B289" s="2" t="s">
         <v>1317</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A290" s="5" t="s">
+      <c r="A290" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B290" s="6" t="s">
+      <c r="B290" s="3" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A291" s="5" t="s">
+      <c r="A291" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B291" s="5" t="s">
+      <c r="B291" s="2" t="s">
         <v>1319</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A292" s="5" t="s">
+      <c r="A292" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B292" s="5" t="s">
+      <c r="B292" s="2" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A293" s="5" t="s">
+      <c r="A293" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B293" s="5" t="s">
+      <c r="B293" s="2" t="s">
         <v>1321</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A294" s="5" t="s">
+      <c r="A294" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B294" s="5" t="s">
+      <c r="B294" s="2" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A295" s="5" t="s">
+      <c r="A295" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B295" s="5" t="s">
+      <c r="B295" s="2" t="s">
         <v>1323</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A296" s="5" t="s">
+      <c r="A296" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B296" s="5" t="s">
+      <c r="B296" s="2" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A297" s="5" t="s">
+      <c r="A297" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B297" s="5" t="s">
+      <c r="B297" s="2" t="s">
         <v>1325</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A298" s="5" t="s">
+      <c r="A298" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="B298" s="5" t="s">
+      <c r="B298" s="2" t="s">
         <v>1327</v>
       </c>
     </row>
@@ -15863,2181 +15860,2335 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A651A7-E2A8-48DC-A289-3ADEDF80FEC9}">
   <dimension ref="A1:B298"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B254"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="4" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="4" t="s">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="4" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="4" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="4" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B42" s="5" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="4" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="4" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B44" s="5" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="4" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B45" s="5" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B46" s="5" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="4" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" s="5" t="s">
         <v>1223</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="4" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B48" s="5" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="4" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" s="5" t="s">
         <v>1225</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B49" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="4" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" s="5" t="s">
         <v>1226</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B50" s="5" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="4" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B51" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="4" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B52" s="5" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="4" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B53" s="5" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="4" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B54" s="5" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="4" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B55" s="5" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="4" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B56" s="5" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="4" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B57" s="5" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" s="4" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B58" s="5" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" s="4" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B59" s="5" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" s="4" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B60" s="5" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" s="4" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B61" s="5" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" s="4" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B62" s="5" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" s="4" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B63" s="5" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" s="4" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B64" s="5" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" s="4" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="5" t="s">
         <v>936</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B65" s="5" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" s="4" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B66" s="5" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" s="4" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B67" s="5" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" s="4" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B68" s="5" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" s="4" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B69" s="5" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" s="4" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B70" s="5" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" s="4" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B71" s="5" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" s="4" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B72" s="5" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" s="4" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B73" s="5" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" s="4" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B74" s="5" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" s="4" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B75" s="5" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" s="4" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B76" s="5" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" s="4" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B77" s="5" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" s="4" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B78" s="5" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" s="4" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B79" s="5" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" s="4" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B80" s="5" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" s="4" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B81" s="5" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" s="4" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B82" s="5" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" s="4" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B83" s="5" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" s="4" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B84" s="5" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" s="4" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B85" s="5" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" s="4" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B86" s="5" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" s="4" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B87" s="5" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" s="4" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B88" s="5" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73" s="4" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B89" s="5" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A74" s="4" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B90" s="5" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A75" s="4" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B91" s="5" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A76" s="4" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B92" s="5" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A77" s="4" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" s="5" t="s">
         <v>1229</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B93" s="5" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A78" s="4" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B94" s="5" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A79" s="4" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B95" s="5" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A80" s="4" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B96" s="5" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A81" s="4" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B97" s="5" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A82" s="4" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B98" s="5" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A83" s="4" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B99" s="5" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A84" s="4" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" s="5" t="s">
         <v>1231</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B100" s="5" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A85" s="4" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B101" s="5" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A86" s="4" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B102" s="5" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A87" s="4" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B103" s="5" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A88" s="4" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B104" s="5" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A89" s="4" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B105" s="5" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A90" s="4" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B106" s="5" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A91" s="4" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B107" s="5" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A92" s="4" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B108" s="5" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A93" s="4" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B109" s="5" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A94" s="4" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B94" s="4"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A95" s="4" t="s">
+      <c r="B110" s="5"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B111" s="5" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A96" s="4" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B112" s="5" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A97" s="4" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B97" s="4"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A98" s="4" t="s">
+      <c r="B113" s="5"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B98" s="4"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A99" s="4" t="s">
+      <c r="B114" s="5"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B115" s="5" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A100" s="4" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B116" s="5" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A101" s="4" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B117" s="5" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A102" s="4" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B102" s="4"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A103" s="4" t="s">
+      <c r="B118" s="5"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B119" s="5" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A104" s="4" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B120" s="5" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A105" s="4" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B121" s="5" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A106" s="4" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B122" s="5" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A107" s="4" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B123" s="5" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A108" s="4" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B124" s="5" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A109" s="4" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B125" s="5" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A110" s="4" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B126" s="5" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A111" s="4" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B127" s="5" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A112" s="4" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128" s="5" t="s">
         <v>1232</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B128" s="5" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A113" s="4" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B129" s="5" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A114" s="4" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B130" s="5" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A115" s="4" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B131" s="5" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A116" s="4" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132" s="5" t="s">
         <v>1234</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B132" s="5" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A117" s="4" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133" s="5" t="s">
         <v>1236</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B133" s="5" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A118" s="4" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B134" s="5" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A119" s="4" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B135" s="5" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A120" s="4" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B136" s="5" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A121" s="4" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B137" s="5" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A122" s="4" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B138" s="5" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A123" s="4" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A139" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B139" s="5" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A124" s="4" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A140" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B140" s="5" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A125" s="4" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A141" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B141" s="5" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A126" s="4" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A142" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B142" s="5" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A127" s="4" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143" s="5" t="s">
         <v>1238</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B143" s="5" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A128" s="4" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A144" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B144" s="5" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A129" s="4" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B145" s="5" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A130" s="4" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B146" s="5" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A131" s="4" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B147" s="5" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A132" s="4" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B148" s="5" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A133" s="4" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B149" s="5" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A134" s="4" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B150" s="5" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A135" s="4" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B151" s="5" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A136" s="4" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B152" s="5" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A137" s="4" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B153" s="5" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A138" s="4" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B154" s="5" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A139" s="4" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155" s="5" t="s">
         <v>1242</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B155" s="5" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A140" s="4" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A156" s="5" t="s">
         <v>1244</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B156" s="5" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A141" s="4" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A157" s="5" t="s">
         <v>1246</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B157" s="4" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A142" s="4" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A158" s="5" t="s">
         <v>1247</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B158" s="4" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A143" s="4" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A159" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B159" s="5" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A144" s="4" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160" s="5" t="s">
         <v>1249</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B160" s="5" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A145" s="4" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161" s="5" t="s">
         <v>1251</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B161" s="5" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A146" s="4" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162" s="5" t="s">
         <v>1253</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B162" s="5" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A147" s="4" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163" s="5" t="s">
         <v>1255</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B163" s="4" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A148" s="4" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A164" s="5" t="s">
         <v>1256</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B164" s="4" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A149" s="4" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A165" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B165" s="5" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A150" s="4" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A166" s="5" t="s">
         <v>1258</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B166" s="5" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A151" s="4" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A167" s="5" t="s">
         <v>1260</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B167" s="5" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A152" s="4" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A168" s="5" t="s">
         <v>1262</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B168" s="5" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A153" s="4" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169" s="5" t="s">
         <v>1264</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B169" s="4" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A154" s="4" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170" s="5" t="s">
         <v>1265</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B170" s="4" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A155" s="4" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B171" s="5" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A156" s="4" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172" s="5" t="s">
         <v>1267</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B172" s="5" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A157" s="4" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B173" s="5" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A158" s="4" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B158" s="4"/>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A159" s="4" t="s">
+      <c r="B174" s="5"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B159" s="4"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A160" s="4" t="s">
+      <c r="B175" s="5"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B176" s="5" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A161" s="4" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B177" s="5" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A162" s="4" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B178" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A163" s="4" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B179" s="5" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A164" s="4" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B180" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A165" s="4" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B181" s="5" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A166" s="4" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B182" s="5" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A167" s="4" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A183" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B183" s="5" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A168" s="4" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A184" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B184" s="5" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A169" s="4" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A185" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B185" s="5" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A170" s="4" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A186" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B186" s="5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A171" s="4" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A187" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B187" s="5" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A172" s="4" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A188" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B188" s="5" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A173" s="4" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A189" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B189" s="5" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A174" s="4" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A190" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B190" s="5" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A175" s="4" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A191" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B191" s="5" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A176" s="4" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A192" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B192" s="5" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A177" s="4" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A193" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B193" s="5" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A178" s="4" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A194" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B194" s="5" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A179" s="4" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A195" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B195" s="5" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A180" s="4" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A196" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B196" s="5" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A181" s="4" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A197" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B197" s="5" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A182" s="4" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A198" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B198" s="5" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A183" s="4" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A199" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B199" s="5" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A184" s="4" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A200" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B200" s="5" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A185" s="4" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A201" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B201" s="5" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A186" s="4" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A202" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B202" s="5" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A187" s="4" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A203" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B203" s="5" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A188" s="4" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A204" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B204" s="5" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A189" s="4" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A205" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B205" s="5" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A190" s="4" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A206" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B206" s="5" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A191" s="4" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A207" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B207" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A192" s="4" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A208" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B208" s="5" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A193" s="4" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A209" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B209" s="5" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A194" s="4" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A210" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B210" s="5" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A195" s="4" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A211" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B211" s="5" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A196" s="4" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A212" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B212" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A197" s="4" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A213" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B213" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A198" s="4" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A214" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B214" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A199" s="4" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A215" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B199" s="4"/>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A200" s="4" t="s">
+      <c r="B215" s="5"/>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A216" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="B200" s="4"/>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A201" s="4" t="s">
+      <c r="B216" s="5"/>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A217" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B201" s="4"/>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A202" s="4" t="s">
+      <c r="B217" s="5"/>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A218" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="B202" s="4"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A203" s="4" t="s">
+      <c r="B218" s="5"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A219" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B203" s="4"/>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A204" s="4" t="s">
+      <c r="B219" s="5"/>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A220" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B204" s="4"/>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A205" s="4" t="s">
+      <c r="B220" s="5"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A221" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B221" s="5" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A206" s="4" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A222" s="5" t="s">
         <v>1174</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B222" s="5" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A207" s="4" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A223" s="5" t="s">
         <v>1175</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B223" s="5" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A208" s="4" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A224" s="5" t="s">
         <v>1182</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B224" s="5" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A209" s="4" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A225" s="5" t="s">
         <v>1183</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B225" s="5" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A210" s="4" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A226" s="5" t="s">
         <v>1184</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B226" s="5" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A211" s="4" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A227" s="5" t="s">
         <v>1185</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B227" s="5" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A212" s="4" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A228" s="5" t="s">
         <v>1194</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B228" s="5" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A213" s="4" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A229" s="5" t="s">
         <v>1178</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B229" s="5" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A214" s="4" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A230" s="5" t="s">
         <v>1179</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B230" s="5" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A215" s="4" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A231" s="5" t="s">
         <v>1180</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B231" s="5" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A216" s="4" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A232" s="5" t="s">
         <v>1181</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B232" s="5" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A217" s="4" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A233" s="5" t="s">
         <v>1192</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B233" s="5" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A218" s="4" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A234" s="5" t="s">
         <v>1176</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B234" s="5" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A219" s="4" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A235" s="5" t="s">
         <v>1177</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B235" s="5" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A220" s="4" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A236" s="5" t="s">
         <v>1202</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B236" s="5" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A221" s="4" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A237" s="5" t="s">
         <v>1203</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B237" s="5" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A222" s="4" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A238" s="5" t="s">
         <v>1204</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B238" s="5" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A223" s="4" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A239" s="5" t="s">
         <v>1205</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B239" s="5" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A224" s="4" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A240" s="5" t="s">
         <v>1206</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B240" s="5" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A225" s="4" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A241" s="5" t="s">
         <v>1207</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B241" s="5" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A226" s="4" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A242" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B242" s="5" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A227" s="4" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A243" s="5" t="s">
         <v>1209</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B243" s="5" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A228" s="4" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A244" s="5" t="s">
         <v>1210</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="B244" s="5" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A229" s="4" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A245" s="5" t="s">
         <v>1211</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B245" s="5" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A230" s="4" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A246" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B246" s="5" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A231" s="3" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A247" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B247" s="5" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A232" s="3" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A248" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B248" s="5" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A233" s="3" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A249" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B249" s="5" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A234" s="3" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A250" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B250" s="5" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A235" s="3" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A251" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B251" s="5" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A236" s="3" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A252" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B252" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A237" s="3" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A253" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B253" s="5" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A238" s="3" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A254" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B254" s="5" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A239" s="3" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A255" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B255" s="5" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A240" s="3" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A256" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B256" s="5" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A241" s="3" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A257" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B257" s="5" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A242" s="3" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A258" s="4" t="s">
         <v>1277</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B258" s="4" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A243" s="3" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A259" s="4" t="s">
         <v>1278</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B259" s="4" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A244" s="3" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A260" s="4" t="s">
         <v>1279</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="B260" s="5" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A245" s="3" t="s">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A261" s="4" t="s">
         <v>1280</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B261" s="5" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A246" s="3" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A262" s="4" t="s">
         <v>1282</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B262" s="5" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A247" s="3" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A263" s="4" t="s">
         <v>1284</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B263" s="4" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A248" s="3" t="s">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A264" s="4" t="s">
         <v>1285</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B264" s="4" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A249" s="3" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A265" s="4" t="s">
         <v>1286</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B265" s="4" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A250" s="3" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A266" s="4" t="s">
         <v>1287</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B266" s="4" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A251" s="3" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A267" s="4" t="s">
         <v>1288</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B267" s="4" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A252" s="3" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A268" s="4" t="s">
         <v>1289</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B268" s="4" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A253" s="3" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A269" s="4" t="s">
         <v>1290</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B269" s="4" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A254" s="3" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A270" s="4" t="s">
         <v>1291</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B270" s="4" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A255" s="1"/>
-      <c r="B255" s="2"/>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A256" s="1"/>
-      <c r="B256" s="2"/>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A257" s="1"/>
-      <c r="B257" s="2"/>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A260" s="1"/>
-      <c r="B260" s="2"/>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A261" s="1"/>
-      <c r="B261" s="2"/>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A262" s="1"/>
-      <c r="B262" s="2"/>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
-    </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
+      <c r="A272" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>1292</v>
+      </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
+      <c r="A273" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
+      <c r="A274" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>1296</v>
+      </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
+      <c r="A275" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>1298</v>
+      </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
+      <c r="A276" s="4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>1300</v>
+      </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
+      <c r="A277" s="4" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>1302</v>
+      </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
+      <c r="A278" s="4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>1304</v>
+      </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
+      <c r="A279" s="4" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>1306</v>
+      </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
+      <c r="A280" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>1308</v>
+      </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
+      <c r="A281" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>1310</v>
+      </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
+      <c r="A282" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>1312</v>
+      </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
+      <c r="A283" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
+      <c r="A284" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
+      <c r="A285" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>758</v>
+      </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
+      <c r="A286" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>1314</v>
+      </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
+      <c r="A287" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>1315</v>
+      </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
+      <c r="A288" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>1316</v>
+      </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
+      <c r="A289" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>1317</v>
+      </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A290" s="1"/>
-      <c r="B290" s="2"/>
+      <c r="A290" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>1318</v>
+      </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
+      <c r="A291" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>1319</v>
+      </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
+      <c r="A292" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>1320</v>
+      </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
+      <c r="A293" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>1321</v>
+      </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
+      <c r="A294" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>1322</v>
+      </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A295" s="1"/>
-      <c r="B295" s="1"/>
+      <c r="A295" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>1323</v>
+      </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
+      <c r="A296" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>1324</v>
+      </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
+      <c r="A297" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>1325</v>
+      </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
+      <c r="A298" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>1327</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE27C3D-4E53-4D93-9663-F7296DEA74E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD34F7C-E2E4-4EC4-873C-5C4B879C742C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="5" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="15523" yWindow="994" windowWidth="16714" windowHeight="15052" activeTab="5" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="1344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="1345">
   <si>
     <t>be01edu_me</t>
   </si>
@@ -4077,6 +4077,9 @@
   </si>
   <si>
     <t>Detail</t>
+  </si>
+  <si>
+    <t>hhm_symp_nausea</t>
   </si>
 </sst>
 </file>
@@ -15860,8 +15863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A651A7-E2A8-48DC-A289-3ADEDF80FEC9}">
   <dimension ref="A1:B298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B298"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -16203,7 +16206,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>507</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
@@ -18192,6 +18195,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD34F7C-E2E4-4EC4-873C-5C4B879C742C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD2188D-A9BE-40F6-A90A-F75E837AAE64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15523" yWindow="994" windowWidth="16714" windowHeight="15052" activeTab="5" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="5640" yWindow="994" windowWidth="26597" windowHeight="15052" activeTab="5" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3784" uniqueCount="1339">
   <si>
     <t>be01edu_me</t>
   </si>
@@ -3776,15 +3776,9 @@
     <t>q79a_1_scale</t>
   </si>
   <si>
-    <t>multiple_contacts_under_12_work</t>
-  </si>
-  <si>
     <t>q79a_2_scale</t>
   </si>
   <si>
-    <t>multiple_contacts_12_17_work</t>
-  </si>
-  <si>
     <t>q79a_3_scale</t>
   </si>
   <si>
@@ -3803,15 +3797,9 @@
     <t>q80a_1_scale</t>
   </si>
   <si>
-    <t>multiple_contacts_under_12_school</t>
-  </si>
-  <si>
     <t>q80a_2_scale</t>
   </si>
   <si>
-    <t>multiple_contacts_12_17_school</t>
-  </si>
-  <si>
     <t>q80a_3_scale</t>
   </si>
   <si>
@@ -3830,13 +3818,7 @@
     <t>q81a_1_scale</t>
   </si>
   <si>
-    <t>multiple_contacts_under_12_other</t>
-  </si>
-  <si>
     <t>q81a_2_scale</t>
-  </si>
-  <si>
-    <t>multiple_contacts_12_17_other</t>
   </si>
   <si>
     <t>q81a_3_scale</t>
@@ -4459,66 +4441,66 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="B3" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="B4" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="B5" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="B6" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="B7" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="B8" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="B9" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="B10" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
     </row>
   </sheetData>
@@ -7898,7 +7880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6804872F-908E-4576-8C9F-D057085582A0}">
   <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView topLeftCell="A369" workbookViewId="0">
+    <sheetView topLeftCell="A327" workbookViewId="0">
       <selection activeCell="A418" sqref="A418"/>
     </sheetView>
   </sheetViews>
@@ -11264,8 +11246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2811056-AE3B-4304-B94A-E79692ED9D00}">
   <dimension ref="A1:B281"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="A281" sqref="A281"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B194" sqref="B194:B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -13528,7 +13510,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837411D0-7592-4667-8DD0-A212016903E8}">
   <dimension ref="A1:B298"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B172" sqref="B155:B172"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -14730,144 +14714,138 @@
       <c r="A155" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>1243</v>
+      <c r="B155" s="4" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" s="3" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" s="3" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>772</v>
+        <v>1244</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" s="3" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>778</v>
-      </c>
+        <v>1245</v>
+      </c>
+      <c r="B158" s="2"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" s="3" t="s">
         <v>402</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" s="3" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" s="3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>1252</v>
+        <v>1249</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" s="3" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>1254</v>
+        <v>1250</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" s="3" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>774</v>
+        <v>1251</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" s="3" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>780</v>
-      </c>
+        <v>1252</v>
+      </c>
+      <c r="B164" s="2"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" s="3" t="s">
         <v>403</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" s="3" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" s="3" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>1261</v>
+        <v>1256</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" s="3" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>1263</v>
+        <v>1257</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169" s="3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>776</v>
+        <v>1258</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170" s="3" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>782</v>
-      </c>
+        <v>1259</v>
+      </c>
+      <c r="B170" s="2"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171" s="3" t="s">
         <v>404</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172" s="3" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.4">
@@ -15451,7 +15429,7 @@
         <v>0</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.4">
@@ -15475,7 +15453,7 @@
         <v>3</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.4">
@@ -15483,7 +15461,7 @@
         <v>4</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.4">
@@ -15499,7 +15477,7 @@
         <v>6</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.4">
@@ -15507,7 +15485,7 @@
         <v>7</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.4">
@@ -15515,7 +15493,7 @@
         <v>8</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.4">
@@ -15523,7 +15501,7 @@
         <v>9</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.4">
@@ -15531,12 +15509,12 @@
         <v>224</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A258" s="2" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>1143</v>
@@ -15544,7 +15522,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A259" s="2" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>1163</v>
@@ -15552,7 +15530,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A260" s="2" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>834</v>
@@ -15560,23 +15538,23 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A261" s="2" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A262" s="2" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A263" s="2" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>1144</v>
@@ -15584,7 +15562,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A264" s="2" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>1145</v>
@@ -15592,7 +15570,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A265" s="2" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>1146</v>
@@ -15600,7 +15578,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A266" s="2" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>1147</v>
@@ -15608,7 +15586,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A267" s="2" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>1148</v>
@@ -15616,7 +15594,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A268" s="2" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>1149</v>
@@ -15624,7 +15602,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A269" s="2" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>1150</v>
@@ -15632,7 +15610,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A270" s="2" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>1151</v>
@@ -15643,87 +15621,87 @@
         <v>296</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A273" s="2" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A274" s="2" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A275" s="2" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A276" s="2" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A277" s="2" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A278" s="2" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A279" s="2" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A280" s="2" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A281" s="2" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A282" s="2" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.4">
@@ -15752,10 +15730,10 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A286" s="2" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.4">
@@ -15763,7 +15741,7 @@
         <v>359</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.4">
@@ -15771,7 +15749,7 @@
         <v>362</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.4">
@@ -15779,7 +15757,7 @@
         <v>363</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.4">
@@ -15787,7 +15765,7 @@
         <v>338</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.4">
@@ -15795,7 +15773,7 @@
         <v>192</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.4">
@@ -15803,7 +15781,7 @@
         <v>199</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.4">
@@ -15811,7 +15789,7 @@
         <v>208</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.4">
@@ -15819,7 +15797,7 @@
         <v>193</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.4">
@@ -15827,7 +15805,7 @@
         <v>200</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.4">
@@ -15835,7 +15813,7 @@
         <v>209</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.4">
@@ -15843,15 +15821,15 @@
         <v>210</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A298" s="2" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
     </row>
   </sheetData>
@@ -15863,11 +15841,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A651A7-E2A8-48DC-A289-3ADEDF80FEC9}">
   <dimension ref="A1:B298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155:B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22.84375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
@@ -16206,7 +16187,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
@@ -17069,144 +17050,138 @@
       <c r="A155" s="5" t="s">
         <v>1242</v>
       </c>
-      <c r="B155" s="5" t="s">
-        <v>1243</v>
+      <c r="B155" s="4" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" s="5" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" s="5" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>778</v>
-      </c>
+        <v>1245</v>
+      </c>
+      <c r="B158" s="4"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" s="5" t="s">
         <v>402</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" s="5" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>1252</v>
+        <v>1249</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" s="5" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>1254</v>
+        <v>1250</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" s="5" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" s="5" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>780</v>
-      </c>
+        <v>1252</v>
+      </c>
+      <c r="B164" s="4"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" s="5" t="s">
         <v>403</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" s="5" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" s="5" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>1261</v>
+        <v>1256</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" s="5" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>1263</v>
+        <v>1257</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169" s="5" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170" s="5" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>782</v>
-      </c>
+        <v>1259</v>
+      </c>
+      <c r="B170" s="4"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171" s="5" t="s">
         <v>404</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172" s="5" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.4">
@@ -17790,7 +17765,7 @@
         <v>0</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.4">
@@ -17814,7 +17789,7 @@
         <v>3</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.4">
@@ -17822,7 +17797,7 @@
         <v>4</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.4">
@@ -17838,7 +17813,7 @@
         <v>6</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.4">
@@ -17846,7 +17821,7 @@
         <v>7</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.4">
@@ -17854,7 +17829,7 @@
         <v>8</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.4">
@@ -17862,7 +17837,7 @@
         <v>9</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.4">
@@ -17870,12 +17845,12 @@
         <v>224</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A258" s="4" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>1143</v>
@@ -17883,7 +17858,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A259" s="4" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>1163</v>
@@ -17891,7 +17866,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A260" s="4" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="B260" s="5" t="s">
         <v>834</v>
@@ -17899,23 +17874,23 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A261" s="4" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A262" s="4" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A263" s="4" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="B263" s="4" t="s">
         <v>1144</v>
@@ -17923,7 +17898,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A264" s="4" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>1145</v>
@@ -17931,7 +17906,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A265" s="4" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="B265" s="4" t="s">
         <v>1146</v>
@@ -17939,7 +17914,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A266" s="4" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>1147</v>
@@ -17947,7 +17922,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A267" s="4" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>1148</v>
@@ -17955,7 +17930,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A268" s="4" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>1149</v>
@@ -17963,7 +17938,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A269" s="4" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>1150</v>
@@ -17971,7 +17946,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A270" s="4" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>1151</v>
@@ -17982,87 +17957,87 @@
         <v>296</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A273" s="4" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A274" s="4" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A275" s="4" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A276" s="4" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A277" s="4" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A278" s="4" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A279" s="4" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A280" s="4" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A281" s="4" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A282" s="4" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.4">
@@ -18091,10 +18066,10 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A286" s="4" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.4">
@@ -18102,7 +18077,7 @@
         <v>359</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.4">
@@ -18110,7 +18085,7 @@
         <v>362</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.4">
@@ -18118,7 +18093,7 @@
         <v>363</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.4">
@@ -18126,7 +18101,7 @@
         <v>338</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.4">
@@ -18134,7 +18109,7 @@
         <v>192</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.4">
@@ -18142,7 +18117,7 @@
         <v>199</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.4">
@@ -18150,7 +18125,7 @@
         <v>208</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.4">
@@ -18158,7 +18133,7 @@
         <v>193</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.4">
@@ -18166,7 +18141,7 @@
         <v>200</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.4">
@@ -18174,7 +18149,7 @@
         <v>209</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.4">
@@ -18182,15 +18157,15 @@
         <v>210</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A298" s="4" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
     </row>
   </sheetData>

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD2188D-A9BE-40F6-A90A-F75E837AAE64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161DC745-E582-407A-9713-3EDC3A54C9C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="994" windowWidth="26597" windowHeight="15052" activeTab="5" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="5640" yWindow="994" windowWidth="26597" windowHeight="15052" activeTab="3" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3784" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="1339">
   <si>
     <t>be01edu_me</t>
   </si>
@@ -11244,10 +11244,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2811056-AE3B-4304-B94A-E79692ED9D00}">
-  <dimension ref="A1:B281"/>
+  <dimension ref="A1:B284"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B194" sqref="B194:B196"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200:B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -12765,513 +12765,513 @@
         <v>845</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A190" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>768</v>
+    <row r="190" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A190" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A192" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
-        <v>403</v>
+        <v>848</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>849</v>
+        <v>780</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
-        <v>850</v>
+        <v>403</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A195" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>776</v>
+        <v>849</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A195" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A196" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A197" s="1" t="s">
-        <v>404</v>
+        <v>851</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>853</v>
+        <v>776</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A198" s="1" t="s">
-        <v>405</v>
+        <v>852</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>854</v>
+        <v>782</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A199" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A200" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>937</v>
+        <v>853</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A200" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A201" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>461</v>
+        <v>854</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A202" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>855</v>
+        <v>937</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A203" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>468</v>
+        <v>937</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A204" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A205" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>478</v>
+        <v>855</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A206" s="1" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A207" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A208" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A210" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A213" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A214" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A215" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A216" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A217" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A219" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A220" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A221" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A222" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A223" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>856</v>
+        <v>474</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A224" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A225" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A226" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>457</v>
+        <v>856</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A227" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>857</v>
+        <v>458</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A228" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A229" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A230" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>460</v>
+        <v>857</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A231" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A232" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A233" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A234" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>858</v>
+        <v>462</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A235" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>942</v>
+        <v>463</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A236" s="1" t="s">
-        <v>211</v>
+        <v>441</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>859</v>
+        <v>464</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A237" s="1" t="s">
-        <v>212</v>
+        <v>442</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>212</v>
+        <v>858</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A238" s="1" t="s">
-        <v>213</v>
+        <v>443</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>213</v>
+        <v>942</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A239" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>214</v>
+        <v>859</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A240" s="1" t="s">
-        <v>445</v>
+        <v>212</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>860</v>
+        <v>212</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A241" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>861</v>
+        <v>213</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A242" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>862</v>
+        <v>214</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A243" s="1" t="s">
-        <v>217</v>
+        <v>445</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A244" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>937</v>
+        <v>861</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A245" s="1" t="s">
-        <v>446</v>
+        <v>216</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>446</v>
+        <v>862</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A246" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A247" s="1" t="s">
-        <v>447</v>
+        <v>218</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>865</v>
+        <v>937</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A248" s="1" t="s">
-        <v>220</v>
+        <v>446</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>866</v>
+        <v>446</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A249" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A250" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>937</v>
+        <v>865</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A251" s="1" t="s">
-        <v>449</v>
+        <v>220</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>937</v>
+        <v>866</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A252" s="1" t="s">
-        <v>450</v>
+        <v>221</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>937</v>
+        <v>867</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A253" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>937</v>
@@ -13279,7 +13279,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A254" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>937</v>
@@ -13287,7 +13287,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A255" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>937</v>
@@ -13295,209 +13295,233 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A256" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>454</v>
+        <v>937</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A257" s="1" t="s">
-        <v>1174</v>
+        <v>452</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1186</v>
+        <v>937</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A258" s="1" t="s">
-        <v>1175</v>
+        <v>453</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1187</v>
+        <v>937</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A259" s="1" t="s">
-        <v>1182</v>
+        <v>454</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1188</v>
+        <v>454</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A260" s="1" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A261" s="1" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A262" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A263" s="1" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A264" s="1" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A265" s="1" t="s">
-        <v>1179</v>
+        <v>1185</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A266" s="1" t="s">
-        <v>1180</v>
+        <v>1194</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A267" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A268" s="1" t="s">
-        <v>1192</v>
+        <v>1179</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A269" s="1" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A270" s="1" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A271" s="1" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1212</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A272" s="1" t="s">
-        <v>1203</v>
+        <v>1176</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1213</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A273" s="1" t="s">
-        <v>1204</v>
+        <v>1177</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1214</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A274" s="1" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A275" s="1" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A276" s="1" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A277" s="1" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A278" s="1" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A279" s="1" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A280" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A281" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A282" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A283" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A284" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="B284" s="1" t="s">
         <v>465</v>
       </c>
     </row>
@@ -13511,7 +13535,7 @@
   <dimension ref="A1:B298"/>
   <sheetViews>
     <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B172" sqref="B155:B172"/>
+      <selection activeCell="A172" sqref="A172:B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -15841,8 +15865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A651A7-E2A8-48DC-A289-3ADEDF80FEC9}">
   <dimension ref="A1:B298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155:B172"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A160" sqref="A159:B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amygimma/lshtm/comix_data_clean/codebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D028939E-CC50-6F46-ADED-91FEEC8FA596}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BD650B-0384-6B48-A685-A0A8A3F48AE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="1000" windowWidth="26600" windowHeight="15060" activeTab="5" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="2200" yWindow="1120" windowWidth="26600" windowHeight="15060" activeTab="5" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
     <sheet name="survey_1" sheetId="2" r:id="rId2"/>
     <sheet name="survey_2" sheetId="3" r:id="rId3"/>
     <sheet name="survey_3" sheetId="8" r:id="rId4"/>
-    <sheet name="survey_4" sheetId="10" r:id="rId5"/>
-    <sheet name="survey_5" sheetId="9" r:id="rId6"/>
-    <sheet name="locations" sheetId="5" r:id="rId7"/>
-    <sheet name="remove_vars" sheetId="6" r:id="rId8"/>
+    <sheet name="survey_4_be" sheetId="10" r:id="rId5"/>
+    <sheet name="survey_4_nl" sheetId="11" r:id="rId6"/>
+    <sheet name="survey_5" sheetId="9" r:id="rId7"/>
+    <sheet name="locations" sheetId="5" r:id="rId8"/>
+    <sheet name="remove_vars" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey_1!$A$1:$G$423</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3812" uniqueCount="1362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4425" uniqueCount="1372">
   <si>
     <t>be01edu_me</t>
   </si>
@@ -4131,6 +4132,36 @@
   </si>
   <si>
     <t>destdregion</t>
+  </si>
+  <si>
+    <t>multiple_contacts_child_12_17_work</t>
+  </si>
+  <si>
+    <t>multiple_contacts_child_0_11_work</t>
+  </si>
+  <si>
+    <t>multiple_contacts_child_12_17_school</t>
+  </si>
+  <si>
+    <t>multiple_contacts_child_0_11_school</t>
+  </si>
+  <si>
+    <t>multiple_contacts_child_0_11_other</t>
+  </si>
+  <si>
+    <t>multiple_contacts_child_12_17_other</t>
+  </si>
+  <si>
+    <t>part_public_transport_other_text</t>
+  </si>
+  <si>
+    <t>q68a</t>
+  </si>
+  <si>
+    <t>elevated_risk_group</t>
+  </si>
+  <si>
+    <t>part_elevated_risk</t>
   </si>
 </sst>
 </file>
@@ -4583,7 +4614,7 @@
   <dimension ref="A1:B418"/>
   <sheetViews>
     <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="B405" sqref="B405"/>
+      <selection activeCell="B421" sqref="B421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7949,8 +7980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6804872F-908E-4576-8C9F-D057085582A0}">
   <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView topLeftCell="A327" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418"/>
+    <sheetView topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="A362" sqref="A362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11315,8 +11346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2811056-AE3B-4304-B94A-E79692ED9D00}">
   <dimension ref="A1:B284"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200:B200"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13601,13 +13632,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837411D0-7592-4667-8DD0-A212016903E8}">
-  <dimension ref="A1:B298"/>
+  <dimension ref="A1:B314"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172:B172"/>
+    <sheetView topLeftCell="A266" zoomScale="91" workbookViewId="0">
+      <selection activeCell="A283" sqref="A283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -14808,7 +14843,7 @@
         <v>1242</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>766</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -14816,7 +14851,7 @@
         <v>1243</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>772</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -14824,14 +14859,16 @@
         <v>1244</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="B158" s="2"/>
+      <c r="B158" s="4" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
@@ -14854,7 +14891,7 @@
         <v>1249</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>768</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -14862,7 +14899,7 @@
         <v>1250</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>774</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -14870,14 +14907,16 @@
         <v>1251</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="B164" s="2"/>
+      <c r="B164" s="4" t="s">
+        <v>780</v>
+      </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
@@ -14900,15 +14939,15 @@
         <v>1256</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>770</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>1257</v>
       </c>
-      <c r="B168" s="4" t="s">
-        <v>776</v>
+      <c r="B168" t="s">
+        <v>1367</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -14916,14 +14955,16 @@
         <v>1258</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="B170" s="2"/>
+      <c r="B170" s="4" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
@@ -15924,6 +15965,69 @@
       <c r="B298" s="2" t="s">
         <v>1321</v>
       </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="5"/>
+      <c r="B299" s="4"/>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="5"/>
+      <c r="B300" s="4"/>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B301" s="4"/>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="5"/>
+      <c r="B302" s="4"/>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="5"/>
+      <c r="B303" s="5"/>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="5"/>
+      <c r="B304" s="5"/>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="5"/>
+      <c r="B305" s="4"/>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="5"/>
+      <c r="B306" s="4"/>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="5"/>
+      <c r="B307" s="4"/>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="5"/>
+      <c r="B308" s="4"/>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="5"/>
+      <c r="B309" s="5"/>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="5"/>
+      <c r="B310" s="5"/>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="5"/>
+      <c r="B311" s="4"/>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="5"/>
+      <c r="B312" s="4"/>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="5"/>
+      <c r="B313" s="4"/>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="5"/>
+      <c r="B314" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15931,11 +16035,2476 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01158CBA-7E67-C246-925F-8A45600A7C89}">
+  <dimension ref="A1:B306"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="A298" sqref="A298:XFD298"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="4" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="4" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>191</v>
+      </c>
+      <c r="B298" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>198</v>
+      </c>
+      <c r="B299" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>207</v>
+      </c>
+      <c r="B300" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>192</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>199</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>208</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>193</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>200</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>209</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A651A7-E2A8-48DC-A289-3ADEDF80FEC9}">
   <dimension ref="A1:B309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="A310" sqref="A310"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18355,7 +20924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6379954C-B519-4E67-8DE4-32A1851A1CD0}">
   <dimension ref="A1:D73"/>
   <sheetViews>
@@ -19405,7 +21974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB4B1FA-6628-4BA2-9F29-B27CBB154F46}">
   <dimension ref="A1:A120"/>
   <sheetViews>

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ECC0BF-58C9-4254-99D7-FCA691EDE36F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C9B960-627A-4F0F-A68F-7BC73D7B4035}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="6" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="5" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -16038,8 +16038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01158CBA-7E67-C246-925F-8A45600A7C89}">
   <dimension ref="A1:B306"/>
   <sheetViews>
-    <sheetView topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="A298" sqref="A298:XFD298"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176:B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -18503,7 +18503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A651A7-E2A8-48DC-A289-3ADEDF80FEC9}">
   <dimension ref="A1:B312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+    <sheetView topLeftCell="A110" workbookViewId="0">
       <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
@@ -19604,7 +19604,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="142" spans="1:2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" s="5" t="s">
         <v>387</v>
       </c>
@@ -19636,7 +19636,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="146" spans="1:2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" s="5" t="s">
         <v>1238</v>
       </c>
@@ -19644,7 +19644,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="147" spans="1:2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" s="5" t="s">
         <v>391</v>
       </c>
@@ -19652,7 +19652,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="148" spans="1:2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" s="5" t="s">
         <v>392</v>
       </c>
@@ -19660,7 +19660,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="149" spans="1:2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" s="5" t="s">
         <v>393</v>
       </c>
@@ -19668,7 +19668,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="150" spans="1:2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150" s="5" t="s">
         <v>394</v>
       </c>
@@ -19676,7 +19676,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="151" spans="1:2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151" s="5" t="s">
         <v>395</v>
       </c>
@@ -19684,7 +19684,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="152" spans="1:2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152" s="5" t="s">
         <v>396</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="153" spans="1:2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153" s="5" t="s">
         <v>397</v>
       </c>
@@ -19700,7 +19700,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="154" spans="1:2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154" s="5" t="s">
         <v>398</v>
       </c>
@@ -19708,7 +19708,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="155" spans="1:2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155" s="5" t="s">
         <v>399</v>
       </c>
@@ -19716,7 +19716,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="156" spans="1:2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" s="5" t="s">
         <v>400</v>
       </c>
@@ -19724,7 +19724,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="157" spans="1:2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" s="5" t="s">
         <v>401</v>
       </c>
@@ -19732,7 +19732,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="158" spans="1:2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" s="5" t="s">
         <v>1242</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="159" spans="1:2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" s="5" t="s">
         <v>1243</v>
       </c>
@@ -19748,7 +19748,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="160" spans="1:2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" s="5" t="s">
         <v>1244</v>
       </c>

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amygimma/lshtm/comix_data_clean/codebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8219B52-FDE8-D444-8A37-7769BB2C15C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64134DA9-6B5E-FA4E-94A1-8434F2F42DEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="16640" activeTab="5" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="6" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="survey_3" sheetId="8" r:id="rId4"/>
     <sheet name="locations" sheetId="5" r:id="rId5"/>
     <sheet name="remove_vars" sheetId="6" r:id="rId6"/>
+    <sheet name="survey_norway" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey_1!$A$1:$G$423</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="1239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3455" uniqueCount="1248">
   <si>
     <t>be01edu_me</t>
   </si>
@@ -3760,6 +3761,33 @@
   </si>
   <si>
     <t xml:space="preserve">locations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">educat_no </t>
+  </si>
+  <si>
+    <t>part_education_no</t>
+  </si>
+  <si>
+    <t>qno86</t>
+  </si>
+  <si>
+    <t>norway_green_spaces_comfort_86</t>
+  </si>
+  <si>
+    <t>qn082</t>
+  </si>
+  <si>
+    <t>qn083</t>
+  </si>
+  <si>
+    <t>qn084</t>
+  </si>
+  <si>
+    <t>qn085</t>
+  </si>
+  <si>
+    <t>no_region1</t>
   </si>
 </sst>
 </file>
@@ -4193,8 +4221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1C5985-D720-4533-B6F5-A2816F80F2F5}">
   <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="B421" sqref="B421"/>
+    <sheetView topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="B418" sqref="A1:B418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14264,7 +14292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB4B1FA-6628-4BA2-9F29-B27CBB154F46}">
   <dimension ref="A1:A120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H208" sqref="H208"/>
     </sheetView>
   </sheetViews>
@@ -14879,4 +14907,3203 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCB4066-218E-8F4E-956F-A6615E43F03A}">
+  <dimension ref="A1:B398"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="G393" sqref="G393"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amygimma/lshtm/comix_data_clean/codebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64134DA9-6B5E-FA4E-94A1-8434F2F42DEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E85B3C1-E977-AE49-8EF5-E7E0BDFA11DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="6" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="3" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -4222,7 +4222,7 @@
   <dimension ref="A1:B418"/>
   <sheetViews>
     <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="B418" sqref="A1:B418"/>
+      <selection activeCell="B423" sqref="B423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10954,8 +10954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2811056-AE3B-4304-B94A-E79692ED9D00}">
   <dimension ref="A1:B284"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172:B174"/>
+    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="116" workbookViewId="0">
+      <selection activeCell="G253" sqref="G253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14913,7 +14913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCB4066-218E-8F4E-956F-A6615E43F03A}">
   <dimension ref="A1:B398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+    <sheetView topLeftCell="A375" workbookViewId="0">
       <selection activeCell="G393" sqref="G393"/>
     </sheetView>
   </sheetViews>

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amygimma/lshtm/comix_data_clean/codebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8219B52-FDE8-D444-8A37-7769BB2C15C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE2F68F-35B7-654A-A186-98C0FBBBE9A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="16640" activeTab="5" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="1239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="1240">
   <si>
     <t>be01edu_me</t>
   </si>
@@ -3760,6 +3760,9 @@
   </si>
   <si>
     <t xml:space="preserve">locations </t>
+  </si>
+  <si>
+    <t>norway_physically_active_81</t>
   </si>
 </sst>
 </file>
@@ -4193,8 +4196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1C5985-D720-4533-B6F5-A2816F80F2F5}">
   <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="B421" sqref="B421"/>
+    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="B393" sqref="B393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7344,7 +7347,7 @@
         <v>202</v>
       </c>
       <c r="B393" t="s">
-        <v>936</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -14264,8 +14267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB4B1FA-6628-4BA2-9F29-B27CBB154F46}">
   <dimension ref="A1:A120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H208" sqref="H208"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wkerr\Dropbox\lshtm\CoMix\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9759DE4-A269-46D3-974A-4E46360AC813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744A880F-2427-4365-A5CE-761A1A94C9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="1273">
   <si>
     <t>be01edu_me</t>
   </si>
@@ -14400,10 +14400,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB4B1FA-6628-4BA2-9F29-B27CBB154F46}">
-  <dimension ref="A1:A161"/>
+  <dimension ref="A1:A162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15216,6 +15216,11 @@
         <v>1272</v>
       </c>
     </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A481">
     <sortCondition ref="A2:A481"/>

--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wkerr\Dropbox\lshtm\CoMix\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744A880F-2427-4365-A5CE-761A1A94C9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5515A00-294D-4583-AA60-334E772905FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="survey_3" sheetId="8" r:id="rId4"/>
     <sheet name="locations" sheetId="5" r:id="rId5"/>
     <sheet name="remove_vars" sheetId="6" r:id="rId6"/>
+    <sheet name="remove_vars_contact" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey_1!$A$1:$G$423</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="1273">
   <si>
     <t>be01edu_me</t>
   </si>
@@ -14402,7 +14403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB4B1FA-6628-4BA2-9F29-B27CBB154F46}">
   <dimension ref="A1:A162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+    <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
@@ -15228,4 +15229,617 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C138C1C-F754-4981-8CD4-54939C29C320}">
+  <dimension ref="A1:A120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wkerr\Dropbox\lshtm\CoMix\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DFC3D6-DA2F-465E-9122-39C13D17C918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10CF24B-BB81-4C7F-BDED-16696BB3603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10410" yWindow="2610" windowWidth="21915" windowHeight="12720" firstSheet="1" activeTab="5" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="survey_3" sheetId="8" r:id="rId4"/>
     <sheet name="locations" sheetId="5" r:id="rId5"/>
     <sheet name="remove_vars" sheetId="6" r:id="rId6"/>
+    <sheet name="remove_vars_contact" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey_1!$A$1:$G$423</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="1274">
   <si>
     <t>be01edu_me</t>
   </si>
@@ -11057,8 +11058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2811056-AE3B-4304-B94A-E79692ED9D00}">
   <dimension ref="A1:B284"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11166,9 +11167,6 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>236</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -14393,10 +14391,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB4B1FA-6628-4BA2-9F29-B27CBB154F46}">
-  <dimension ref="A1:A161"/>
+  <dimension ref="A1:A162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15209,10 +15207,633 @@
         <v>1273</v>
       </c>
     </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A481">
     <sortCondition ref="A2:A481"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8252FADE-D025-407D-A2A6-384F46289F4B}">
+  <dimension ref="A1:A120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/codebook/var_names.xlsx
+++ b/codebook/var_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wkerr\Dropbox\lshtm\CoMix\comix_data_clean\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5515A00-294D-4583-AA60-334E772905FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F693D00-6528-4802-8055-C5387DB97325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{E3FB9B8D-729C-4B7A-BC06-409AAA905465}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="1274">
   <si>
     <t>be01edu_me</t>
   </si>
@@ -3761,6 +3761,9 @@
   </si>
   <si>
     <t xml:space="preserve">locations </t>
+  </si>
+  <si>
+    <t>norway_physically_active_81</t>
   </si>
   <si>
     <t>w16_namesexage</t>
@@ -3892,7 +3895,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3913,13 +3916,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3936,24 +3939,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4334,13 +4326,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1C5985-D720-4533-B6F5-A2816F80F2F5}">
   <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="B421" sqref="B421"/>
+    <sheetView topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7485,7 +7477,7 @@
         <v>202</v>
       </c>
       <c r="B393" t="s">
-        <v>936</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -7701,8 +7693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6804872F-908E-4576-8C9F-D057085582A0}">
   <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="A362" sqref="A362"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11066,13 +11058,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2811056-AE3B-4304-B94A-E79692ED9D00}">
   <dimension ref="A1:B284"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172:B174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11174,9 +11167,6 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>236</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -14403,8 +14393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB4B1FA-6628-4BA2-9F29-B27CBB154F46}">
   <dimension ref="A1:A162"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14413,812 +14403,812 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>1136</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>1076</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>1064</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" t="s">
         <v>1087</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" t="s">
         <v>1088</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" t="s">
         <v>1096</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" t="s">
         <v>1097</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" t="s">
         <v>1098</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" t="s">
         <v>1099</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" t="s">
         <v>1102</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" t="s">
         <v>1104</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" t="s">
         <v>1107</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="A65" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" t="s">
         <v>1111</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="A68" t="s">
         <v>1112</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" t="s">
         <v>1113</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" t="s">
         <v>1115</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" t="s">
         <v>1118</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" t="s">
         <v>1119</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="A78" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" t="s">
         <v>1123</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="A80" t="s">
         <v>1124</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="A81" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="A83" t="s">
         <v>1127</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="A84" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" t="s">
         <v>1129</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="A86" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="A87" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="A88" t="s">
         <v>1132</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="A89" t="s">
         <v>1133</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="A90" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="A92" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="A93" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="A94" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="A95" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="A96" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="A97" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="A98" t="s">
         <v>1075</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="A99" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="A100" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="A101" t="s">
         <v>1066</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="A102" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="A103" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="A104" t="s">
         <v>1072</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="A105" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="A106" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="A108" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="A109" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="A110" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="A111" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="A112" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="A113" t="s">
         <v>1168</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="A114" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="A115" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+      <c r="A116" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="A117" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="A118" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+      <c r="A119" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="A120" t="s">
         <v>1171</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="A121" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+      <c r="A122" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>1239</v>
+      <c r="A123" s="2" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>1240</v>
+      <c r="A124" s="2" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>1241</v>
+      <c r="A125" s="2" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>1242</v>
+      <c r="A126" s="2" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>1243</v>
+      <c r="A127" s="2" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>1244</v>
+      <c r="A128" s="2" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>1245</v>
+      <c r="A129" s="2" t="s">
+        <v>1246</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>1246</v>
+      <c r="A130" s="2" t="s">
+        <v>1247</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>1247</v>
+      <c r="A131" s="2" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>1248</v>
+      <c r="A132" s="2" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>1249</v>
+      <c r="A133" s="2" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>1250</v>
+      <c r="A134" s="2" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>1251</v>
+      <c r="A135" s="2" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>1252</v>
+      <c r="A136" s="2" t="s">
+        <v>1253</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>1253</v>
+      <c r="A137" s="2" t="s">
+        <v>1254</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>1254</v>
+      <c r="A138" s="2" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>1255</v>
+      <c r="A139" s="2" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>1256</v>
+      <c r="A140" s="2" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>1257</v>
+      <c r="A141" s="2" t="s">
+        <v>1258</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="3" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
-        <v>1258</v>
+      <c r="A143" s="4" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
-        <v>1259</v>
+      <c r="A145" s="3" t="s">
+        <v>1260</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>1260</v>
+      <c r="A146" s="3" t="s">
+        <v>1261</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
-        <v>1261</v>
+      <c r="A147" s="3" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
-        <v>1262</v>
+      <c r="A148" s="3" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
-        <v>1263</v>
+      <c r="A149" s="3" t="s">
+        <v>1264</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
-        <v>1264</v>
+      <c r="A150" s="3" t="s">
+        <v>1265</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
-        <v>1265</v>
+      <c r="A151" s="3" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>1266</v>
+      <c r="A152" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="3" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="3" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
-        <v>1267</v>
+      <c r="A155" s="5" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="s">
-        <v>1268</v>
+      <c r="A156" s="5" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>1269</v>
+      <c r="A157" s="3" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
-        <v>1270</v>
+      <c r="A158" s="3" t="s">
+        <v>1271</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>1271</v>
+      <c r="A159" s="3" t="s">
+        <v>1272</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="3" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>1272</v>
+      <c r="A161" s="3" t="s">
+        <v>1273</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -15227,17 +15217,21 @@
     <sortCondition ref="A2:A481"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C138C1C-F754-4981-8CD4-54939C29C320}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8252FADE-D025-407D-A2A6-384F46289F4B}">
   <dimension ref="A1:A120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
